--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,21 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C230C0-CDD3-4D4F-9C1D-06917D46004E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E5C230C0-CDD3-4D4F-9C1D-06917D46004E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{55617B33-A43E-4BAC-94C9-1C1D6CB30F09}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="2" xr2:uid="{D5046F42-BD19-457B-A65F-4703A2C409A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="1" xr2:uid="{D5046F42-BD19-457B-A65F-4703A2C409A5}"/>
   </bookViews>
   <sheets>
     <sheet name="NRCS_species" sheetId="7" r:id="rId1"/>
     <sheet name="IndicatorAnalysis" sheetId="1" r:id="rId2"/>
-    <sheet name="IndicatorAnalysisBC" sheetId="6" r:id="rId3"/>
-    <sheet name="plots_omitted" sheetId="5" r:id="rId4"/>
-    <sheet name="DiversityMeasures" sheetId="2" r:id="rId5"/>
-    <sheet name="bootstrap-div-10plots" sheetId="8" r:id="rId6"/>
-    <sheet name="bootstrap-div-18plots" sheetId="9" r:id="rId7"/>
-    <sheet name="Stability" sheetId="3" r:id="rId8"/>
-    <sheet name="Turnover" sheetId="4" r:id="rId9"/>
+    <sheet name="Indic_noIndVal" sheetId="10" r:id="rId3"/>
+    <sheet name="IndicatorAnalysisBC" sheetId="6" r:id="rId4"/>
+    <sheet name="Indic_noIndValBC" sheetId="11" r:id="rId5"/>
+    <sheet name="plots_omitted" sheetId="5" r:id="rId6"/>
+    <sheet name="DiversityMeasures" sheetId="2" r:id="rId7"/>
+    <sheet name="bootstrap-div-10plots" sheetId="8" r:id="rId8"/>
+    <sheet name="bootstrap-div-18plots" sheetId="9" r:id="rId9"/>
+    <sheet name="Stability" sheetId="3" r:id="rId10"/>
+    <sheet name="Turnover" sheetId="4" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NRCS_species!$A$1:$G$72</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="220">
   <si>
     <t>IndVal</t>
   </si>
@@ -497,30 +502,6 @@
     <t>LIOC</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lycopus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sp. </t>
-    </r>
-  </si>
-  <si>
-    <t>Lycopus_sp</t>
-  </si>
-  <si>
     <t>Lysichiton americanum</t>
   </si>
   <si>
@@ -603,9 +584,6 @@
   </si>
   <si>
     <t>POPA23</t>
-  </si>
-  <si>
-    <t>Puccinella pauciflora</t>
   </si>
   <si>
     <t>PUPA3</t>
@@ -800,6 +778,30 @@
   </si>
   <si>
     <t>1999-2019</t>
+  </si>
+  <si>
+    <t>Endemic status</t>
+  </si>
+  <si>
+    <t>exotic</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Puccinellia pauciflora</t>
+  </si>
+  <si>
+    <t>SYSU?</t>
+  </si>
+  <si>
+    <t>LYEU</t>
+  </si>
+  <si>
+    <t>Lycopus europaeus</t>
   </si>
 </sst>
 </file>
@@ -911,7 +913,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +923,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1478,45 +1486,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1526,6 +1495,53 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1840,10 +1856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625F1577-DE26-4051-92E5-B0BE0DA6AC79}">
-  <dimension ref="A1:E72"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1854,7 +1871,7 @@
     <col min="5" max="5" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="23">
         <v>1979</v>
       </c>
@@ -1865,13 +1882,16 @@
         <v>2019</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -1887,8 +1907,11 @@
       <c r="E2" s="28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>83</v>
       </c>
@@ -1900,8 +1923,11 @@
         <v>84</v>
       </c>
       <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -1911,8 +1937,11 @@
         <v>86</v>
       </c>
       <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="30" t="s">
         <v>87</v>
@@ -1922,12 +1951,15 @@
         <v>88</v>
       </c>
       <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="F5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="159" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="33"/>
@@ -1935,8 +1967,14 @@
         <v>90</v>
       </c>
       <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
@@ -1950,8 +1988,11 @@
         <v>91</v>
       </c>
       <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -1965,8 +2006,11 @@
         <v>93</v>
       </c>
       <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>94</v>
@@ -1976,8 +2020,11 @@
         <v>95</v>
       </c>
       <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="21" t="s">
         <v>96</v>
@@ -1987,8 +2034,11 @@
         <v>97</v>
       </c>
       <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2052,11 @@
         <v>98</v>
       </c>
       <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>99</v>
       </c>
@@ -2017,8 +2070,11 @@
         <v>100</v>
       </c>
       <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>27</v>
       </c>
@@ -2030,8 +2086,11 @@
         <v>101</v>
       </c>
       <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -2041,8 +2100,11 @@
         <v>103</v>
       </c>
       <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>32</v>
       </c>
@@ -2056,8 +2118,11 @@
         <v>104</v>
       </c>
       <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="26" t="s">
@@ -2067,8 +2132,11 @@
         <v>106</v>
       </c>
       <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>10</v>
       </c>
@@ -2082,8 +2150,11 @@
         <v>107</v>
       </c>
       <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2095,8 +2166,11 @@
         <v>108</v>
       </c>
       <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>31</v>
       </c>
@@ -2108,8 +2182,11 @@
         <v>109</v>
       </c>
       <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2123,8 +2200,11 @@
         <v>110</v>
       </c>
       <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>111</v>
       </c>
@@ -2134,8 +2214,11 @@
         <v>112</v>
       </c>
       <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="158" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
@@ -2145,8 +2228,11 @@
         <v>114</v>
       </c>
       <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
@@ -2160,8 +2246,11 @@
       <c r="E23" s="32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>117</v>
@@ -2171,8 +2260,11 @@
         <v>118</v>
       </c>
       <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" s="158" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
         <v>26</v>
       </c>
@@ -2184,8 +2276,11 @@
         <v>119</v>
       </c>
       <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>120</v>
       </c>
@@ -2197,8 +2292,11 @@
         <v>121</v>
       </c>
       <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="37" t="s">
@@ -2208,8 +2306,11 @@
         <v>123</v>
       </c>
       <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -2223,8 +2324,11 @@
         <v>124</v>
       </c>
       <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="29"/>
       <c r="B29" s="29" t="s">
         <v>125</v>
@@ -2236,8 +2340,11 @@
         <v>126</v>
       </c>
       <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="26" t="s">
@@ -2247,8 +2354,11 @@
         <v>128</v>
       </c>
       <c r="E30" s="28"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>13</v>
       </c>
@@ -2262,8 +2372,11 @@
         <v>129</v>
       </c>
       <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -2275,8 +2388,11 @@
         <v>131</v>
       </c>
       <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>73</v>
       </c>
@@ -2290,8 +2406,11 @@
         <v>132</v>
       </c>
       <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
@@ -2305,8 +2424,11 @@
         <v>133</v>
       </c>
       <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
         <v>75</v>
       </c>
@@ -2318,8 +2440,11 @@
         <v>72</v>
       </c>
       <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>134</v>
       </c>
@@ -2329,8 +2454,11 @@
         <v>135</v>
       </c>
       <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
         <v>136</v>
       </c>
@@ -2342,32 +2470,41 @@
         <v>137</v>
       </c>
       <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="21"/>
       <c r="B38" s="33"/>
-      <c r="C38" s="33" t="s">
-        <v>138</v>
+      <c r="C38" s="26" t="s">
+        <v>219</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="E38" s="28"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -2378,11 +2515,14 @@
         <v>9</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>30</v>
       </c>
@@ -2393,43 +2533,52 @@
         <v>30</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E41" s="32"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E43" s="32"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -2440,33 +2589,42 @@
         <v>28</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E45" s="32"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="29" t="s">
         <v>29</v>
       </c>
@@ -2477,54 +2635,66 @@
         <v>29</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E47" s="32"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="29" t="s">
+      <c r="E49" s="32"/>
+      <c r="F49" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C50" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D50" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E49" s="32"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>159</v>
-      </c>
       <c r="E50" s="28"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
         <v>18</v>
       </c>
@@ -2533,44 +2703,56 @@
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="33"/>
       <c r="D52" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E53" s="32"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" s="158" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E54" s="28"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="29" t="s">
         <v>78</v>
       </c>
@@ -2581,50 +2763,62 @@
         <v>78</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E55" s="32"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>168</v>
+      <c r="F55" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="159" t="s">
+        <v>216</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E56" s="28"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D57" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" s="32"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>174</v>
-      </c>
       <c r="E58" s="28"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
         <v>16</v>
       </c>
@@ -2635,22 +2829,28 @@
         <v>16</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E59" s="32"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E60" s="28"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="29" t="s">
         <v>22</v>
       </c>
@@ -2661,63 +2861,78 @@
         <v>22</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E61" s="32"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E62" s="28"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E63" s="32"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" s="158" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="26"/>
       <c r="C64" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E64" s="28"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E65" s="40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>25</v>
       </c>
@@ -2728,50 +2943,62 @@
         <v>25</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E66" s="28"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E67" s="32"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
       <c r="D68" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="28"/>
+      <c r="F68" s="158" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="E68" s="28"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>194</v>
-      </c>
       <c r="E69" s="32"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>20</v>
       </c>
@@ -2782,37 +3009,257 @@
         <v>20</v>
       </c>
       <c r="D70" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="28"/>
+      <c r="F70" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="32"/>
+      <c r="F71" s="158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E70" s="28"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="32"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
       <c r="D72" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E72" s="28"/>
+      <c r="F72" s="158" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G72" xr:uid="{7C8DDF9E-B538-4E31-B346-1DDB2758620E}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="exotic"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49A6CE-51F8-4C38-9877-632622635B42}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.08</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E39F2F4-922C-4DC7-AF1C-C568276BB17B}">
+  <dimension ref="C3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="C3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="146">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F4" s="149">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G4" s="149">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="172"/>
+      <c r="D5" s="130" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="147">
+        <v>0.51</v>
+      </c>
+      <c r="F5" s="150">
+        <v>0.23</v>
+      </c>
+      <c r="G5" s="150">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="173" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="144" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="148">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F6" s="151">
+        <v>0.1346</v>
+      </c>
+      <c r="G6" s="151">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="172"/>
+      <c r="D7" s="145" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="148">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F7" s="151">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="G7" s="151">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="171" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="144" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="146">
+        <v>0.317</v>
+      </c>
+      <c r="F8" s="149">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="G8" s="149">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="172"/>
+      <c r="D9" s="145" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="147">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="150">
+        <v>0.24</v>
+      </c>
+      <c r="G9" s="150">
+        <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2821,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE669788-659D-4EAF-B36B-1819B9AB1B21}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2843,57 +3290,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="156"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
-      <c r="B4" s="155">
+      <c r="B4" s="164">
         <v>1979</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="42"/>
-      <c r="F4" s="155">
+      <c r="F4" s="164">
         <v>1999</v>
       </c>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
       <c r="I4" s="42"/>
-      <c r="J4" s="155">
+      <c r="J4" s="164">
         <v>2019</v>
       </c>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
     </row>
     <row r="5" spans="1:13" s="71" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
@@ -2930,7 +3377,7 @@
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="161" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -2965,7 +3412,7 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="54" t="s">
         <v>16</v>
       </c>
@@ -2992,7 +3439,7 @@
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="154"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="66" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +3470,7 @@
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="161" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -3058,7 +3505,7 @@
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="153"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="92" t="s">
         <v>22</v>
       </c>
@@ -3091,7 +3538,7 @@
       <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="153"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="108" t="s">
         <v>23</v>
       </c>
@@ -3124,7 +3571,7 @@
       <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="153"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="92" t="s">
         <v>24</v>
       </c>
@@ -3151,7 +3598,7 @@
       <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="153"/>
+      <c r="A15" s="162"/>
       <c r="B15" s="108" t="s">
         <v>25</v>
       </c>
@@ -3172,14 +3619,14 @@
       <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="154"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="165">
+      <c r="C16" s="152">
         <v>0.29299999999999998</v>
       </c>
-      <c r="D16" s="166">
+      <c r="D16" s="153">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="E16" s="65"/>
@@ -3197,7 +3644,7 @@
       <c r="M17" s="57"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="161" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="111" t="s">
@@ -3232,7 +3679,7 @@
       <c r="M18" s="57"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="153"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="77" t="s">
         <v>29</v>
       </c>
@@ -3265,7 +3712,7 @@
       <c r="M19" s="57"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="153"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="59" t="s">
         <v>21</v>
       </c>
@@ -3298,7 +3745,7 @@
       <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="153"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="77" t="s">
         <v>30</v>
       </c>
@@ -3331,7 +3778,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="153"/>
+      <c r="A22" s="162"/>
       <c r="B22" s="59" t="s">
         <v>10</v>
       </c>
@@ -3364,7 +3811,7 @@
       <c r="M22" s="57"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="153"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="54" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3844,7 @@
       <c r="M23" s="57"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="153"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="57"/>
       <c r="C24" s="60"/>
       <c r="D24" s="81"/>
@@ -3418,7 +3865,7 @@
       <c r="M24" s="57"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="153"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="57"/>
       <c r="C25" s="60"/>
       <c r="D25" s="81"/>
@@ -3439,7 +3886,7 @@
       <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="153"/>
+      <c r="A26" s="162"/>
       <c r="B26" s="57"/>
       <c r="C26" s="60"/>
       <c r="D26" s="81"/>
@@ -3460,7 +3907,7 @@
       <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="154"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="65"/>
       <c r="C27" s="68"/>
       <c r="D27" s="83"/>
@@ -3496,10 +3943,526 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261D7286-BEB9-4C09-9CD9-2C7DA7A9DDE3}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6328125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6328125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="98"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="41"/>
+      <c r="B4" s="164">
+        <v>1979</v>
+      </c>
+      <c r="C4" s="164"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="164">
+        <v>1999</v>
+      </c>
+      <c r="F4" s="164"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="164">
+        <v>2019</v>
+      </c>
+      <c r="I4" s="164"/>
+    </row>
+    <row r="5" spans="1:10" s="71" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A5" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="102"/>
+      <c r="H5" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="161" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="103">
+        <v>1E-4</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="103">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="104">
+        <v>1E-4</v>
+      </c>
+      <c r="J7" s="57"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="162"/>
+      <c r="B8" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="105">
+        <v>1E-4</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="105">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="57"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="163"/>
+      <c r="B9" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="83">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="83">
+        <v>1.47E-2</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="57"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="84"/>
+      <c r="J10" s="57"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="103">
+        <v>1E-4</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="103">
+        <v>1E-4</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="106">
+        <v>1E-4</v>
+      </c>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="162"/>
+      <c r="B12" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="105">
+        <v>1E-4</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="105">
+        <v>1E-3</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="107">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="162"/>
+      <c r="B13" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="81">
+        <v>1E-4</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="81">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G13" s="57"/>
+      <c r="H13" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="109">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="162"/>
+      <c r="B14" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="105">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="105">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="162"/>
+      <c r="B15" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="81">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="163"/>
+      <c r="B16" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="153">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="84"/>
+      <c r="J17" s="57"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="103">
+        <v>1E-4</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="103">
+        <v>1E-4</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="106">
+        <v>1E-4</v>
+      </c>
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="162"/>
+      <c r="B19" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="105">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="105">
+        <v>1E-4</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="109">
+        <v>1E-4</v>
+      </c>
+      <c r="J19" s="57"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="162"/>
+      <c r="B20" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="81">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="81">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="93">
+        <v>1E-4</v>
+      </c>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="162"/>
+      <c r="B21" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="105">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="105">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="109">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="162"/>
+      <c r="B22" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="81">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="81">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="93">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="J22" s="57"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="162"/>
+      <c r="B23" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="105">
+        <v>1.04E-2</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="105">
+        <v>1E-3</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="109">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="J23" s="57"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="162"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="81">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="162"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="105">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="57"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="162"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="105">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="163"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="83">
+        <v>2.92E-2</v>
+      </c>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC06408-95AD-42B0-8099-9871CB44C152}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
@@ -3524,23 +4487,23 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
-      <c r="C2" s="155">
+      <c r="C2" s="164">
         <v>1979</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="155">
+      <c r="G2" s="164">
         <v>1999</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="155">
+      <c r="K2" s="164">
         <v>2019</v>
       </c>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
     </row>
     <row r="3" spans="2:13" s="42" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -3578,7 +4541,7 @@
     </row>
     <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="161" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -3612,7 +4575,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="153"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
@@ -3634,7 +4597,7 @@
       </c>
       <c r="J6" s="57"/>
       <c r="K6" s="54" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L6" s="55">
         <v>0.32200000000000001</v>
@@ -3644,7 +4607,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="153"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="59" t="s">
         <v>17</v>
       </c>
@@ -3664,7 +4627,7 @@
       <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="154"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -3689,7 +4652,7 @@
       <c r="M9" s="72"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="161" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -3723,7 +4686,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="153"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="54" t="s">
         <v>76</v>
       </c>
@@ -3755,7 +4718,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="153"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="77" t="s">
         <v>24</v>
       </c>
@@ -3775,7 +4738,7 @@
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="153"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="77" t="s">
         <v>23</v>
       </c>
@@ -3792,10 +4755,10 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-      <c r="M13" s="168"/>
+      <c r="M13" s="155"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="153"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="77" t="s">
         <v>15</v>
       </c>
@@ -3815,7 +4778,7 @@
       <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="153"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="77" t="s">
         <v>25</v>
       </c>
@@ -3835,9 +4798,9 @@
       <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="154"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="68">
         <v>0.308</v>
@@ -3866,7 +4829,7 @@
       <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="161" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -3900,7 +4863,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="153"/>
+      <c r="B19" s="162"/>
       <c r="C19" s="77" t="s">
         <v>12</v>
       </c>
@@ -3932,7 +4895,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="153"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="59" t="s">
         <v>13</v>
       </c>
@@ -3953,7 +4916,7 @@
         <v>1E-3</v>
       </c>
       <c r="J20" s="57"/>
-      <c r="K20" s="169" t="s">
+      <c r="K20" s="156" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="60">
@@ -3964,7 +4927,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="153"/>
+      <c r="B21" s="162"/>
       <c r="C21" s="77" t="s">
         <v>30</v>
       </c>
@@ -3996,7 +4959,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="153"/>
+      <c r="B22" s="162"/>
       <c r="C22" s="59" t="s">
         <v>9</v>
       </c>
@@ -4028,7 +4991,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="153"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="77" t="s">
         <v>20</v>
       </c>
@@ -4060,7 +5023,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="153"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="90" t="s">
         <v>136</v>
       </c>
@@ -4092,7 +5055,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="153"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="77" t="s">
         <v>8</v>
       </c>
@@ -4103,7 +5066,7 @@
         <v>0.01</v>
       </c>
       <c r="F25" s="57"/>
-      <c r="G25" s="167" t="s">
+      <c r="G25" s="154" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="75">
@@ -4124,7 +5087,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="153"/>
+      <c r="B26" s="162"/>
       <c r="C26" s="57"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
@@ -4144,7 +5107,7 @@
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="153"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="57"/>
       <c r="D27" s="60"/>
       <c r="E27" s="61"/>
@@ -4164,7 +5127,7 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="154"/>
+      <c r="B28" s="163"/>
       <c r="C28" s="65"/>
       <c r="D28" s="68"/>
       <c r="E28" s="67"/>
@@ -4206,7 +5169,715 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62900B2F-E686-4A03-B0A0-3C0B89D106DB}">
+  <dimension ref="B2:M30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0.81640625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1796875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1796875" style="43" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" style="43" customWidth="1"/>
+    <col min="12" max="12" width="6.1796875" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="41"/>
+      <c r="C2" s="164">
+        <v>1979</v>
+      </c>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="164">
+        <v>1999</v>
+      </c>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="164">
+        <v>2019</v>
+      </c>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+    </row>
+    <row r="3" spans="2:13" s="42" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="160"/>
+      <c r="K3" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="161" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="50">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E5" s="51">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="50">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="I5" s="51">
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="52"/>
+      <c r="K5" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="50">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="M5" s="53">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="162"/>
+      <c r="C6" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E6" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" s="57"/>
+      <c r="G6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="55">
+        <v>0.434</v>
+      </c>
+      <c r="I6" s="56">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="57"/>
+      <c r="K6" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="55">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="M6" s="58">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="162"/>
+      <c r="C7" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E7" s="61">
+        <v>1E-3</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="163"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="69"/>
+    </row>
+    <row r="9" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="73"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="50">
+        <v>0.753</v>
+      </c>
+      <c r="E10" s="51">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I10" s="51">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="50">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="M10" s="53">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="162"/>
+      <c r="C11" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="74">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E11" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="55">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="I11" s="56">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J11" s="57"/>
+      <c r="K11" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="55">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="M11" s="58">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="162"/>
+      <c r="C12" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="78">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="E12" s="61">
+        <v>1E-3</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="76"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="162"/>
+      <c r="C13" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="74">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E13" s="56">
+        <v>2E-3</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="155"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="162"/>
+      <c r="C14" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="78">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E14" s="61">
+        <v>2E-3</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="62"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="162"/>
+      <c r="C15" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="74">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E15" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="62"/>
+    </row>
+    <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="163"/>
+      <c r="C16" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="68">
+        <v>0.308</v>
+      </c>
+      <c r="E16" s="67">
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="70"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="85">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E18" s="51">
+        <v>1E-3</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="87">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="I18" s="88">
+        <v>1E-3</v>
+      </c>
+      <c r="J18" s="52"/>
+      <c r="K18" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="50">
+        <v>0.752</v>
+      </c>
+      <c r="M18" s="53">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="162"/>
+      <c r="C19" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="89">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E19" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="60">
+        <v>0.495</v>
+      </c>
+      <c r="I19" s="61">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="57"/>
+      <c r="K19" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="55">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="M19" s="58">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="162"/>
+      <c r="C20" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="91">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E20" s="61">
+        <v>1E-3</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="55">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I20" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="57"/>
+      <c r="K20" s="156" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="60">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="M20" s="62">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="162"/>
+      <c r="C21" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="89">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="56">
+        <v>2E-3</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="55">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I21" s="56">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J21" s="57"/>
+      <c r="K21" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="75">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="M21" s="76">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="162"/>
+      <c r="C22" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="91">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="61">
+        <v>2E-3</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="60">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="I22" s="61">
+        <v>1E-3</v>
+      </c>
+      <c r="J22" s="57"/>
+      <c r="K22" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="56">
+        <v>0.46</v>
+      </c>
+      <c r="M22" s="58">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="162"/>
+      <c r="C23" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="56">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E23" s="56">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="55">
+        <v>0.438</v>
+      </c>
+      <c r="I23" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="J23" s="57"/>
+      <c r="K23" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="60">
+        <v>0.373</v>
+      </c>
+      <c r="M23" s="62">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="162"/>
+      <c r="C24" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="91">
+        <v>0.36</v>
+      </c>
+      <c r="E24" s="91">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="G24" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="55">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I24" s="56">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J24" s="57"/>
+      <c r="K24" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="55">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="M24" s="58">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="162"/>
+      <c r="C25" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="56">
+        <v>0.313</v>
+      </c>
+      <c r="E25" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="75">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I25" s="80">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J25" s="57"/>
+      <c r="K25" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="55">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="M25" s="58">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="162"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="55">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="I26" s="56">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="93"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="162"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="60">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I27" s="61">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="93"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="163"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="95">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="I28" s="64">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="96"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E29" s="97"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E30" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B18:B28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D15F2D-4AE0-489C-A1F4-3662898A0655}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -4348,7 +6019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53FF8D7-529C-4C93-8B37-0AFD4286268E}">
   <dimension ref="B1:X23"/>
   <sheetViews>
@@ -4371,68 +6042,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="160" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="J1" s="159" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="R1" s="159" t="s">
-        <v>210</v>
-      </c>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
+      <c r="B1" s="169" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="J1" s="168" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="R1" s="168" t="s">
+        <v>207</v>
+      </c>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
     </row>
     <row r="2" spans="2:24" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="43"/>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="157"/>
+      <c r="D2" s="166"/>
       <c r="E2" s="113"/>
-      <c r="F2" s="157" t="s">
+      <c r="F2" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="K2" s="158" t="s">
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="K2" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="158"/>
+      <c r="L2" s="167"/>
       <c r="M2" s="43"/>
-      <c r="N2" s="158" t="s">
+      <c r="N2" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
-      <c r="S2" s="158" t="s">
+      <c r="S2" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="158"/>
+      <c r="T2" s="167"/>
       <c r="U2" s="43"/>
-      <c r="V2" s="158" t="s">
+      <c r="V2" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
     </row>
     <row r="3" spans="2:24" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
@@ -4446,13 +6117,13 @@
       </c>
       <c r="E3" s="113"/>
       <c r="F3" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G3" s="114" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J3" s="139" t="s">
         <v>41</v>
@@ -4465,13 +6136,13 @@
       </c>
       <c r="M3" s="139"/>
       <c r="N3" s="139" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O3" s="139" t="s">
         <v>48</v>
       </c>
       <c r="P3" s="139" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="R3" s="44" t="s">
         <v>41</v>
@@ -4484,13 +6155,13 @@
       </c>
       <c r="U3" s="113"/>
       <c r="V3" s="114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="W3" s="114" t="s">
         <v>48</v>
       </c>
       <c r="X3" s="114" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.35">
@@ -5400,7 +7071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F62766-8C1A-4137-83E0-B0B1E504131D}">
   <dimension ref="A1:X60"/>
   <sheetViews>
@@ -5416,87 +7087,87 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="122"/>
       <c r="R3" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="161">
+      <c r="B4" s="170">
         <v>1979</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="G4" s="161">
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="G4" s="170">
         <v>1999</v>
       </c>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="L4" s="161">
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="L4" s="170">
         <v>2019</v>
       </c>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="S4" s="157" t="s">
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="S4" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="157"/>
+      <c r="T4" s="166"/>
       <c r="U4" s="113"/>
-      <c r="V4" s="157" t="s">
+      <c r="V4" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
     </row>
     <row r="5" spans="1:24" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D5" s="114" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G5" s="114" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I5" s="114" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L5" s="114" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N5" s="114" t="s">
         <v>48</v>
       </c>
       <c r="O5" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R5" s="44" t="s">
         <v>41</v>
@@ -5509,13 +7180,13 @@
       </c>
       <c r="U5" s="113"/>
       <c r="V5" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="W5" s="114" t="s">
         <v>48</v>
       </c>
       <c r="X5" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -6226,24 +7897,24 @@
       <c r="A19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="161">
+      <c r="B19" s="170">
         <v>1979</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="G19" s="161">
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="G19" s="170">
         <v>1999</v>
       </c>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="L19" s="161">
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="L19" s="170">
         <v>2019</v>
       </c>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
       <c r="R19" s="116">
         <v>2019</v>
       </c>
@@ -6270,43 +7941,43 @@
     </row>
     <row r="20" spans="1:24" ht="39" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B20" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G20" s="114" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L20" s="114" t="s">
         <v>36</v>
       </c>
       <c r="M20" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="O20" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R20" s="43"/>
       <c r="S20" s="43"/>
@@ -6828,64 +8499,64 @@
       <c r="A34" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="161">
+      <c r="B34" s="170">
         <v>1979</v>
       </c>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="G34" s="161">
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="G34" s="170">
         <v>1999</v>
       </c>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
-      <c r="L34" s="161">
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="L34" s="170">
         <v>2019</v>
       </c>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="170"/>
     </row>
     <row r="35" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B35" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D35" s="114" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G35" s="114" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I35" s="114" t="s">
         <v>48</v>
       </c>
       <c r="J35" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L35" s="114" t="s">
         <v>36</v>
       </c>
       <c r="M35" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N35" s="114" t="s">
         <v>48</v>
       </c>
       <c r="O35" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -7338,64 +9009,64 @@
       <c r="A49" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="161">
+      <c r="B49" s="170">
         <v>1979</v>
       </c>
-      <c r="C49" s="161"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="G49" s="161">
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
+      <c r="G49" s="170">
         <v>1999</v>
       </c>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161"/>
-      <c r="L49" s="161">
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="170"/>
+      <c r="L49" s="170">
         <v>2019</v>
       </c>
-      <c r="M49" s="161"/>
-      <c r="N49" s="161"/>
-      <c r="O49" s="161"/>
+      <c r="M49" s="170"/>
+      <c r="N49" s="170"/>
+      <c r="O49" s="170"/>
     </row>
     <row r="50" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D50" s="114" t="s">
         <v>48</v>
       </c>
       <c r="E50" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G50" s="114" t="s">
         <v>36</v>
       </c>
       <c r="H50" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I50" s="114" t="s">
         <v>48</v>
       </c>
       <c r="J50" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L50" s="114" t="s">
         <v>36</v>
       </c>
       <c r="M50" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N50" s="114" t="s">
         <v>48</v>
       </c>
       <c r="O50" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -7850,7 +9521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2E5AD5-9603-4937-A6C5-8CB56B67A804}">
   <dimension ref="A1:X60"/>
   <sheetViews>
@@ -7866,87 +9537,87 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="122"/>
       <c r="R3" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="161">
+      <c r="B4" s="170">
         <v>1979</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="G4" s="161">
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="G4" s="170">
         <v>1999</v>
       </c>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="L4" s="161">
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="L4" s="170">
         <v>2019</v>
       </c>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="S4" s="157" t="s">
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="S4" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="157"/>
+      <c r="T4" s="166"/>
       <c r="U4" s="113"/>
-      <c r="V4" s="157" t="s">
+      <c r="V4" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
     </row>
     <row r="5" spans="1:24" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D5" s="114" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G5" s="114" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I5" s="114" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L5" s="114" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N5" s="114" t="s">
         <v>48</v>
       </c>
       <c r="O5" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R5" s="44" t="s">
         <v>41</v>
@@ -7959,13 +9630,13 @@
       </c>
       <c r="U5" s="113"/>
       <c r="V5" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="W5" s="114" t="s">
         <v>48</v>
       </c>
       <c r="X5" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -8676,24 +10347,24 @@
       <c r="A19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="161">
+      <c r="B19" s="170">
         <v>1979</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="G19" s="161">
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="G19" s="170">
         <v>1999</v>
       </c>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="L19" s="161">
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="L19" s="170">
         <v>2019</v>
       </c>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
       <c r="R19" s="116">
         <v>2019</v>
       </c>
@@ -8720,43 +10391,43 @@
     </row>
     <row r="20" spans="1:24" ht="39" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B20" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G20" s="114" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L20" s="114" t="s">
         <v>36</v>
       </c>
       <c r="M20" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N20" s="114" t="s">
         <v>48</v>
       </c>
       <c r="O20" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R20" s="43"/>
       <c r="S20" s="43"/>
@@ -9278,64 +10949,64 @@
       <c r="A34" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="161">
+      <c r="B34" s="170">
         <v>1979</v>
       </c>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="G34" s="161">
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="G34" s="170">
         <v>1999</v>
       </c>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
-      <c r="L34" s="161">
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="L34" s="170">
         <v>2019</v>
       </c>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="170"/>
     </row>
     <row r="35" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B35" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D35" s="114" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G35" s="114" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I35" s="114" t="s">
         <v>48</v>
       </c>
       <c r="J35" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L35" s="114" t="s">
         <v>36</v>
       </c>
       <c r="M35" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N35" s="114" t="s">
         <v>48</v>
       </c>
       <c r="O35" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -9788,64 +11459,64 @@
       <c r="A49" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="161">
+      <c r="B49" s="170">
         <v>1979</v>
       </c>
-      <c r="C49" s="161"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="G49" s="161">
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
+      <c r="G49" s="170">
         <v>1999</v>
       </c>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161"/>
-      <c r="L49" s="161">
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="170"/>
+      <c r="L49" s="170">
         <v>2019</v>
       </c>
-      <c r="M49" s="161"/>
-      <c r="N49" s="161"/>
-      <c r="O49" s="161"/>
+      <c r="M49" s="170"/>
+      <c r="N49" s="170"/>
+      <c r="O49" s="170"/>
     </row>
     <row r="50" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" s="114" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D50" s="114" t="s">
         <v>48</v>
       </c>
       <c r="E50" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G50" s="114" t="s">
         <v>36</v>
       </c>
       <c r="H50" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I50" s="114" t="s">
         <v>48</v>
       </c>
       <c r="J50" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L50" s="114" t="s">
         <v>36</v>
       </c>
       <c r="M50" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N50" s="114" t="s">
         <v>48</v>
       </c>
       <c r="O50" s="114" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -10300,209 +11971,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49A6CE-51F8-4C38-9877-632622635B42}">
-  <dimension ref="A3:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5.08</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2.52</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7.17</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E39F2F4-922C-4DC7-AF1C-C568276BB17B}">
-  <dimension ref="C3:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="162" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="146">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="F4" s="149">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="G4" s="149">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="163"/>
-      <c r="D5" s="130" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="147">
-        <v>0.51</v>
-      </c>
-      <c r="F5" s="150">
-        <v>0.23</v>
-      </c>
-      <c r="G5" s="150">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="164" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="144" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="148">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="F6" s="151">
-        <v>0.1346</v>
-      </c>
-      <c r="G6" s="151">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="163"/>
-      <c r="D7" s="145" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="148">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="F7" s="151">
-        <v>0.14580000000000001</v>
-      </c>
-      <c r="G7" s="151">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="162" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="144" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="146">
-        <v>0.317</v>
-      </c>
-      <c r="F8" s="149">
-        <v>0.17069999999999999</v>
-      </c>
-      <c r="G8" s="149">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="163"/>
-      <c r="D9" s="145" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="147">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="150">
-        <v>0.24</v>
-      </c>
-      <c r="G9" s="150">
-        <v>0.26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10510,6 +11978,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -10738,26 +12215,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672CF68E-CAEE-413A-A4ED-E0B11FCCA037}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
   </ds:schemaRefs>
@@ -10765,6 +12233,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870C599-734A-4F80-B43A-AAD654208358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788966EF-76C7-4555-8184-5346880E3019}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10781,12 +12257,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870C599-734A-4F80-B43A-AAD654208358}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,28 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E5C230C0-CDD3-4D4F-9C1D-06917D46004E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{55617B33-A43E-4BAC-94C9-1C1D6CB30F09}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D7D29953-1664-4D93-B392-574D2E7B9CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="1" xr2:uid="{D5046F42-BD19-457B-A65F-4703A2C409A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{D5046F42-BD19-457B-A65F-4703A2C409A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="NRCS_species" sheetId="7" r:id="rId1"/>
-    <sheet name="IndicatorAnalysis" sheetId="1" r:id="rId2"/>
-    <sheet name="Indic_noIndVal" sheetId="10" r:id="rId3"/>
-    <sheet name="IndicatorAnalysisBC" sheetId="6" r:id="rId4"/>
-    <sheet name="Indic_noIndValBC" sheetId="11" r:id="rId5"/>
-    <sheet name="plots_omitted" sheetId="5" r:id="rId6"/>
-    <sheet name="DiversityMeasures" sheetId="2" r:id="rId7"/>
-    <sheet name="bootstrap-div-10plots" sheetId="8" r:id="rId8"/>
-    <sheet name="bootstrap-div-18plots" sheetId="9" r:id="rId9"/>
-    <sheet name="Stability" sheetId="3" r:id="rId10"/>
-    <sheet name="Turnover" sheetId="4" r:id="rId11"/>
+    <sheet name="NRCS_species_OLD" sheetId="7" r:id="rId1"/>
+    <sheet name="sp_syn" sheetId="12" r:id="rId2"/>
+    <sheet name="IndicatorAnalysis" sheetId="1" r:id="rId3"/>
+    <sheet name="Indic_noIndVal" sheetId="10" r:id="rId4"/>
+    <sheet name="IndicatorAnalysisBC" sheetId="6" r:id="rId5"/>
+    <sheet name="Indic_noIndValBC" sheetId="11" r:id="rId6"/>
+    <sheet name="plots_omitted" sheetId="5" r:id="rId7"/>
+    <sheet name="DiversityMeasures" sheetId="2" r:id="rId8"/>
+    <sheet name="bootstrap-div-10plots" sheetId="8" r:id="rId9"/>
+    <sheet name="bootstrap-div-18plots" sheetId="9" r:id="rId10"/>
+    <sheet name="Stability" sheetId="3" r:id="rId11"/>
+    <sheet name="Turnover" sheetId="4" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NRCS_species!$A$1:$G$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NRCS_species_OLD!$A$1:$G$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="315">
   <si>
     <t>IndVal</t>
   </si>
@@ -803,6 +804,291 @@
   <si>
     <t>Lycopus europaeus</t>
   </si>
+  <si>
+    <t>Zannichellia_palustris</t>
+  </si>
+  <si>
+    <t>Typha_latifolia</t>
+  </si>
+  <si>
+    <t>syn. Trifolium_wormskioldii</t>
+  </si>
+  <si>
+    <t>Trifolium_wormskjoldii</t>
+  </si>
+  <si>
+    <t>Sonchus_arvensis</t>
+  </si>
+  <si>
+    <t>Sium_suave</t>
+  </si>
+  <si>
+    <t>Sidalcea_hendersonii</t>
+  </si>
+  <si>
+    <t>syn. Schoenoplectus_tabernaemontani</t>
+  </si>
+  <si>
+    <t>Scirpus_validus</t>
+  </si>
+  <si>
+    <t>Salix_sp</t>
+  </si>
+  <si>
+    <t>Salix_sitchensis</t>
+  </si>
+  <si>
+    <t>Salix_lasiandra</t>
+  </si>
+  <si>
+    <t>Sagittaria_latifolia</t>
+  </si>
+  <si>
+    <t>Rumex_occidentalis</t>
+  </si>
+  <si>
+    <t>Sidalcia_hendersonii</t>
+  </si>
+  <si>
+    <t>spelling - Puccinellia</t>
+  </si>
+  <si>
+    <t>Puccinella_pauciflora</t>
+  </si>
+  <si>
+    <t>Trifolium_wormskioldii</t>
+  </si>
+  <si>
+    <t>Potentilla_pacifica</t>
+  </si>
+  <si>
+    <t>Symphotrichum_subspicatum</t>
+  </si>
+  <si>
+    <t>Polygonum_hydropiper</t>
+  </si>
+  <si>
+    <t>Poa_trivialis</t>
+  </si>
+  <si>
+    <t>Schoenoplectus_tabernaemontani</t>
+  </si>
+  <si>
+    <t>Poa_palustris</t>
+  </si>
+  <si>
+    <t>Scirpus_microcarpus</t>
+  </si>
+  <si>
+    <t>Platanthera_dilatata</t>
+  </si>
+  <si>
+    <t>Poa_cf_palustris</t>
+  </si>
+  <si>
+    <t>Salix_scouleriana</t>
+  </si>
+  <si>
+    <t>Phalaris_arundinacea</t>
+  </si>
+  <si>
+    <t>Oenanthe_sarmentosa</t>
+  </si>
+  <si>
+    <t>Myosotis_scorpioides</t>
+  </si>
+  <si>
+    <t>Mimulus_guttatus</t>
+  </si>
+  <si>
+    <t>Myosotis_scorpiodes</t>
+  </si>
+  <si>
+    <t>Menyanthes_trifoliata</t>
+  </si>
+  <si>
+    <t>syn. Mentha_aquatica</t>
+  </si>
+  <si>
+    <t>Mentha_citrata</t>
+  </si>
+  <si>
+    <t>Platanthera_dilatata_var_dilatata</t>
+  </si>
+  <si>
+    <t>Mentha_arvensis</t>
+  </si>
+  <si>
+    <t>Lythrum_salicaria</t>
+  </si>
+  <si>
+    <t>Lysimachia_thyrsiflora</t>
+  </si>
+  <si>
+    <t>Myrica_gale</t>
+  </si>
+  <si>
+    <t>Lilaeopsis_occidentalis</t>
+  </si>
+  <si>
+    <t>Lysichiton_americanum</t>
+  </si>
+  <si>
+    <t>Lilaea_scilloides</t>
+  </si>
+  <si>
+    <t>Llilaeopsis_occidentalis</t>
+  </si>
+  <si>
+    <t>Leersia_oryzoides</t>
+  </si>
+  <si>
+    <t>Mentha_aquatica</t>
+  </si>
+  <si>
+    <t>Lathyrus_palustris</t>
+  </si>
+  <si>
+    <t>Juncus_oxymeris</t>
+  </si>
+  <si>
+    <t>Juncus_effusus</t>
+  </si>
+  <si>
+    <t>Juncus_articulatus</t>
+  </si>
+  <si>
+    <t>Lycopus_europaeus</t>
+  </si>
+  <si>
+    <t>Iris_pseudocorus</t>
+  </si>
+  <si>
+    <t>Lysichiton_americanus</t>
+  </si>
+  <si>
+    <t>Impatiens_capensis</t>
+  </si>
+  <si>
+    <t>syn Hypericum_scouleri</t>
+  </si>
+  <si>
+    <t>Hypericum_formosum</t>
+  </si>
+  <si>
+    <t>Hordeum_brachyantherum</t>
+  </si>
+  <si>
+    <t>Grass_unid</t>
+  </si>
+  <si>
+    <t>syn. Galium_trifidum</t>
+  </si>
+  <si>
+    <t>Galium_cymosum</t>
+  </si>
+  <si>
+    <t>Galium_sp</t>
+  </si>
+  <si>
+    <t>code should be JUAR4</t>
+  </si>
+  <si>
+    <t>Festuca_sp</t>
+  </si>
+  <si>
+    <t>Festuca_arundinacea</t>
+  </si>
+  <si>
+    <t>Juncus_acuminatus</t>
+  </si>
+  <si>
+    <t>Equisetum_variegatum</t>
+  </si>
+  <si>
+    <t>Iris_pseudacorus</t>
+  </si>
+  <si>
+    <t>Equisetum_palustre</t>
+  </si>
+  <si>
+    <t>Equisetum_fluviatile</t>
+  </si>
+  <si>
+    <t>Hypericum_scouleri</t>
+  </si>
+  <si>
+    <t>Eleocharis_palustris</t>
+  </si>
+  <si>
+    <t>Deschampsia_caespitosa</t>
+  </si>
+  <si>
+    <t>Galium_trifidum</t>
+  </si>
+  <si>
+    <t>GATR2</t>
+  </si>
+  <si>
+    <t>Dulichium_arundinaceum</t>
+  </si>
+  <si>
+    <t>Composite_unidentif</t>
+  </si>
+  <si>
+    <t>Galium_palustre</t>
+  </si>
+  <si>
+    <t>Cirsium_arvense</t>
+  </si>
+  <si>
+    <t>syn Schedonorus arundinaceus</t>
+  </si>
+  <si>
+    <t>Carex_lyngbei</t>
+  </si>
+  <si>
+    <t>Equisetum_arvense</t>
+  </si>
+  <si>
+    <t>Caltha_palustris</t>
+  </si>
+  <si>
+    <t>Carex_lyngbyei</t>
+  </si>
+  <si>
+    <t>Bidens_cernua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID same as Symphotrichum_subspicatum? </t>
+  </si>
+  <si>
+    <t>Aster_eatonii</t>
+  </si>
+  <si>
+    <t>Alopecurus_geniculatus</t>
+  </si>
+  <si>
+    <t>Alisma_plantago-aquatica</t>
+  </si>
+  <si>
+    <t>syn Agrostis_stolonifera</t>
+  </si>
+  <si>
+    <t>Agrostis_alba</t>
+  </si>
+  <si>
+    <t>Agrostis_stolonifera</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Sidalcea hendersonii</t>
+  </si>
 </sst>
 </file>
 
@@ -812,7 +1098,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +1191,14 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1453,13 +1747,7 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1484,12 +1772,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1542,6 +1824,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,7 +2178,7 @@
       <c r="E1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="153" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1956,10 +2247,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="155" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="33"/>
@@ -1988,7 +2279,7 @@
         <v>91</v>
       </c>
       <c r="E7" s="32"/>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2006,7 +2297,7 @@
         <v>93</v>
       </c>
       <c r="E8" s="28"/>
-      <c r="F8" s="158" t="s">
+      <c r="F8" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2052,7 +2343,7 @@
         <v>98</v>
       </c>
       <c r="E11" s="32"/>
-      <c r="F11" s="158" t="s">
+      <c r="F11" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2070,7 +2361,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="28"/>
-      <c r="F12" s="158" t="s">
+      <c r="F12" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2086,7 +2377,7 @@
         <v>101</v>
       </c>
       <c r="E13" s="32"/>
-      <c r="F13" s="158" t="s">
+      <c r="F13" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2100,7 +2391,7 @@
         <v>103</v>
       </c>
       <c r="E14" s="28"/>
-      <c r="F14" s="158" t="s">
+      <c r="F14" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2118,7 +2409,7 @@
         <v>104</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="158" t="s">
+      <c r="F15" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2132,7 +2423,7 @@
         <v>106</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="158" t="s">
+      <c r="F16" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2150,7 +2441,7 @@
         <v>107</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="F17" s="158" t="s">
+      <c r="F17" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2166,7 +2457,7 @@
         <v>108</v>
       </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="158" t="s">
+      <c r="F18" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2182,7 +2473,7 @@
         <v>109</v>
       </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="158" t="s">
+      <c r="F19" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2200,7 +2491,7 @@
         <v>110</v>
       </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="158" t="s">
+      <c r="F20" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2214,7 +2505,7 @@
         <v>112</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="158" t="s">
+      <c r="F21" s="154" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2228,7 +2519,7 @@
         <v>114</v>
       </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="158" t="s">
+      <c r="F22" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2246,7 +2537,7 @@
       <c r="E23" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="158" t="s">
+      <c r="F23" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2260,7 +2551,7 @@
         <v>118</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="158" t="s">
+      <c r="F24" s="154" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2276,7 +2567,7 @@
         <v>119</v>
       </c>
       <c r="E25" s="32"/>
-      <c r="F25" s="158" t="s">
+      <c r="F25" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2292,7 +2583,7 @@
         <v>121</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="158" t="s">
+      <c r="F26" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2306,7 +2597,7 @@
         <v>123</v>
       </c>
       <c r="E27" s="32"/>
-      <c r="F27" s="158" t="s">
+      <c r="F27" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2324,7 +2615,7 @@
         <v>124</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="158" t="s">
+      <c r="F28" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2340,7 +2631,7 @@
         <v>126</v>
       </c>
       <c r="E29" s="32"/>
-      <c r="F29" s="158" t="s">
+      <c r="F29" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2354,7 +2645,7 @@
         <v>128</v>
       </c>
       <c r="E30" s="28"/>
-      <c r="F30" s="158" t="s">
+      <c r="F30" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2372,7 +2663,7 @@
         <v>129</v>
       </c>
       <c r="E31" s="32"/>
-      <c r="F31" s="158" t="s">
+      <c r="F31" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2388,7 +2679,7 @@
         <v>131</v>
       </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="158" t="s">
+      <c r="F32" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2406,7 +2697,7 @@
         <v>132</v>
       </c>
       <c r="E33" s="32"/>
-      <c r="F33" s="158" t="s">
+      <c r="F33" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2424,7 +2715,7 @@
         <v>133</v>
       </c>
       <c r="E34" s="28"/>
-      <c r="F34" s="158" t="s">
+      <c r="F34" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2440,7 +2731,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="32"/>
-      <c r="F35" s="158" t="s">
+      <c r="F35" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2454,7 +2745,7 @@
         <v>135</v>
       </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="158" t="s">
+      <c r="F36" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2470,7 +2761,7 @@
         <v>137</v>
       </c>
       <c r="E37" s="32"/>
-      <c r="F37" s="158" t="s">
+      <c r="F37" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2484,7 +2775,7 @@
         <v>218</v>
       </c>
       <c r="E38" s="28"/>
-      <c r="F38" s="158" t="s">
+      <c r="F38" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2500,7 +2791,7 @@
         <v>139</v>
       </c>
       <c r="E39" s="32"/>
-      <c r="F39" s="158" t="s">
+      <c r="F39" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2518,7 +2809,7 @@
         <v>140</v>
       </c>
       <c r="E40" s="28"/>
-      <c r="F40" s="158" t="s">
+      <c r="F40" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2536,7 +2827,7 @@
         <v>141</v>
       </c>
       <c r="E41" s="32"/>
-      <c r="F41" s="158" t="s">
+      <c r="F41" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2556,7 +2847,7 @@
       <c r="E42" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="158" t="s">
+      <c r="F42" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2574,7 +2865,7 @@
         <v>145</v>
       </c>
       <c r="E43" s="32"/>
-      <c r="F43" s="158" t="s">
+      <c r="F43" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2592,7 +2883,7 @@
         <v>146</v>
       </c>
       <c r="E44" s="28"/>
-      <c r="F44" s="158" t="s">
+      <c r="F44" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2606,7 +2897,7 @@
         <v>148</v>
       </c>
       <c r="E45" s="32"/>
-      <c r="F45" s="158" t="s">
+      <c r="F45" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2620,7 +2911,7 @@
         <v>150</v>
       </c>
       <c r="E46" s="28"/>
-      <c r="F46" s="158" t="s">
+      <c r="F46" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2638,7 +2929,7 @@
         <v>151</v>
       </c>
       <c r="E47" s="32"/>
-      <c r="F47" s="158" t="s">
+      <c r="F47" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2654,7 +2945,7 @@
         <v>153</v>
       </c>
       <c r="E48" s="28"/>
-      <c r="F48" s="158" t="s">
+      <c r="F48" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2672,7 +2963,7 @@
         <v>155</v>
       </c>
       <c r="E49" s="32"/>
-      <c r="F49" s="158" t="s">
+      <c r="F49" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2690,7 +2981,7 @@
         <v>157</v>
       </c>
       <c r="E50" s="28"/>
-      <c r="F50" s="158" t="s">
+      <c r="F50" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2706,7 +2997,7 @@
         <v>158</v>
       </c>
       <c r="E51" s="32"/>
-      <c r="F51" s="158" t="s">
+      <c r="F51" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2720,7 +3011,7 @@
         <v>160</v>
       </c>
       <c r="E52" s="28"/>
-      <c r="F52" s="158" t="s">
+      <c r="F52" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2734,7 +3025,7 @@
         <v>162</v>
       </c>
       <c r="E53" s="32"/>
-      <c r="F53" s="158" t="s">
+      <c r="F53" s="154" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2748,7 +3039,7 @@
         <v>164</v>
       </c>
       <c r="E54" s="28"/>
-      <c r="F54" s="158" t="s">
+      <c r="F54" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2766,12 +3057,12 @@
         <v>165</v>
       </c>
       <c r="E55" s="32"/>
-      <c r="F55" s="158" t="s">
+      <c r="F55" s="154" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="159" t="s">
+      <c r="A56" s="155" t="s">
         <v>216</v>
       </c>
       <c r="B56" s="26"/>
@@ -2780,7 +3071,7 @@
         <v>166</v>
       </c>
       <c r="E56" s="28"/>
-      <c r="F56" s="158" t="s">
+      <c r="F56" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2796,7 +3087,7 @@
         <v>169</v>
       </c>
       <c r="E57" s="32"/>
-      <c r="F57" s="158" t="s">
+      <c r="F57" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2814,7 +3105,7 @@
         <v>171</v>
       </c>
       <c r="E58" s="28"/>
-      <c r="F58" s="158" t="s">
+      <c r="F58" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2832,7 +3123,7 @@
         <v>172</v>
       </c>
       <c r="E59" s="32"/>
-      <c r="F59" s="158" t="s">
+      <c r="F59" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2846,7 +3137,7 @@
         <v>174</v>
       </c>
       <c r="E60" s="28"/>
-      <c r="F60" s="158" t="s">
+      <c r="F60" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2864,7 +3155,7 @@
         <v>175</v>
       </c>
       <c r="E61" s="32"/>
-      <c r="F61" s="158" t="s">
+      <c r="F61" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2880,7 +3171,7 @@
         <v>177</v>
       </c>
       <c r="E62" s="28"/>
-      <c r="F62" s="158" t="s">
+      <c r="F62" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2894,7 +3185,7 @@
         <v>179</v>
       </c>
       <c r="E63" s="32"/>
-      <c r="F63" s="158" t="s">
+      <c r="F63" s="154" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2908,7 +3199,7 @@
         <v>181</v>
       </c>
       <c r="E64" s="28"/>
-      <c r="F64" s="158" t="s">
+      <c r="F64" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2928,7 +3219,7 @@
       <c r="E65" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F65" s="158" t="s">
+      <c r="F65" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2946,7 +3237,7 @@
         <v>184</v>
       </c>
       <c r="E66" s="28"/>
-      <c r="F66" s="158" t="s">
+      <c r="F66" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2962,7 +3253,7 @@
         <v>186</v>
       </c>
       <c r="E67" s="32"/>
-      <c r="F67" s="158" t="s">
+      <c r="F67" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2976,7 +3267,7 @@
         <v>188</v>
       </c>
       <c r="E68" s="28"/>
-      <c r="F68" s="158" t="s">
+      <c r="F68" s="154" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2994,7 +3285,7 @@
         <v>191</v>
       </c>
       <c r="E69" s="32"/>
-      <c r="F69" s="158" t="s">
+      <c r="F69" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3012,7 +3303,7 @@
         <v>192</v>
       </c>
       <c r="E70" s="28"/>
-      <c r="F70" s="158" t="s">
+      <c r="F70" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3030,7 +3321,7 @@
         <v>194</v>
       </c>
       <c r="E71" s="32"/>
-      <c r="F71" s="158" t="s">
+      <c r="F71" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3044,7 +3335,7 @@
         <v>196</v>
       </c>
       <c r="E72" s="28"/>
-      <c r="F72" s="158" t="s">
+      <c r="F72" s="154" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3062,6 +3353,2456 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2E5AD5-9603-4937-A6C5-8CB56B67A804}">
+  <dimension ref="A1:X60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:X24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="122"/>
+      <c r="R3" s="123" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="123" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="166">
+        <v>1979</v>
+      </c>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="G4" s="166">
+        <v>1999</v>
+      </c>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="L4" s="166">
+        <v>2019</v>
+      </c>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="S4" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="162"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="162"/>
+      <c r="X4" s="162"/>
+    </row>
+    <row r="5" spans="1:24" ht="39" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="113"/>
+      <c r="V5" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="W5" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="70">
+        <v>1</v>
+      </c>
+      <c r="B6" s="71">
+        <v>31</v>
+      </c>
+      <c r="C6" s="127">
+        <v>10.28</v>
+      </c>
+      <c r="D6" s="127">
+        <v>2.42</v>
+      </c>
+      <c r="E6" s="127">
+        <v>3.02</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="71">
+        <v>30</v>
+      </c>
+      <c r="H6" s="127">
+        <v>7.67</v>
+      </c>
+      <c r="I6" s="127">
+        <v>1.71</v>
+      </c>
+      <c r="J6" s="127">
+        <v>3.91</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="71">
+        <v>34</v>
+      </c>
+      <c r="M6" s="127">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="N6" s="127">
+        <v>2.96</v>
+      </c>
+      <c r="O6" s="127">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="R6" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="124">
+        <v>2</v>
+      </c>
+      <c r="B7" s="55">
+        <v>33</v>
+      </c>
+      <c r="C7" s="117">
+        <v>10.78</v>
+      </c>
+      <c r="D7" s="117">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E7" s="117">
+        <v>3.06</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="55">
+        <v>30</v>
+      </c>
+      <c r="H7" s="117">
+        <v>8.56</v>
+      </c>
+      <c r="I7" s="117">
+        <v>2.06</v>
+      </c>
+      <c r="J7" s="117">
+        <v>3.51</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="55">
+        <v>31</v>
+      </c>
+      <c r="M7" s="117">
+        <v>7.89</v>
+      </c>
+      <c r="N7" s="117">
+        <v>2.78</v>
+      </c>
+      <c r="O7" s="117">
+        <v>3.93</v>
+      </c>
+      <c r="R7" s="116">
+        <v>1979</v>
+      </c>
+      <c r="S7" s="55">
+        <v>18</v>
+      </c>
+      <c r="T7" s="55">
+        <f>AVERAGE(B6:B15)</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="U7" s="60"/>
+      <c r="V7" s="117">
+        <f>AVERAGE(C6:C15)</f>
+        <v>10.673</v>
+      </c>
+      <c r="W7" s="117">
+        <f t="shared" ref="W7:X7" si="0">AVERAGE(D6:D15)</f>
+        <v>2.335</v>
+      </c>
+      <c r="X7" s="117">
+        <f t="shared" si="0"/>
+        <v>3.0260000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="70">
+        <v>3</v>
+      </c>
+      <c r="B8" s="71">
+        <v>29</v>
+      </c>
+      <c r="C8" s="118">
+        <v>10.28</v>
+      </c>
+      <c r="D8" s="118">
+        <v>2.27</v>
+      </c>
+      <c r="E8" s="118">
+        <v>2.82</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="71">
+        <v>33</v>
+      </c>
+      <c r="H8" s="118">
+        <v>8.56</v>
+      </c>
+      <c r="I8" s="118">
+        <v>2.06</v>
+      </c>
+      <c r="J8" s="118">
+        <v>3.86</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="71">
+        <v>29</v>
+      </c>
+      <c r="M8" s="118">
+        <v>7.83</v>
+      </c>
+      <c r="N8" s="118">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O8" s="118">
+        <v>3.7</v>
+      </c>
+      <c r="R8" s="43">
+        <v>1999</v>
+      </c>
+      <c r="S8" s="55">
+        <v>18</v>
+      </c>
+      <c r="T8" s="71">
+        <f>AVERAGE(G6:G15)</f>
+        <v>31.6</v>
+      </c>
+      <c r="U8" s="60"/>
+      <c r="V8" s="118">
+        <f>AVERAGE(H6:H15)</f>
+        <v>8.3070000000000004</v>
+      </c>
+      <c r="W8" s="118">
+        <f t="shared" ref="W8:X8" si="1">AVERAGE(I6:I15)</f>
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="X8" s="118">
+        <f t="shared" si="1"/>
+        <v>3.8069999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="124">
+        <v>4</v>
+      </c>
+      <c r="B9" s="55">
+        <v>32</v>
+      </c>
+      <c r="C9" s="117">
+        <v>10.83</v>
+      </c>
+      <c r="D9" s="117">
+        <v>2.62</v>
+      </c>
+      <c r="E9" s="117">
+        <v>2.95</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="55">
+        <v>32</v>
+      </c>
+      <c r="H9" s="117">
+        <v>8.33</v>
+      </c>
+      <c r="I9" s="117">
+        <v>1.78</v>
+      </c>
+      <c r="J9" s="117">
+        <v>3.84</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="55">
+        <v>32</v>
+      </c>
+      <c r="M9" s="117">
+        <v>8</v>
+      </c>
+      <c r="N9" s="117">
+        <v>2.7</v>
+      </c>
+      <c r="O9" s="117">
+        <v>4</v>
+      </c>
+      <c r="R9" s="116">
+        <v>2019</v>
+      </c>
+      <c r="S9" s="55">
+        <v>18</v>
+      </c>
+      <c r="T9" s="55">
+        <f>AVERAGE(L6:L15)</f>
+        <v>30.8</v>
+      </c>
+      <c r="U9" s="60"/>
+      <c r="V9" s="117">
+        <f>AVERAGE(M6:M15)</f>
+        <v>8.1840000000000011</v>
+      </c>
+      <c r="W9" s="117">
+        <f>AVERAGE(N6:N15)</f>
+        <v>2.5090000000000003</v>
+      </c>
+      <c r="X9" s="117">
+        <f>AVERAGE(O6:O15)</f>
+        <v>3.7650000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="70">
+        <v>5</v>
+      </c>
+      <c r="B10" s="71">
+        <v>34</v>
+      </c>
+      <c r="C10" s="127">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="D10" s="127">
+        <v>2.71</v>
+      </c>
+      <c r="E10" s="127">
+        <v>3.33</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="71">
+        <v>32</v>
+      </c>
+      <c r="H10" s="127">
+        <v>8.06</v>
+      </c>
+      <c r="I10" s="127">
+        <v>1.89</v>
+      </c>
+      <c r="J10" s="127">
+        <v>3.97</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="71">
+        <v>31</v>
+      </c>
+      <c r="M10" s="127">
+        <v>8.61</v>
+      </c>
+      <c r="N10" s="127">
+        <v>2.75</v>
+      </c>
+      <c r="O10" s="127">
+        <v>3.6</v>
+      </c>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="124">
+        <v>6</v>
+      </c>
+      <c r="B11" s="55">
+        <v>32</v>
+      </c>
+      <c r="C11" s="117">
+        <v>10.67</v>
+      </c>
+      <c r="D11" s="117">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E11" s="117">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="55">
+        <v>31</v>
+      </c>
+      <c r="H11" s="117">
+        <v>8.06</v>
+      </c>
+      <c r="I11" s="117">
+        <v>2.1</v>
+      </c>
+      <c r="J11" s="117">
+        <v>3.85</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="55">
+        <v>28</v>
+      </c>
+      <c r="M11" s="117">
+        <v>8.06</v>
+      </c>
+      <c r="N11" s="117">
+        <v>2.34</v>
+      </c>
+      <c r="O11" s="117">
+        <v>3.48</v>
+      </c>
+      <c r="R11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="70">
+        <v>7</v>
+      </c>
+      <c r="B12" s="55">
+        <v>35</v>
+      </c>
+      <c r="C12" s="117">
+        <v>11.22</v>
+      </c>
+      <c r="D12" s="117">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E12" s="117">
+        <v>3.12</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="41">
+        <v>34</v>
+      </c>
+      <c r="H12" s="118">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="I12" s="118">
+        <v>1.93</v>
+      </c>
+      <c r="J12" s="118">
+        <v>3.9</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="41">
+        <v>33</v>
+      </c>
+      <c r="M12" s="118">
+        <v>8.17</v>
+      </c>
+      <c r="N12" s="118">
+        <v>2.41</v>
+      </c>
+      <c r="O12" s="118">
+        <v>4.04</v>
+      </c>
+      <c r="R12" s="116">
+        <v>1979</v>
+      </c>
+      <c r="S12" s="55">
+        <v>18</v>
+      </c>
+      <c r="T12" s="55">
+        <f>AVERAGE(B21:B30)</f>
+        <v>43.3</v>
+      </c>
+      <c r="U12" s="60"/>
+      <c r="V12" s="117">
+        <f>AVERAGE(C21:C30)</f>
+        <v>12.960999999999999</v>
+      </c>
+      <c r="W12" s="117">
+        <f t="shared" ref="W12:X12" si="2">AVERAGE(D21:D30)</f>
+        <v>3.9079999999999999</v>
+      </c>
+      <c r="X12" s="117">
+        <f t="shared" si="2"/>
+        <v>3.347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="124">
+        <v>8</v>
+      </c>
+      <c r="B13" s="55">
+        <v>34</v>
+      </c>
+      <c r="C13" s="117">
+        <v>11</v>
+      </c>
+      <c r="D13" s="117">
+        <v>2.4</v>
+      </c>
+      <c r="E13" s="117">
+        <v>3.09</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="71">
+        <v>31</v>
+      </c>
+      <c r="H13" s="118">
+        <v>8.33</v>
+      </c>
+      <c r="I13" s="118">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J13" s="118">
+        <v>3.72</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="71">
+        <v>26</v>
+      </c>
+      <c r="M13" s="118">
+        <v>8.06</v>
+      </c>
+      <c r="N13" s="118">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O13" s="118">
+        <v>3.23</v>
+      </c>
+      <c r="R13" s="43">
+        <v>1999</v>
+      </c>
+      <c r="S13" s="55">
+        <v>18</v>
+      </c>
+      <c r="T13" s="71">
+        <f>AVERAGE(G21:G30)</f>
+        <v>36.4</v>
+      </c>
+      <c r="U13" s="60"/>
+      <c r="V13" s="118">
+        <f>AVERAGE(H21:H30)</f>
+        <v>9.7219999999999995</v>
+      </c>
+      <c r="W13" s="118">
+        <f t="shared" ref="W13:X13" si="3">AVERAGE(I21:I30)</f>
+        <v>3.9189999999999996</v>
+      </c>
+      <c r="X13" s="118">
+        <f t="shared" si="3"/>
+        <v>3.7600000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="70">
+        <v>9</v>
+      </c>
+      <c r="B14" s="55">
+        <v>34</v>
+      </c>
+      <c r="C14" s="117">
+        <v>11.39</v>
+      </c>
+      <c r="D14" s="117">
+        <v>2.12</v>
+      </c>
+      <c r="E14" s="117">
+        <v>2.99</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="75">
+        <v>31</v>
+      </c>
+      <c r="H14" s="126">
+        <v>8.56</v>
+      </c>
+      <c r="I14" s="126">
+        <v>1.95</v>
+      </c>
+      <c r="J14" s="126">
+        <v>3.62</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="75">
+        <v>30</v>
+      </c>
+      <c r="M14" s="126">
+        <v>8</v>
+      </c>
+      <c r="N14" s="126">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O14" s="126">
+        <v>3.75</v>
+      </c>
+      <c r="R14" s="116">
+        <v>2019</v>
+      </c>
+      <c r="S14" s="55">
+        <v>18</v>
+      </c>
+      <c r="T14" s="55">
+        <f>AVERAGE(L21:L30)</f>
+        <v>27</v>
+      </c>
+      <c r="U14" s="60"/>
+      <c r="V14" s="117">
+        <f>AVERAGE(M21:M30)</f>
+        <v>5.8299999999999992</v>
+      </c>
+      <c r="W14" s="117">
+        <f t="shared" ref="W14:X14" si="4">AVERAGE(N21:N30)</f>
+        <v>2.7899999999999996</v>
+      </c>
+      <c r="X14" s="117">
+        <f t="shared" si="4"/>
+        <v>4.6300000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="124">
+        <v>10</v>
+      </c>
+      <c r="B15" s="55">
+        <v>29</v>
+      </c>
+      <c r="C15" s="117">
+        <v>10.06</v>
+      </c>
+      <c r="D15" s="117">
+        <v>1.89</v>
+      </c>
+      <c r="E15" s="117">
+        <v>2.88</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="55">
+        <v>32</v>
+      </c>
+      <c r="H15" s="117">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="I15" s="117">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J15" s="117">
+        <v>3.89</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="55">
+        <v>34</v>
+      </c>
+      <c r="M15" s="117">
+        <v>9</v>
+      </c>
+      <c r="N15" s="117">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O15" s="117">
+        <v>3.78</v>
+      </c>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="115"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="R16" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" s="57"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="R17" s="116">
+        <v>1979</v>
+      </c>
+      <c r="S17" s="55">
+        <v>18</v>
+      </c>
+      <c r="T17" s="55">
+        <f>AVERAGE(B36:B45)</f>
+        <v>31.7</v>
+      </c>
+      <c r="U17" s="60"/>
+      <c r="V17" s="117">
+        <f>AVERAGE(C36:C45)</f>
+        <v>12.827999999999999</v>
+      </c>
+      <c r="W17" s="117">
+        <f t="shared" ref="W17:X17" si="5">AVERAGE(D36:D45)</f>
+        <v>3.63</v>
+      </c>
+      <c r="X17" s="117">
+        <f t="shared" si="5"/>
+        <v>2.4710000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="R18" s="43">
+        <v>1999</v>
+      </c>
+      <c r="S18" s="55">
+        <v>18</v>
+      </c>
+      <c r="T18" s="71">
+        <f>AVERAGE(G36:G45)</f>
+        <v>36</v>
+      </c>
+      <c r="U18" s="60"/>
+      <c r="V18" s="118">
+        <f>AVERAGE(H36:H45)</f>
+        <v>11.5</v>
+      </c>
+      <c r="W18" s="118">
+        <f t="shared" ref="W18:X18" si="6">AVERAGE(I36:I45)</f>
+        <v>2.9200000000000004</v>
+      </c>
+      <c r="X18" s="118">
+        <f t="shared" si="6"/>
+        <v>3.1299999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="166">
+        <v>1979</v>
+      </c>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="G19" s="166">
+        <v>1999</v>
+      </c>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="L19" s="166">
+        <v>2019</v>
+      </c>
+      <c r="M19" s="166"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
+      <c r="R19" s="116">
+        <v>2019</v>
+      </c>
+      <c r="S19" s="55">
+        <v>18</v>
+      </c>
+      <c r="T19" s="55">
+        <f>AVERAGE(L36:L45)</f>
+        <v>31.4</v>
+      </c>
+      <c r="U19" s="60"/>
+      <c r="V19" s="117">
+        <f>AVERAGE(M36:M45)</f>
+        <v>10.516999999999999</v>
+      </c>
+      <c r="W19" s="117">
+        <f t="shared" ref="W19:X19" si="7">AVERAGE(N36:N45)</f>
+        <v>1.9009999999999998</v>
+      </c>
+      <c r="X19" s="117">
+        <f t="shared" si="7"/>
+        <v>2.9850000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="39" x14ac:dyDescent="0.35">
+      <c r="A20" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="N20" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" s="70">
+        <v>1</v>
+      </c>
+      <c r="B21" s="71">
+        <v>44</v>
+      </c>
+      <c r="C21" s="127">
+        <v>13.67</v>
+      </c>
+      <c r="D21" s="127">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E21" s="127">
+        <v>3.22</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="71">
+        <v>35</v>
+      </c>
+      <c r="H21" s="127">
+        <v>10.61</v>
+      </c>
+      <c r="I21" s="127">
+        <v>3.6</v>
+      </c>
+      <c r="J21" s="127">
+        <v>3.3</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="71">
+        <v>27</v>
+      </c>
+      <c r="M21" s="127">
+        <v>5.83</v>
+      </c>
+      <c r="N21" s="127">
+        <v>2.79</v>
+      </c>
+      <c r="O21" s="127">
+        <v>4.63</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="124">
+        <v>2</v>
+      </c>
+      <c r="B22" s="55">
+        <v>44</v>
+      </c>
+      <c r="C22" s="117">
+        <v>13.61</v>
+      </c>
+      <c r="D22" s="117">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E22" s="117">
+        <v>3.23</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="55">
+        <v>37</v>
+      </c>
+      <c r="H22" s="117">
+        <v>10.28</v>
+      </c>
+      <c r="I22" s="117">
+        <v>3.82</v>
+      </c>
+      <c r="J22" s="117">
+        <v>3.6</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="55">
+        <v>27</v>
+      </c>
+      <c r="M22" s="117">
+        <v>5.83</v>
+      </c>
+      <c r="N22" s="117">
+        <v>2.79</v>
+      </c>
+      <c r="O22" s="117">
+        <v>4.63</v>
+      </c>
+      <c r="R22" s="116">
+        <v>1979</v>
+      </c>
+      <c r="S22" s="55">
+        <v>54</v>
+      </c>
+      <c r="T22" s="55">
+        <f>AVERAGE(B51:B60)</f>
+        <v>47.6</v>
+      </c>
+      <c r="U22" s="57"/>
+      <c r="V22" s="120">
+        <f>AVERAGE(C51:C60)</f>
+        <v>12.153</v>
+      </c>
+      <c r="W22" s="120">
+        <f t="shared" ref="W22:X22" si="8">AVERAGE(D51:D60)</f>
+        <v>3.4850000000000003</v>
+      </c>
+      <c r="X22" s="120">
+        <f t="shared" si="8"/>
+        <v>3.9169999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="70">
+        <v>3</v>
+      </c>
+      <c r="B23" s="71">
+        <v>43</v>
+      </c>
+      <c r="C23" s="118">
+        <v>12.89</v>
+      </c>
+      <c r="D23" s="118">
+        <v>3.88</v>
+      </c>
+      <c r="E23" s="118">
+        <v>3.34</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="71">
+        <v>36</v>
+      </c>
+      <c r="H23" s="118">
+        <v>9.83</v>
+      </c>
+      <c r="I23" s="118">
+        <v>3.79</v>
+      </c>
+      <c r="J23" s="118">
+        <v>3.66</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="71">
+        <v>27</v>
+      </c>
+      <c r="M23" s="127">
+        <v>5.83</v>
+      </c>
+      <c r="N23" s="127">
+        <v>2.79</v>
+      </c>
+      <c r="O23" s="127">
+        <v>4.63</v>
+      </c>
+      <c r="R23" s="43">
+        <v>1999</v>
+      </c>
+      <c r="S23" s="55">
+        <v>54</v>
+      </c>
+      <c r="T23" s="71">
+        <f>AVERAGE(G51:G60)</f>
+        <v>42.1</v>
+      </c>
+      <c r="U23" s="57"/>
+      <c r="V23" s="121">
+        <f>AVERAGE(H51:H60)</f>
+        <v>10.023</v>
+      </c>
+      <c r="W23" s="121">
+        <f t="shared" ref="W23:X23" si="9">AVERAGE(I51:I60)</f>
+        <v>3.351</v>
+      </c>
+      <c r="X23" s="121">
+        <f t="shared" si="9"/>
+        <v>4.218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="124">
+        <v>4</v>
+      </c>
+      <c r="B24" s="55">
+        <v>43</v>
+      </c>
+      <c r="C24" s="117">
+        <v>12</v>
+      </c>
+      <c r="D24" s="117">
+        <v>3.55</v>
+      </c>
+      <c r="E24" s="117">
+        <v>3.58</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="55">
+        <v>36</v>
+      </c>
+      <c r="H24" s="117">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="I24" s="117">
+        <v>3.93</v>
+      </c>
+      <c r="J24" s="117">
+        <v>3.9</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="55">
+        <v>27</v>
+      </c>
+      <c r="M24" s="117">
+        <v>5.83</v>
+      </c>
+      <c r="N24" s="117">
+        <v>2.79</v>
+      </c>
+      <c r="O24" s="117">
+        <v>4.63</v>
+      </c>
+      <c r="R24" s="116">
+        <v>2019</v>
+      </c>
+      <c r="S24" s="55">
+        <v>54</v>
+      </c>
+      <c r="T24" s="55">
+        <f>AVERAGE(L51:L60)</f>
+        <v>41.7</v>
+      </c>
+      <c r="U24" s="57"/>
+      <c r="V24" s="120">
+        <f>AVERAGE(M51:M60)</f>
+        <v>8.1770000000000014</v>
+      </c>
+      <c r="W24" s="120">
+        <f t="shared" ref="W24:X24" si="10">AVERAGE(N51:N60)</f>
+        <v>3.0749999999999997</v>
+      </c>
+      <c r="X24" s="120">
+        <f t="shared" si="10"/>
+        <v>5.1010000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="70">
+        <v>5</v>
+      </c>
+      <c r="B25" s="71">
+        <v>43</v>
+      </c>
+      <c r="C25" s="127">
+        <v>13.44</v>
+      </c>
+      <c r="D25" s="127">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E25" s="127">
+        <v>3.2</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="71">
+        <v>36</v>
+      </c>
+      <c r="H25" s="127">
+        <v>10.67</v>
+      </c>
+      <c r="I25" s="127">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J25" s="127">
+        <v>3.38</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="71">
+        <v>27</v>
+      </c>
+      <c r="M25" s="127">
+        <v>5.83</v>
+      </c>
+      <c r="N25" s="127">
+        <v>2.79</v>
+      </c>
+      <c r="O25" s="127">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" s="124">
+        <v>6</v>
+      </c>
+      <c r="B26" s="55">
+        <v>41</v>
+      </c>
+      <c r="C26" s="117">
+        <v>12.72</v>
+      </c>
+      <c r="D26" s="117">
+        <v>3.82</v>
+      </c>
+      <c r="E26" s="117">
+        <v>3.22</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="55">
+        <v>37</v>
+      </c>
+      <c r="H26" s="117">
+        <v>9.83</v>
+      </c>
+      <c r="I26" s="117">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J26" s="117">
+        <v>3.76</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="55">
+        <v>27</v>
+      </c>
+      <c r="M26" s="117">
+        <v>5.83</v>
+      </c>
+      <c r="N26" s="117">
+        <v>2.79</v>
+      </c>
+      <c r="O26" s="117">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" s="70">
+        <v>7</v>
+      </c>
+      <c r="B27" s="55">
+        <v>44</v>
+      </c>
+      <c r="C27" s="117">
+        <v>13.72</v>
+      </c>
+      <c r="D27" s="117">
+        <v>3.79</v>
+      </c>
+      <c r="E27" s="117">
+        <v>3.21</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="41">
+        <v>36</v>
+      </c>
+      <c r="H27" s="118">
+        <v>8.89</v>
+      </c>
+      <c r="I27" s="118">
+        <v>3.79</v>
+      </c>
+      <c r="J27" s="118">
+        <v>4.05</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="71">
+        <v>27</v>
+      </c>
+      <c r="M27" s="127">
+        <v>5.83</v>
+      </c>
+      <c r="N27" s="127">
+        <v>2.79</v>
+      </c>
+      <c r="O27" s="127">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="124">
+        <v>8</v>
+      </c>
+      <c r="B28" s="55">
+        <v>45</v>
+      </c>
+      <c r="C28" s="117">
+        <v>13.28</v>
+      </c>
+      <c r="D28" s="117">
+        <v>3.98</v>
+      </c>
+      <c r="E28" s="117">
+        <v>3.39</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="71">
+        <v>38</v>
+      </c>
+      <c r="H28" s="118">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I28" s="118">
+        <v>4.17</v>
+      </c>
+      <c r="J28" s="118">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="55">
+        <v>27</v>
+      </c>
+      <c r="M28" s="117">
+        <v>5.83</v>
+      </c>
+      <c r="N28" s="117">
+        <v>2.79</v>
+      </c>
+      <c r="O28" s="117">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" s="70">
+        <v>9</v>
+      </c>
+      <c r="B29" s="55">
+        <v>43</v>
+      </c>
+      <c r="C29" s="117">
+        <v>12.11</v>
+      </c>
+      <c r="D29" s="117">
+        <v>3.92</v>
+      </c>
+      <c r="E29" s="117">
+        <v>3.55</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="75">
+        <v>36</v>
+      </c>
+      <c r="H29" s="126">
+        <v>9.5</v>
+      </c>
+      <c r="I29" s="126">
+        <v>3.84</v>
+      </c>
+      <c r="J29" s="126">
+        <v>3.79</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="71">
+        <v>27</v>
+      </c>
+      <c r="M29" s="127">
+        <v>5.83</v>
+      </c>
+      <c r="N29" s="127">
+        <v>2.79</v>
+      </c>
+      <c r="O29" s="127">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="124">
+        <v>10</v>
+      </c>
+      <c r="B30" s="55">
+        <v>43</v>
+      </c>
+      <c r="C30" s="117">
+        <v>12.17</v>
+      </c>
+      <c r="D30" s="117">
+        <v>3.42</v>
+      </c>
+      <c r="E30" s="117">
+        <v>3.53</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="55">
+        <v>37</v>
+      </c>
+      <c r="H30" s="117">
+        <v>9.11</v>
+      </c>
+      <c r="I30" s="117">
+        <v>3.92</v>
+      </c>
+      <c r="J30" s="117">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="55">
+        <v>27</v>
+      </c>
+      <c r="M30" s="117">
+        <v>5.83</v>
+      </c>
+      <c r="N30" s="117">
+        <v>2.79</v>
+      </c>
+      <c r="O30" s="117">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="166">
+        <v>1979</v>
+      </c>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="G34" s="166">
+        <v>1999</v>
+      </c>
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
+      <c r="L34" s="166">
+        <v>2019</v>
+      </c>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166"/>
+      <c r="O34" s="166"/>
+    </row>
+    <row r="35" spans="1:15" ht="39" x14ac:dyDescent="0.35">
+      <c r="A35" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="L35" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="N35" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="70">
+        <v>1</v>
+      </c>
+      <c r="B36" s="71">
+        <v>31</v>
+      </c>
+      <c r="C36" s="127">
+        <v>12.61</v>
+      </c>
+      <c r="D36" s="127">
+        <v>3.57</v>
+      </c>
+      <c r="E36" s="127">
+        <v>2.46</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="131">
+        <v>36</v>
+      </c>
+      <c r="H36" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I36" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J36" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="71">
+        <v>31</v>
+      </c>
+      <c r="M36" s="127">
+        <v>10.78</v>
+      </c>
+      <c r="N36" s="127">
+        <v>1.63</v>
+      </c>
+      <c r="O36" s="127">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="124">
+        <v>2</v>
+      </c>
+      <c r="B37" s="55">
+        <v>32</v>
+      </c>
+      <c r="C37" s="117">
+        <v>12.89</v>
+      </c>
+      <c r="D37" s="117">
+        <v>3.71</v>
+      </c>
+      <c r="E37" s="117">
+        <v>2.48</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="131">
+        <v>36</v>
+      </c>
+      <c r="H37" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I37" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J37" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="55">
+        <v>32</v>
+      </c>
+      <c r="M37" s="117">
+        <v>10.5</v>
+      </c>
+      <c r="N37" s="117">
+        <v>1.79</v>
+      </c>
+      <c r="O37" s="117">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="70">
+        <v>3</v>
+      </c>
+      <c r="B38" s="71">
+        <v>32</v>
+      </c>
+      <c r="C38" s="118">
+        <v>13.06</v>
+      </c>
+      <c r="D38" s="118">
+        <v>3.59</v>
+      </c>
+      <c r="E38" s="118">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="131">
+        <v>36</v>
+      </c>
+      <c r="H38" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I38" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J38" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="71">
+        <v>32</v>
+      </c>
+      <c r="M38" s="118">
+        <v>10.72</v>
+      </c>
+      <c r="N38" s="118">
+        <v>1.87</v>
+      </c>
+      <c r="O38" s="118">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="124">
+        <v>4</v>
+      </c>
+      <c r="B39" s="55">
+        <v>32</v>
+      </c>
+      <c r="C39" s="117">
+        <v>13</v>
+      </c>
+      <c r="D39" s="117">
+        <v>3.65</v>
+      </c>
+      <c r="E39" s="117">
+        <v>2.46</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="131">
+        <v>36</v>
+      </c>
+      <c r="H39" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I39" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J39" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="55">
+        <v>32</v>
+      </c>
+      <c r="M39" s="117">
+        <v>10.5</v>
+      </c>
+      <c r="N39" s="117">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="O39" s="117">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="70">
+        <v>5</v>
+      </c>
+      <c r="B40" s="71">
+        <v>31</v>
+      </c>
+      <c r="C40" s="127">
+        <v>12.56</v>
+      </c>
+      <c r="D40" s="127">
+        <v>3.48</v>
+      </c>
+      <c r="E40" s="127">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="131">
+        <v>36</v>
+      </c>
+      <c r="H40" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I40" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J40" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="71">
+        <v>32</v>
+      </c>
+      <c r="M40" s="127">
+        <v>10.72</v>
+      </c>
+      <c r="N40" s="127">
+        <v>1.81</v>
+      </c>
+      <c r="O40" s="127">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="124">
+        <v>6</v>
+      </c>
+      <c r="B41" s="55">
+        <v>32</v>
+      </c>
+      <c r="C41" s="117">
+        <v>12.94</v>
+      </c>
+      <c r="D41" s="117">
+        <v>3.69</v>
+      </c>
+      <c r="E41" s="117">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="131">
+        <v>36</v>
+      </c>
+      <c r="H41" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I41" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J41" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="55">
+        <v>31</v>
+      </c>
+      <c r="M41" s="117">
+        <v>10.33</v>
+      </c>
+      <c r="N41" s="117">
+        <v>1.94</v>
+      </c>
+      <c r="O41" s="117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="70">
+        <v>7</v>
+      </c>
+      <c r="B42" s="55">
+        <v>32</v>
+      </c>
+      <c r="C42" s="117">
+        <v>13</v>
+      </c>
+      <c r="D42" s="117">
+        <v>3.65</v>
+      </c>
+      <c r="E42" s="117">
+        <v>2.46</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="131">
+        <v>36</v>
+      </c>
+      <c r="H42" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I42" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J42" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="41">
+        <v>31</v>
+      </c>
+      <c r="M42" s="118">
+        <v>9.94</v>
+      </c>
+      <c r="N42" s="118">
+        <v>1.89</v>
+      </c>
+      <c r="O42" s="118">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="124">
+        <v>8</v>
+      </c>
+      <c r="B43" s="55">
+        <v>32</v>
+      </c>
+      <c r="C43" s="117">
+        <v>12.72</v>
+      </c>
+      <c r="D43" s="117">
+        <v>3.68</v>
+      </c>
+      <c r="E43" s="117">
+        <v>2.52</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="131">
+        <v>36</v>
+      </c>
+      <c r="H43" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I43" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J43" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="71">
+        <v>31</v>
+      </c>
+      <c r="M43" s="118">
+        <v>10.72</v>
+      </c>
+      <c r="N43" s="118">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O43" s="118">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="70">
+        <v>9</v>
+      </c>
+      <c r="B44" s="55">
+        <v>32</v>
+      </c>
+      <c r="C44" s="117">
+        <v>12.89</v>
+      </c>
+      <c r="D44" s="117">
+        <v>3.71</v>
+      </c>
+      <c r="E44" s="117">
+        <v>2.48</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="131">
+        <v>36</v>
+      </c>
+      <c r="H44" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I44" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J44" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="75">
+        <v>29</v>
+      </c>
+      <c r="M44" s="126">
+        <v>10.18</v>
+      </c>
+      <c r="N44" s="126">
+        <v>1.86</v>
+      </c>
+      <c r="O44" s="126">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="124">
+        <v>10</v>
+      </c>
+      <c r="B45" s="55">
+        <v>31</v>
+      </c>
+      <c r="C45" s="117">
+        <v>12.61</v>
+      </c>
+      <c r="D45" s="117">
+        <v>3.57</v>
+      </c>
+      <c r="E45" s="117">
+        <v>2.46</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="131">
+        <v>36</v>
+      </c>
+      <c r="H45" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I45" s="117">
+        <v>2.92</v>
+      </c>
+      <c r="J45" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="55">
+        <v>33</v>
+      </c>
+      <c r="M45" s="117">
+        <v>10.78</v>
+      </c>
+      <c r="N45" s="117">
+        <v>1.99</v>
+      </c>
+      <c r="O45" s="117">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="166">
+        <v>1979</v>
+      </c>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="G49" s="166">
+        <v>1999</v>
+      </c>
+      <c r="H49" s="166"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
+      <c r="L49" s="166">
+        <v>2019</v>
+      </c>
+      <c r="M49" s="166"/>
+      <c r="N49" s="166"/>
+      <c r="O49" s="166"/>
+    </row>
+    <row r="50" spans="1:15" ht="39" x14ac:dyDescent="0.35">
+      <c r="A50" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="I50" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="L50" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="N50" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="O50" s="114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="70">
+        <v>1</v>
+      </c>
+      <c r="B51" s="71">
+        <v>47</v>
+      </c>
+      <c r="C51" s="71">
+        <v>12.19</v>
+      </c>
+      <c r="D51" s="71">
+        <v>3.75</v>
+      </c>
+      <c r="E51" s="71">
+        <v>3.86</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="71">
+        <v>42</v>
+      </c>
+      <c r="H51" s="71">
+        <v>9.93</v>
+      </c>
+      <c r="I51" s="71">
+        <v>3.25</v>
+      </c>
+      <c r="J51" s="71">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="71">
+        <v>43</v>
+      </c>
+      <c r="M51" s="127">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="N51" s="127">
+        <v>3.21</v>
+      </c>
+      <c r="O51" s="127">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="124">
+        <v>2</v>
+      </c>
+      <c r="B52" s="55">
+        <v>48</v>
+      </c>
+      <c r="C52" s="117">
+        <v>12.43</v>
+      </c>
+      <c r="D52" s="117">
+        <v>3.61</v>
+      </c>
+      <c r="E52" s="117">
+        <v>3.86</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="55">
+        <v>41</v>
+      </c>
+      <c r="H52" s="117">
+        <v>10.11</v>
+      </c>
+      <c r="I52" s="117">
+        <v>3.2</v>
+      </c>
+      <c r="J52" s="117">
+        <v>4.05</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="55">
+        <v>42</v>
+      </c>
+      <c r="M52" s="117">
+        <v>8.07</v>
+      </c>
+      <c r="N52" s="117">
+        <v>3.12</v>
+      </c>
+      <c r="O52" s="117">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="70">
+        <v>3</v>
+      </c>
+      <c r="B53" s="71">
+        <v>47</v>
+      </c>
+      <c r="C53" s="118">
+        <v>12.07</v>
+      </c>
+      <c r="D53" s="118">
+        <v>3.5</v>
+      </c>
+      <c r="E53" s="118">
+        <v>3.89</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="71">
+        <v>43</v>
+      </c>
+      <c r="H53" s="118">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="I53" s="118">
+        <v>3.19</v>
+      </c>
+      <c r="J53" s="118">
+        <v>4.32</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="71">
+        <v>41</v>
+      </c>
+      <c r="M53" s="118">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="N53" s="118">
+        <v>3.1</v>
+      </c>
+      <c r="O53" s="118">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="124">
+        <v>4</v>
+      </c>
+      <c r="B54" s="55">
+        <v>49</v>
+      </c>
+      <c r="C54" s="117">
+        <v>11.94</v>
+      </c>
+      <c r="D54" s="117">
+        <v>3.36</v>
+      </c>
+      <c r="E54" s="117">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="55">
+        <v>36</v>
+      </c>
+      <c r="H54" s="117">
+        <v>11.5</v>
+      </c>
+      <c r="I54" s="117">
+        <v>3.92</v>
+      </c>
+      <c r="J54" s="117">
+        <v>3.13</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="55">
+        <v>43</v>
+      </c>
+      <c r="M54" s="117">
+        <v>8.11</v>
+      </c>
+      <c r="N54" s="117">
+        <v>3.17</v>
+      </c>
+      <c r="O54" s="117">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="70">
+        <v>5</v>
+      </c>
+      <c r="B55" s="71">
+        <v>47</v>
+      </c>
+      <c r="C55" s="127">
+        <v>12.07</v>
+      </c>
+      <c r="D55" s="127">
+        <v>3.74</v>
+      </c>
+      <c r="E55" s="127">
+        <v>3.89</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="71">
+        <v>42</v>
+      </c>
+      <c r="H55" s="127">
+        <v>10.07</v>
+      </c>
+      <c r="I55" s="127">
+        <v>3.39</v>
+      </c>
+      <c r="J55" s="127">
+        <v>4.17</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="71">
+        <v>41</v>
+      </c>
+      <c r="M55" s="127">
+        <v>8.39</v>
+      </c>
+      <c r="N55" s="127">
+        <v>3.17</v>
+      </c>
+      <c r="O55" s="127">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="124">
+        <v>6</v>
+      </c>
+      <c r="B56" s="55">
+        <v>47</v>
+      </c>
+      <c r="C56" s="117">
+        <v>12.11</v>
+      </c>
+      <c r="D56" s="117">
+        <v>3.43</v>
+      </c>
+      <c r="E56" s="117">
+        <v>3.88</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="55">
+        <v>43</v>
+      </c>
+      <c r="H56" s="117">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I56" s="117">
+        <v>3.45</v>
+      </c>
+      <c r="J56" s="117">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="55">
+        <v>39</v>
+      </c>
+      <c r="M56" s="117">
+        <v>8.07</v>
+      </c>
+      <c r="N56" s="117">
+        <v>2.98</v>
+      </c>
+      <c r="O56" s="117">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="70">
+        <v>7</v>
+      </c>
+      <c r="B57" s="55">
+        <v>48</v>
+      </c>
+      <c r="C57" s="117">
+        <v>12.65</v>
+      </c>
+      <c r="D57" s="117">
+        <v>3.42</v>
+      </c>
+      <c r="E57" s="117">
+        <v>3.8</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="41">
+        <v>44</v>
+      </c>
+      <c r="H57" s="118">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I57" s="118">
+        <v>3.19</v>
+      </c>
+      <c r="J57" s="118">
+        <v>4.53</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="41">
+        <v>43</v>
+      </c>
+      <c r="M57" s="118">
+        <v>7.98</v>
+      </c>
+      <c r="N57" s="118">
+        <v>2.9</v>
+      </c>
+      <c r="O57" s="118">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="124">
+        <v>8</v>
+      </c>
+      <c r="B58" s="55">
+        <v>49</v>
+      </c>
+      <c r="C58" s="117">
+        <v>12.33</v>
+      </c>
+      <c r="D58" s="117">
+        <v>3.5</v>
+      </c>
+      <c r="E58" s="117">
+        <v>3.97</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="71">
+        <v>44</v>
+      </c>
+      <c r="H58" s="118">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I58" s="118">
+        <v>3.42</v>
+      </c>
+      <c r="J58" s="118">
+        <v>4.53</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="71">
+        <v>40</v>
+      </c>
+      <c r="M58" s="118">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N58" s="118">
+        <v>3.09</v>
+      </c>
+      <c r="O58" s="118">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="70">
+        <v>9</v>
+      </c>
+      <c r="B59" s="55">
+        <v>48</v>
+      </c>
+      <c r="C59" s="117">
+        <v>12.13</v>
+      </c>
+      <c r="D59" s="117">
+        <v>3.34</v>
+      </c>
+      <c r="E59" s="117">
+        <v>3.96</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="75">
+        <v>43</v>
+      </c>
+      <c r="H59" s="126">
+        <v>9.85</v>
+      </c>
+      <c r="I59" s="126">
+        <v>3.19</v>
+      </c>
+      <c r="J59" s="126">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="75">
+        <v>42</v>
+      </c>
+      <c r="M59" s="126">
+        <v>8</v>
+      </c>
+      <c r="N59" s="126">
+        <v>2.95</v>
+      </c>
+      <c r="O59" s="126">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="124">
+        <v>10</v>
+      </c>
+      <c r="B60" s="55">
+        <v>46</v>
+      </c>
+      <c r="C60" s="117">
+        <v>11.61</v>
+      </c>
+      <c r="D60" s="117">
+        <v>3.2</v>
+      </c>
+      <c r="E60" s="117">
+        <v>3.96</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="55">
+        <v>43</v>
+      </c>
+      <c r="H60" s="117">
+        <v>9.61</v>
+      </c>
+      <c r="I60" s="117">
+        <v>3.31</v>
+      </c>
+      <c r="J60" s="117">
+        <v>4.47</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="55">
+        <v>43</v>
+      </c>
+      <c r="M60" s="117">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="N60" s="117">
+        <v>3.06</v>
+      </c>
+      <c r="O60" s="117">
+        <v>5.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49A6CE-51F8-4C38-9877-632622635B42}">
   <dimension ref="A3:C6"/>
   <sheetViews>
@@ -3125,12 +5866,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E39F2F4-922C-4DC7-AF1C-C568276BB17B}">
   <dimension ref="C3:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3159,99 +5900,99 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="167" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="146">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="F4" s="149">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="G4" s="149">
-        <v>0.16</v>
+      <c r="E4" s="144">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F4" s="147">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="147">
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="172"/>
+      <c r="C5" s="168"/>
       <c r="D5" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="147">
-        <v>0.51</v>
-      </c>
-      <c r="F5" s="150">
-        <v>0.23</v>
-      </c>
-      <c r="G5" s="150">
+      <c r="E5" s="145">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="148">
         <v>0.28000000000000003</v>
       </c>
+      <c r="G5" s="148">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="148">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="F6" s="151">
-        <v>0.1346</v>
-      </c>
-      <c r="G6" s="151">
-        <v>0.21</v>
+      <c r="E6" s="146">
+        <v>0.46</v>
+      </c>
+      <c r="F6" s="149">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="149">
+        <v>0.27</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="172"/>
-      <c r="D7" s="145" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="148">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="F7" s="151">
-        <v>0.14580000000000001</v>
-      </c>
-      <c r="G7" s="151">
-        <v>0.44</v>
+      <c r="E7" s="146">
+        <v>0.64</v>
+      </c>
+      <c r="F7" s="149">
+        <v>0.18</v>
+      </c>
+      <c r="G7" s="149">
+        <v>0.46</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="146">
-        <v>0.317</v>
-      </c>
-      <c r="F8" s="149">
-        <v>0.17069999999999999</v>
-      </c>
-      <c r="G8" s="149">
-        <v>0.15</v>
+      <c r="E8" s="144">
+        <v>0.46</v>
+      </c>
+      <c r="F8" s="147">
+        <v>0.24</v>
+      </c>
+      <c r="G8" s="147">
+        <v>0.22</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="172"/>
-      <c r="D9" s="145" t="s">
+      <c r="C9" s="168"/>
+      <c r="D9" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="E9" s="147">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="150">
-        <v>0.24</v>
-      </c>
-      <c r="G9" s="150">
-        <v>0.26</v>
+      <c r="E9" s="145">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F9" s="148">
+        <v>0.27</v>
+      </c>
+      <c r="G9" s="148">
+        <v>0.28999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3265,11 +6006,818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0E501D-E36F-4F14-87D7-20731F77FBF1}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1">
+        <v>1999</v>
+      </c>
+      <c r="E1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1">
+        <v>1979</v>
+      </c>
+      <c r="G1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="170" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="172" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="172" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="170" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="170"/>
+      <c r="F3" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="170" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="170" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="170" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="170"/>
+      <c r="F5" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="170" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="170"/>
+      <c r="F6" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="170" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="170"/>
+      <c r="F7" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="170"/>
+      <c r="F8" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="170" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="170"/>
+      <c r="F9" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="170" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="170"/>
+      <c r="F10" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="170" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="170"/>
+      <c r="F11" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="170" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="170"/>
+      <c r="F12" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="170" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="170"/>
+      <c r="F13" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="170" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="170"/>
+      <c r="F14" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="170" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="170"/>
+      <c r="F15" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="170" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="170"/>
+      <c r="F16" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="170" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="170"/>
+      <c r="F17" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="170" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="170"/>
+      <c r="F18" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="172" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="170" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="170"/>
+      <c r="F19" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="170" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="170"/>
+      <c r="F20" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="170" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="170"/>
+      <c r="F21" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="170" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="170"/>
+      <c r="F22" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="171" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="170" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="170"/>
+      <c r="F23" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="171" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="170" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="170"/>
+      <c r="F24" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="171" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="170" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="170"/>
+      <c r="F25" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="171" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="170" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="170"/>
+      <c r="F26" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="171" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="170" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="170"/>
+      <c r="F27" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="171" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="170" t="s">
+        <v>262</v>
+      </c>
+      <c r="E28" s="170"/>
+      <c r="F28" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="171" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="170" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="170"/>
+      <c r="F29" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="170" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="170"/>
+      <c r="F30" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="171" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="170" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" s="170"/>
+      <c r="F31" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="171" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="170" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="172" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" s="172" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="171" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="170" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="170"/>
+      <c r="F33" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="170"/>
+      <c r="F34" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="171" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="170" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="170"/>
+      <c r="F35" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="171" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="170" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" s="170"/>
+      <c r="F36" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="171" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="170" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="170"/>
+      <c r="F37" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="171" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="170" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="170"/>
+      <c r="F38" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="171" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="170"/>
+      <c r="F39" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="171" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="170" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="170"/>
+      <c r="F40" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="171" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="170" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="170"/>
+      <c r="F41" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="171" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="170" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="170"/>
+      <c r="F42" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="171" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="170" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="170"/>
+      <c r="F43" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="171" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="170" t="s">
+        <v>228</v>
+      </c>
+      <c r="E44" s="170" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D45" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="170"/>
+      <c r="F45" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D46" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="170"/>
+      <c r="F46" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D47" s="170" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="170" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D48" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="170"/>
+      <c r="F48" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F49" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F50" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F51" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F52" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F53" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F54" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="170" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F55" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F56" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE669788-659D-4EAF-B36B-1819B9AB1B21}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3290,57 +6838,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
-      <c r="B4" s="164">
+      <c r="B4" s="160">
         <v>1979</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="42"/>
-      <c r="F4" s="164">
+      <c r="F4" s="160">
         <v>1999</v>
       </c>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
       <c r="I4" s="42"/>
-      <c r="J4" s="164">
+      <c r="J4" s="160">
         <v>2019</v>
       </c>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
     </row>
     <row r="5" spans="1:13" s="71" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
@@ -3377,7 +6925,7 @@
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="157" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -3412,7 +6960,7 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="162"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="54" t="s">
         <v>16</v>
       </c>
@@ -3423,14 +6971,14 @@
         <v>1E-4</v>
       </c>
       <c r="E8" s="57"/>
-      <c r="F8" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="55">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="H8" s="105">
-        <v>2.9999999999999997E-4</v>
+      <c r="F8" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="61">
+        <v>0.32</v>
+      </c>
+      <c r="H8" s="81">
+        <v>1.47E-2</v>
       </c>
       <c r="I8" s="57"/>
       <c r="J8" s="59"/>
@@ -3439,7 +6987,7 @@
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="163"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="66" t="s">
         <v>17</v>
       </c>
@@ -3447,18 +6995,12 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="D9" s="83">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E9" s="65"/>
-      <c r="F9" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="67">
-        <v>0.32</v>
-      </c>
-      <c r="H9" s="83">
-        <v>1.47E-2</v>
-      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="65"/>
       <c r="J9" s="66"/>
       <c r="K9" s="68"/>
@@ -3470,7 +7012,7 @@
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="157" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -3504,8 +7046,8 @@
       </c>
       <c r="M11" s="57"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="162"/>
+    <row r="12" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="158"/>
       <c r="B12" s="92" t="s">
         <v>22</v>
       </c>
@@ -3523,7 +7065,7 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="H12" s="105">
-        <v>1E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="I12" s="57"/>
       <c r="J12" s="79" t="s">
@@ -3533,12 +7075,12 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="L12" s="107">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="M12" s="57"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
+    <row r="13" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="158"/>
       <c r="B13" s="108" t="s">
         <v>23</v>
       </c>
@@ -3556,7 +7098,7 @@
         <v>0.39800000000000002</v>
       </c>
       <c r="H13" s="81">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="I13" s="57"/>
       <c r="J13" s="54" t="s">
@@ -3566,12 +7108,12 @@
         <v>0.32</v>
       </c>
       <c r="L13" s="109">
-        <v>1.2200000000000001E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="M13" s="57"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="162"/>
+    <row r="14" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="158"/>
       <c r="B14" s="92" t="s">
         <v>24</v>
       </c>
@@ -3579,7 +7121,7 @@
         <v>0.433</v>
       </c>
       <c r="D14" s="105">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="54" t="s">
@@ -3589,7 +7131,7 @@
         <v>0.371</v>
       </c>
       <c r="H14" s="105">
-        <v>5.4000000000000003E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I14" s="57"/>
       <c r="J14" s="59"/>
@@ -3597,16 +7139,16 @@
       <c r="L14" s="93"/>
       <c r="M14" s="57"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="162"/>
+    <row r="15" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="158"/>
       <c r="B15" s="108" t="s">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="C15" s="78">
         <v>0.33100000000000002</v>
       </c>
       <c r="D15" s="81">
-        <v>5.4000000000000003E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="E15" s="57"/>
       <c r="F15" s="57"/>
@@ -3618,266 +7160,266 @@
       <c r="L15" s="93"/>
       <c r="M15" s="57"/>
     </row>
-    <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="163"/>
-      <c r="B16" s="82" t="s">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="158"/>
+      <c r="B16" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="152">
+      <c r="C16" s="74">
         <v>0.29299999999999998</v>
       </c>
-      <c r="D16" s="153">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="96"/>
+      <c r="D16" s="105">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="93"/>
       <c r="M16" s="57"/>
     </row>
-    <row r="17" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J17" s="84"/>
+    <row r="17" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="159"/>
+      <c r="B17" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="173">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D17" s="83">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="96"/>
       <c r="M17" s="57"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="161" t="s">
+    <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="84"/>
+      <c r="M18" s="57"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B19" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C19" s="50">
         <v>0.72899999999999998</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D19" s="103">
         <v>1E-4</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="49" t="s">
+      <c r="E19" s="52"/>
+      <c r="F19" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G19" s="50">
         <v>0.81100000000000005</v>
       </c>
-      <c r="H18" s="103">
+      <c r="H19" s="103">
         <v>1E-4</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="111" t="s">
+      <c r="I19" s="52"/>
+      <c r="J19" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K19" s="50">
         <v>0.94199999999999995</v>
       </c>
-      <c r="L18" s="106">
+      <c r="L19" s="106">
         <v>1E-4</v>
       </c>
-      <c r="M18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="162"/>
-      <c r="B19" s="77" t="s">
+      <c r="M19" s="57"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="158"/>
+      <c r="B20" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C20" s="74">
         <v>0.44600000000000001</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D20" s="105">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E20" s="57"/>
+      <c r="F20" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="55">
+        <v>0.621</v>
+      </c>
+      <c r="H20" s="105">
+        <v>1E-4</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="55">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="L20" s="109">
+        <v>1E-4</v>
+      </c>
+      <c r="M20" s="57"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="158"/>
+      <c r="B21" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="78">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D21" s="81">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="60">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="H21" s="81">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="55">
-        <v>0.621</v>
-      </c>
-      <c r="H19" s="105">
+      <c r="I21" s="57"/>
+      <c r="J21" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="60">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="L21" s="93">
         <v>1E-4</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="55">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="L19" s="109">
-        <v>1E-4</v>
-      </c>
-      <c r="M19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="162"/>
-      <c r="B20" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="78">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="D20" s="81">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="60">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="H20" s="81">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="59" t="s">
+      <c r="M21" s="57"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="158"/>
+      <c r="B22" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="74">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D22" s="105">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E22" s="57"/>
+      <c r="F22" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="55">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H22" s="105">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="55">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="L22" s="109">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M22" s="57"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="158"/>
+      <c r="B23" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="78">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D23" s="81">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="60">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="H23" s="81">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="60">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="L23" s="93">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="M23" s="57"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="158"/>
+      <c r="B24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="60">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="L20" s="93">
-        <v>1E-4</v>
-      </c>
-      <c r="M20" s="57"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="162"/>
-      <c r="B21" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="74">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D21" s="105">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="55">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="H21" s="105">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="55">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="L21" s="109">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="M21" s="57"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="162"/>
-      <c r="B22" s="59" t="s">
+      <c r="C24" s="74">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D24" s="105">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="78">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="D22" s="81">
-        <v>1.12E-2</v>
-      </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="59" t="s">
+      <c r="G24" s="55">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H24" s="105">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="60">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="H22" s="81">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="60">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="L22" s="93">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="M22" s="57"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="162"/>
-      <c r="B23" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="74">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="D23" s="105">
-        <v>1.04E-2</v>
-      </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="55">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="H23" s="105">
-        <v>1E-3</v>
-      </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="55">
+      <c r="K24" s="55">
         <v>0.33400000000000002</v>
       </c>
-      <c r="L23" s="109">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="M23" s="57"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="162"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="60">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="H24" s="81">
-        <v>3.3E-3</v>
-      </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="93"/>
+      <c r="L24" s="109">
+        <v>1.5100000000000001E-2</v>
+      </c>
       <c r="M24" s="57"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="162"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="57"/>
       <c r="C25" s="60"/>
       <c r="D25" s="81"/>
       <c r="E25" s="57"/>
-      <c r="F25" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="55">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="H25" s="105">
-        <v>2.1499999999999998E-2</v>
+      <c r="F25" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="60">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="H25" s="81">
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
@@ -3886,19 +7428,19 @@
       <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="162"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="57"/>
       <c r="C26" s="60"/>
       <c r="D26" s="81"/>
       <c r="E26" s="57"/>
       <c r="F26" s="77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" s="55">
-        <v>0.27700000000000002</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="H26" s="105">
-        <v>4.8500000000000001E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
@@ -3906,48 +7448,69 @@
       <c r="L26" s="93"/>
       <c r="M26" s="57"/>
     </row>
-    <row r="27" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="163"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="110" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="158"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="55">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="H27" s="105">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="57"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="159"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="68">
+      <c r="G28" s="68">
         <v>0.27300000000000002</v>
       </c>
-      <c r="H27" s="83">
-        <v>2.92E-2</v>
-      </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="57"/>
+      <c r="H28" s="83">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A19:A28"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A11:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261D7286-BEB9-4C09-9CD9-2C7DA7A9DDE3}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3965,48 +7528,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
-      <c r="B4" s="164">
+      <c r="B4" s="160">
         <v>1979</v>
       </c>
-      <c r="C4" s="164"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="164">
+      <c r="E4" s="160">
         <v>1999</v>
       </c>
-      <c r="F4" s="164"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="42"/>
-      <c r="H4" s="164">
+      <c r="H4" s="160">
         <v>2019</v>
       </c>
-      <c r="I4" s="164"/>
+      <c r="I4" s="160"/>
     </row>
     <row r="5" spans="1:10" s="71" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
@@ -4034,7 +7597,7 @@
     </row>
     <row r="6" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="157" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -4060,7 +7623,7 @@
       <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="162"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="54" t="s">
         <v>16</v>
       </c>
@@ -4068,11 +7631,11 @@
         <v>1E-4</v>
       </c>
       <c r="D8" s="57"/>
-      <c r="E8" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="105">
-        <v>2.9999999999999997E-4</v>
+      <c r="E8" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="81">
+        <v>1.47E-2</v>
       </c>
       <c r="G8" s="57"/>
       <c r="H8" s="59"/>
@@ -4080,20 +7643,16 @@
       <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="163"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="66" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="83">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="D9" s="65"/>
-      <c r="E9" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="83">
-        <v>1.47E-2</v>
-      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="65"/>
       <c r="H9" s="66"/>
       <c r="I9" s="96"/>
@@ -4104,7 +7663,7 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="157" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -4130,7 +7689,7 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="162"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="92" t="s">
         <v>22</v>
       </c>
@@ -4142,19 +7701,19 @@
         <v>6</v>
       </c>
       <c r="F12" s="105">
-        <v>1E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="79" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="107">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="108" t="s">
         <v>23</v>
       </c>
@@ -4166,31 +7725,31 @@
         <v>20</v>
       </c>
       <c r="F13" s="81">
-        <v>1.5E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="54" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="109">
-        <v>1.2200000000000001E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="162"/>
+      <c r="A14" s="158"/>
       <c r="B14" s="92" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="105">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="54" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="105">
-        <v>5.4000000000000003E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="59"/>
@@ -4198,12 +7757,12 @@
       <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="162"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="108" t="s">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="C15" s="81">
-        <v>5.4000000000000003E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
@@ -4213,198 +7772,198 @@
       <c r="I15" s="93"/>
       <c r="J15" s="57"/>
     </row>
-    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="163"/>
-      <c r="B16" s="82" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="158"/>
+      <c r="B16" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="153">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="96"/>
+      <c r="C16" s="105">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="93"/>
       <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H17" s="84"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="83">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="96"/>
       <c r="J17" s="57"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="161" t="s">
+    <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="84"/>
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B19" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C19" s="103">
         <v>1E-4</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="49" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F19" s="103">
         <v>1E-4</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="111" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="106">
+      <c r="I19" s="106">
         <v>1E-4</v>
       </c>
-      <c r="J18" s="57"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="162"/>
-      <c r="B19" s="77" t="s">
+      <c r="J19" s="57"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="158"/>
+      <c r="B20" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="105">
+      <c r="C20" s="105">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="105">
+        <v>1E-4</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="109">
+        <v>1E-4</v>
+      </c>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="158"/>
+      <c r="B21" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="81">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="81">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="105">
+      <c r="G21" s="57"/>
+      <c r="H21" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="93">
         <v>1E-4</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="109">
-        <v>1E-4</v>
-      </c>
-      <c r="J19" s="57"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="162"/>
-      <c r="B20" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="81">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="81">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="59" t="s">
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="158"/>
+      <c r="B22" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="105">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="105">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="109">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J22" s="57"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="158"/>
+      <c r="B23" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="81">
+        <v>1.06E-2</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="81">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="93">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="J23" s="57"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="158"/>
+      <c r="B24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="93">
-        <v>1E-4</v>
-      </c>
-      <c r="J20" s="57"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="162"/>
-      <c r="B21" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="105">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="105">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="109">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="162"/>
-      <c r="B22" s="59" t="s">
+      <c r="C24" s="105">
+        <v>1.03E-2</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="81">
-        <v>1.12E-2</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="59" t="s">
+      <c r="F24" s="105">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G24" s="57"/>
+      <c r="H24" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="81">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="93">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="J22" s="57"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="162"/>
-      <c r="B23" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="105">
-        <v>1.04E-2</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="105">
-        <v>1E-3</v>
-      </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="109">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="J23" s="57"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="162"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="81">
-        <v>3.3E-3</v>
-      </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="93"/>
+      <c r="I24" s="109">
+        <v>1.5100000000000001E-2</v>
+      </c>
       <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="162"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="57"/>
       <c r="C25" s="81"/>
       <c r="D25" s="57"/>
-      <c r="E25" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="105">
-        <v>2.1499999999999998E-2</v>
+      <c r="E25" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="81">
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G25" s="57"/>
       <c r="H25" s="57"/>
@@ -4412,53 +7971,68 @@
       <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="162"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="57"/>
       <c r="C26" s="81"/>
       <c r="D26" s="57"/>
       <c r="E26" s="77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="105">
-        <v>4.8500000000000001E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="G26" s="57"/>
       <c r="H26" s="57"/>
       <c r="I26" s="93"/>
       <c r="J26" s="57"/>
     </row>
-    <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="163"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="110" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="158"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="105">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="57"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="159"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="83">
-        <v>2.92E-2</v>
-      </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="57"/>
+      <c r="F28" s="83">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A28"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC06408-95AD-42B0-8099-9871CB44C152}">
   <dimension ref="B2:M30"/>
   <sheetViews>
@@ -4487,23 +8061,23 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
-      <c r="C2" s="164">
+      <c r="C2" s="160">
         <v>1979</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="164">
+      <c r="G2" s="160">
         <v>1999</v>
       </c>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="164">
+      <c r="K2" s="160">
         <v>2019</v>
       </c>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
     </row>
     <row r="3" spans="2:13" s="42" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -4541,7 +8115,7 @@
     </row>
     <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="157" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -4575,7 +8149,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="162"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
@@ -4607,7 +8181,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="162"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="59" t="s">
         <v>17</v>
       </c>
@@ -4627,7 +8201,7 @@
       <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="163"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -4652,7 +8226,7 @@
       <c r="M9" s="72"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="157" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -4686,7 +8260,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="162"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="54" t="s">
         <v>76</v>
       </c>
@@ -4718,7 +8292,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="162"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="77" t="s">
         <v>24</v>
       </c>
@@ -4738,7 +8312,7 @@
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="162"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="77" t="s">
         <v>23</v>
       </c>
@@ -4755,10 +8329,10 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-      <c r="M13" s="155"/>
+      <c r="M13" s="151"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="162"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="77" t="s">
         <v>15</v>
       </c>
@@ -4778,7 +8352,7 @@
       <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="162"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="77" t="s">
         <v>25</v>
       </c>
@@ -4798,7 +8372,7 @@
       <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="163"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="82" t="s">
         <v>156</v>
       </c>
@@ -4829,7 +8403,7 @@
       <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="157" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -4863,7 +8437,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="162"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="77" t="s">
         <v>12</v>
       </c>
@@ -4895,7 +8469,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="162"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="59" t="s">
         <v>13</v>
       </c>
@@ -4916,7 +8490,7 @@
         <v>1E-3</v>
       </c>
       <c r="J20" s="57"/>
-      <c r="K20" s="156" t="s">
+      <c r="K20" s="152" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="60">
@@ -4927,7 +8501,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="162"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="77" t="s">
         <v>30</v>
       </c>
@@ -4959,7 +8533,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="162"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="59" t="s">
         <v>9</v>
       </c>
@@ -4991,7 +8565,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="162"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="77" t="s">
         <v>20</v>
       </c>
@@ -5023,7 +8597,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="162"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="90" t="s">
         <v>136</v>
       </c>
@@ -5055,7 +8629,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="162"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="77" t="s">
         <v>8</v>
       </c>
@@ -5066,7 +8640,7 @@
         <v>0.01</v>
       </c>
       <c r="F25" s="57"/>
-      <c r="G25" s="154" t="s">
+      <c r="G25" s="150" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="75">
@@ -5087,7 +8661,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="162"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="57"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
@@ -5107,7 +8681,7 @@
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="162"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="57"/>
       <c r="D27" s="60"/>
       <c r="E27" s="61"/>
@@ -5127,7 +8701,7 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="163"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="65"/>
       <c r="D28" s="68"/>
       <c r="E28" s="67"/>
@@ -5169,7 +8743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62900B2F-E686-4A03-B0A0-3C0B89D106DB}">
   <dimension ref="B2:M30"/>
   <sheetViews>
@@ -5198,23 +8772,23 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
-      <c r="C2" s="164">
+      <c r="C2" s="160">
         <v>1979</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="164">
+      <c r="G2" s="160">
         <v>1999</v>
       </c>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="164">
+      <c r="K2" s="160">
         <v>2019</v>
       </c>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
     </row>
     <row r="3" spans="2:13" s="42" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -5239,7 +8813,7 @@
       <c r="I3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="160"/>
+      <c r="J3" s="156"/>
       <c r="K3" s="45" t="s">
         <v>2</v>
       </c>
@@ -5252,7 +8826,7 @@
     </row>
     <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="157" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -5286,7 +8860,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="162"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
@@ -5318,7 +8892,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="162"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="59" t="s">
         <v>17</v>
       </c>
@@ -5338,7 +8912,7 @@
       <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="163"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -5363,7 +8937,7 @@
       <c r="M9" s="72"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="161" t="s">
+      <c r="B10" s="157" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -5397,7 +8971,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="162"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="54" t="s">
         <v>76</v>
       </c>
@@ -5429,7 +9003,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="162"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="77" t="s">
         <v>24</v>
       </c>
@@ -5449,7 +9023,7 @@
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="162"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="77" t="s">
         <v>23</v>
       </c>
@@ -5466,10 +9040,10 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-      <c r="M13" s="155"/>
+      <c r="M13" s="151"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="162"/>
+      <c r="B14" s="158"/>
       <c r="C14" s="77" t="s">
         <v>15</v>
       </c>
@@ -5489,7 +9063,7 @@
       <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="162"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="77" t="s">
         <v>25</v>
       </c>
@@ -5509,7 +9083,7 @@
       <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="163"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="82" t="s">
         <v>156</v>
       </c>
@@ -5540,7 +9114,7 @@
       <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="157" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -5574,7 +9148,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="162"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="77" t="s">
         <v>12</v>
       </c>
@@ -5606,7 +9180,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="162"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="59" t="s">
         <v>13</v>
       </c>
@@ -5627,7 +9201,7 @@
         <v>1E-3</v>
       </c>
       <c r="J20" s="57"/>
-      <c r="K20" s="156" t="s">
+      <c r="K20" s="152" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="60">
@@ -5638,7 +9212,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="162"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="77" t="s">
         <v>30</v>
       </c>
@@ -5670,7 +9244,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="162"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="59" t="s">
         <v>9</v>
       </c>
@@ -5702,7 +9276,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="162"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="77" t="s">
         <v>20</v>
       </c>
@@ -5734,7 +9308,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="162"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="90" t="s">
         <v>136</v>
       </c>
@@ -5766,7 +9340,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="162"/>
+      <c r="B25" s="158"/>
       <c r="C25" s="77" t="s">
         <v>8</v>
       </c>
@@ -5777,7 +9351,7 @@
         <v>0.01</v>
       </c>
       <c r="F25" s="57"/>
-      <c r="G25" s="154" t="s">
+      <c r="G25" s="150" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="75">
@@ -5798,7 +9372,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="162"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="57"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
@@ -5818,7 +9392,7 @@
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="162"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="57"/>
       <c r="D27" s="60"/>
       <c r="E27" s="61"/>
@@ -5838,7 +9412,7 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="163"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="65"/>
       <c r="D28" s="68"/>
       <c r="E28" s="67"/>
@@ -5865,19 +9439,19 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B18:B28"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B18:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D15F2D-4AE0-489C-A1F4-3662898A0655}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -6019,13 +9593,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53FF8D7-529C-4C93-8B37-0AFD4286268E}">
   <dimension ref="B1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6042,68 +9616,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="165" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="J1" s="168" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="J1" s="164" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="R1" s="168" t="s">
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="R1" s="164" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
     </row>
     <row r="2" spans="2:24" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="43"/>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="166"/>
+      <c r="D2" s="162"/>
       <c r="E2" s="113"/>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="K2" s="167" t="s">
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="K2" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="167"/>
+      <c r="L2" s="163"/>
       <c r="M2" s="43"/>
-      <c r="N2" s="167" t="s">
+      <c r="N2" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
-      <c r="S2" s="167" t="s">
+      <c r="S2" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="167"/>
+      <c r="T2" s="163"/>
       <c r="U2" s="43"/>
-      <c r="V2" s="167" t="s">
+      <c r="V2" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
     </row>
     <row r="3" spans="2:24" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
@@ -6201,31 +9775,33 @@
       <c r="F5" s="117">
         <v>8.74</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="120">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H5" s="140">
+      <c r="H5" s="120">
         <v>3.89</v>
       </c>
-      <c r="J5" s="116">
+      <c r="I5" s="132"/>
+      <c r="J5" s="133">
         <v>1979</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="74">
         <v>18</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="74">
         <v>32.299999999999997</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="117">
+      <c r="M5" s="78"/>
+      <c r="N5" s="120">
         <v>10.673</v>
       </c>
-      <c r="O5" s="117">
+      <c r="O5" s="120">
         <v>2.335</v>
       </c>
-      <c r="P5" s="140">
+      <c r="P5" s="120">
         <v>3.0260000000000002</v>
       </c>
+      <c r="Q5" s="132"/>
       <c r="R5" s="116">
         <v>1979</v>
       </c>
@@ -6260,31 +9836,33 @@
       <c r="F6" s="118">
         <v>8.26</v>
       </c>
-      <c r="G6" s="118">
+      <c r="G6" s="136">
         <v>1.98</v>
       </c>
-      <c r="H6" s="141">
+      <c r="H6" s="136">
         <v>4.24</v>
       </c>
-      <c r="J6" s="43">
+      <c r="I6" s="132"/>
+      <c r="J6" s="137">
         <v>1999</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="135">
         <v>18</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="134">
         <v>31.6</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="118">
+      <c r="M6" s="78"/>
+      <c r="N6" s="136">
         <v>8.3070000000000004</v>
       </c>
-      <c r="O6" s="118">
+      <c r="O6" s="136">
         <v>1.9750000000000001</v>
       </c>
-      <c r="P6" s="141">
+      <c r="P6" s="136">
         <v>3.8069999999999999</v>
       </c>
+      <c r="Q6" s="132"/>
       <c r="R6" s="43">
         <v>1999</v>
       </c>
@@ -6301,7 +9879,7 @@
       <c r="W6" s="127">
         <v>1.8649999999999998</v>
       </c>
-      <c r="X6" s="142">
+      <c r="X6" s="141">
         <v>3.378000000000001</v>
       </c>
     </row>
@@ -6319,31 +9897,33 @@
       <c r="F7" s="117">
         <v>7.89</v>
       </c>
-      <c r="G7" s="117">
+      <c r="G7" s="120">
         <v>2.69</v>
       </c>
-      <c r="H7" s="140">
+      <c r="H7" s="120">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J7" s="116">
+      <c r="I7" s="132"/>
+      <c r="J7" s="133">
         <v>2019</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="74">
         <v>18</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="74">
         <v>30.8</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="117">
+      <c r="M7" s="78"/>
+      <c r="N7" s="120">
         <v>8.1840000000000011</v>
       </c>
-      <c r="O7" s="117">
+      <c r="O7" s="120">
         <v>2.5090000000000003</v>
       </c>
-      <c r="P7" s="140">
+      <c r="P7" s="120">
         <v>3.7650000000000006</v>
       </c>
+      <c r="Q7" s="132"/>
       <c r="R7" s="116">
         <v>2019</v>
       </c>
@@ -6370,8 +9950,17 @@
       <c r="D8" s="43"/>
       <c r="E8" s="57"/>
       <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="43"/>
       <c r="S8" s="71"/>
       <c r="T8" s="71"/>
@@ -6388,17 +9977,19 @@
       <c r="D9" s="43"/>
       <c r="E9" s="57"/>
       <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="J9" s="42" t="s">
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="132"/>
       <c r="R9" s="42" t="s">
         <v>37</v>
       </c>
@@ -6417,17 +10008,17 @@
         <v>29</v>
       </c>
       <c r="D10" s="55">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="60"/>
       <c r="F10" s="117">
-        <v>12.83</v>
+        <v>10.83</v>
       </c>
       <c r="G10" s="117">
         <v>3.87</v>
       </c>
       <c r="H10" s="117">
-        <v>3.66</v>
+        <v>4.16</v>
       </c>
       <c r="J10" s="116">
         <v>1979</v>
@@ -6618,16 +10209,18 @@
       <c r="E14" s="57"/>
       <c r="F14" s="119"/>
       <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="J14" s="42" t="s">
+      <c r="H14" s="174"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="132"/>
       <c r="R14" s="42" t="s">
         <v>38</v>
       </c>
@@ -6646,20 +10239,20 @@
         <v>19</v>
       </c>
       <c r="D15" s="74">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="78"/>
       <c r="F15" s="120">
-        <v>12.84</v>
+        <v>10.84</v>
       </c>
       <c r="G15" s="120">
         <v>3.61</v>
       </c>
-      <c r="H15" s="140">
-        <v>2.4900000000000002</v>
+      <c r="H15" s="120">
+        <v>2.77</v>
       </c>
       <c r="I15" s="132"/>
-      <c r="J15" s="116">
+      <c r="J15" s="133">
         <v>1979</v>
       </c>
       <c r="K15" s="74">
@@ -6675,7 +10268,7 @@
       <c r="O15" s="120">
         <v>3.63</v>
       </c>
-      <c r="P15" s="140">
+      <c r="P15" s="120">
         <v>2.4710000000000001</v>
       </c>
       <c r="Q15" s="132"/>
@@ -6716,11 +10309,11 @@
       <c r="G16" s="136">
         <v>2.92</v>
       </c>
-      <c r="H16" s="141">
+      <c r="H16" s="136">
         <v>3.13</v>
       </c>
       <c r="I16" s="132"/>
-      <c r="J16" s="43">
+      <c r="J16" s="137">
         <v>1999</v>
       </c>
       <c r="K16" s="135">
@@ -6736,7 +10329,7 @@
       <c r="O16" s="136">
         <v>2.9200000000000004</v>
       </c>
-      <c r="P16" s="141">
+      <c r="P16" s="136">
         <v>3.1299999999999994</v>
       </c>
       <c r="Q16" s="132"/>
@@ -6756,7 +10349,7 @@
       <c r="W16" s="138">
         <v>3.181</v>
       </c>
-      <c r="X16" s="142">
+      <c r="X16" s="141">
         <v>2.8579999999999997</v>
       </c>
     </row>
@@ -6777,11 +10370,11 @@
       <c r="G17" s="120">
         <v>1.9</v>
       </c>
-      <c r="H17" s="140">
+      <c r="H17" s="120">
         <v>3.25</v>
       </c>
       <c r="I17" s="132"/>
-      <c r="J17" s="116">
+      <c r="J17" s="133">
         <v>2019</v>
       </c>
       <c r="K17" s="74">
@@ -6797,7 +10390,7 @@
       <c r="O17" s="120">
         <v>1.9009999999999998</v>
       </c>
-      <c r="P17" s="140">
+      <c r="P17" s="120">
         <v>2.9850000000000003</v>
       </c>
       <c r="Q17" s="132"/>
@@ -6828,14 +10421,16 @@
       <c r="E18" s="57"/>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="132"/>
       <c r="R18" s="43"/>
       <c r="S18" s="71"/>
       <c r="T18" s="71"/>
@@ -6853,16 +10448,18 @@
       <c r="E19" s="57"/>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="J19" s="42" t="s">
+      <c r="H19" s="137"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="132"/>
       <c r="R19" s="42" t="s">
         <v>47</v>
       </c>
@@ -6890,28 +10487,30 @@
       <c r="G20" s="120">
         <v>3.41</v>
       </c>
-      <c r="H20" s="140">
+      <c r="H20" s="120">
         <v>4.82</v>
       </c>
-      <c r="J20" s="116">
+      <c r="I20" s="132"/>
+      <c r="J20" s="133">
         <v>1979</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="74">
         <v>54</v>
       </c>
-      <c r="L20" s="55">
+      <c r="L20" s="74">
         <v>47.6</v>
       </c>
-      <c r="M20" s="57"/>
+      <c r="M20" s="176"/>
       <c r="N20" s="120">
         <v>12.153</v>
       </c>
       <c r="O20" s="120">
         <v>3.4850000000000003</v>
       </c>
-      <c r="P20" s="140">
+      <c r="P20" s="120">
         <v>3.9169999999999994</v>
       </c>
+      <c r="Q20" s="132"/>
       <c r="R20" s="116">
         <v>1979</v>
       </c>
@@ -6949,28 +10548,30 @@
       <c r="G21" s="121">
         <v>3.3</v>
       </c>
-      <c r="H21" s="143">
+      <c r="H21" s="121">
         <v>4.71</v>
       </c>
-      <c r="J21" s="43">
+      <c r="I21" s="132"/>
+      <c r="J21" s="137">
         <v>1999</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="135">
         <v>54</v>
       </c>
-      <c r="L21" s="71">
+      <c r="L21" s="134">
         <v>42.1</v>
       </c>
-      <c r="M21" s="57"/>
+      <c r="M21" s="176"/>
       <c r="N21" s="121">
         <v>10.023</v>
       </c>
       <c r="O21" s="121">
         <v>3.351</v>
       </c>
-      <c r="P21" s="143">
+      <c r="P21" s="121">
         <v>4.218</v>
       </c>
+      <c r="Q21" s="132"/>
       <c r="R21" s="43">
         <v>1999</v>
       </c>
@@ -6987,7 +10588,7 @@
       <c r="W21" s="127">
         <v>3.2749999999999999</v>
       </c>
-      <c r="X21" s="142">
+      <c r="X21" s="141">
         <v>4.1420000000000003</v>
       </c>
     </row>
@@ -6999,37 +10600,39 @@
         <v>74</v>
       </c>
       <c r="D22" s="55">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="57"/>
       <c r="F22" s="120">
-        <v>8.36</v>
+        <v>9.36</v>
       </c>
       <c r="G22" s="120">
         <v>3.03</v>
       </c>
-      <c r="H22" s="140">
-        <v>5.14</v>
-      </c>
-      <c r="J22" s="116">
+      <c r="H22" s="120">
+        <v>4.7</v>
+      </c>
+      <c r="I22" s="132"/>
+      <c r="J22" s="133">
         <v>2019</v>
       </c>
-      <c r="K22" s="55">
+      <c r="K22" s="74">
         <v>54</v>
       </c>
-      <c r="L22" s="55">
+      <c r="L22" s="74">
         <v>41.7</v>
       </c>
-      <c r="M22" s="57"/>
+      <c r="M22" s="176"/>
       <c r="N22" s="120">
         <v>8.1770000000000014</v>
       </c>
       <c r="O22" s="120">
         <v>3.0749999999999997</v>
       </c>
-      <c r="P22" s="140">
+      <c r="P22" s="120">
         <v>5.1010000000000009</v>
       </c>
+      <c r="Q22" s="132"/>
       <c r="R22" s="116">
         <v>2019</v>
       </c>
@@ -7071,7 +10674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F62766-8C1A-4137-83E0-B0B1E504131D}">
   <dimension ref="A1:X60"/>
   <sheetViews>
@@ -7100,34 +10703,34 @@
       <c r="A4" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="170">
+      <c r="B4" s="166">
         <v>1979</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="G4" s="170">
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="G4" s="166">
         <v>1999</v>
       </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="L4" s="170">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="L4" s="166">
         <v>2019</v>
       </c>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="S4" s="166" t="s">
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="S4" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="166"/>
+      <c r="T4" s="162"/>
       <c r="U4" s="113"/>
-      <c r="V4" s="166" t="s">
+      <c r="V4" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="162"/>
     </row>
     <row r="5" spans="1:24" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
@@ -7897,24 +11500,24 @@
       <c r="A19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="170">
+      <c r="B19" s="166">
         <v>1979</v>
       </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="G19" s="170">
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="G19" s="166">
         <v>1999</v>
       </c>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="L19" s="170">
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="L19" s="166">
         <v>2019</v>
       </c>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
       <c r="R19" s="116">
         <v>2019</v>
       </c>
@@ -8499,24 +12102,24 @@
       <c r="A34" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="170">
+      <c r="B34" s="166">
         <v>1979</v>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="G34" s="170">
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="G34" s="166">
         <v>1999</v>
       </c>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="L34" s="170">
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
+      <c r="L34" s="166">
         <v>2019</v>
       </c>
-      <c r="M34" s="170"/>
-      <c r="N34" s="170"/>
-      <c r="O34" s="170"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166"/>
+      <c r="O34" s="166"/>
     </row>
     <row r="35" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
@@ -9009,24 +12612,24 @@
       <c r="A49" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="170">
+      <c r="B49" s="166">
         <v>1979</v>
       </c>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="G49" s="170">
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="G49" s="166">
         <v>1999</v>
       </c>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
-      <c r="J49" s="170"/>
-      <c r="L49" s="170">
+      <c r="H49" s="166"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="166"/>
+      <c r="L49" s="166">
         <v>2019</v>
       </c>
-      <c r="M49" s="170"/>
-      <c r="N49" s="170"/>
-      <c r="O49" s="170"/>
+      <c r="M49" s="166"/>
+      <c r="N49" s="166"/>
+      <c r="O49" s="166"/>
     </row>
     <row r="50" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
@@ -9521,2472 +13124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2E5AD5-9603-4937-A6C5-8CB56B67A804}">
-  <dimension ref="A1:X60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:X24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="18" max="18" width="11.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="122"/>
-      <c r="R3" s="123" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="123" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="170">
-        <v>1979</v>
-      </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="G4" s="170">
-        <v>1999</v>
-      </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="L4" s="170">
-        <v>2019</v>
-      </c>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="S4" s="166" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="166"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="166" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-    </row>
-    <row r="5" spans="1:24" ht="39" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="L5" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="N5" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="113"/>
-      <c r="V5" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="W5" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="X5" s="114" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="70">
-        <v>1</v>
-      </c>
-      <c r="B6" s="71">
-        <v>31</v>
-      </c>
-      <c r="C6" s="127">
-        <v>10.28</v>
-      </c>
-      <c r="D6" s="127">
-        <v>2.42</v>
-      </c>
-      <c r="E6" s="127">
-        <v>3.02</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="71">
-        <v>30</v>
-      </c>
-      <c r="H6" s="127">
-        <v>7.67</v>
-      </c>
-      <c r="I6" s="127">
-        <v>1.71</v>
-      </c>
-      <c r="J6" s="127">
-        <v>3.91</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="71">
-        <v>34</v>
-      </c>
-      <c r="M6" s="127">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="N6" s="127">
-        <v>2.96</v>
-      </c>
-      <c r="O6" s="127">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="R6" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="124">
-        <v>2</v>
-      </c>
-      <c r="B7" s="55">
-        <v>33</v>
-      </c>
-      <c r="C7" s="117">
-        <v>10.78</v>
-      </c>
-      <c r="D7" s="117">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="E7" s="117">
-        <v>3.06</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="55">
-        <v>30</v>
-      </c>
-      <c r="H7" s="117">
-        <v>8.56</v>
-      </c>
-      <c r="I7" s="117">
-        <v>2.06</v>
-      </c>
-      <c r="J7" s="117">
-        <v>3.51</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="55">
-        <v>31</v>
-      </c>
-      <c r="M7" s="117">
-        <v>7.89</v>
-      </c>
-      <c r="N7" s="117">
-        <v>2.78</v>
-      </c>
-      <c r="O7" s="117">
-        <v>3.93</v>
-      </c>
-      <c r="R7" s="116">
-        <v>1979</v>
-      </c>
-      <c r="S7" s="55">
-        <v>18</v>
-      </c>
-      <c r="T7" s="55">
-        <f>AVERAGE(B6:B15)</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="U7" s="60"/>
-      <c r="V7" s="117">
-        <f>AVERAGE(C6:C15)</f>
-        <v>10.673</v>
-      </c>
-      <c r="W7" s="117">
-        <f t="shared" ref="W7:X7" si="0">AVERAGE(D6:D15)</f>
-        <v>2.335</v>
-      </c>
-      <c r="X7" s="117">
-        <f t="shared" si="0"/>
-        <v>3.0260000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="70">
-        <v>3</v>
-      </c>
-      <c r="B8" s="71">
-        <v>29</v>
-      </c>
-      <c r="C8" s="118">
-        <v>10.28</v>
-      </c>
-      <c r="D8" s="118">
-        <v>2.27</v>
-      </c>
-      <c r="E8" s="118">
-        <v>2.82</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="71">
-        <v>33</v>
-      </c>
-      <c r="H8" s="118">
-        <v>8.56</v>
-      </c>
-      <c r="I8" s="118">
-        <v>2.06</v>
-      </c>
-      <c r="J8" s="118">
-        <v>3.86</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="71">
-        <v>29</v>
-      </c>
-      <c r="M8" s="118">
-        <v>7.83</v>
-      </c>
-      <c r="N8" s="118">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="O8" s="118">
-        <v>3.7</v>
-      </c>
-      <c r="R8" s="43">
-        <v>1999</v>
-      </c>
-      <c r="S8" s="55">
-        <v>18</v>
-      </c>
-      <c r="T8" s="71">
-        <f>AVERAGE(G6:G15)</f>
-        <v>31.6</v>
-      </c>
-      <c r="U8" s="60"/>
-      <c r="V8" s="118">
-        <f>AVERAGE(H6:H15)</f>
-        <v>8.3070000000000004</v>
-      </c>
-      <c r="W8" s="118">
-        <f t="shared" ref="W8:X8" si="1">AVERAGE(I6:I15)</f>
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="X8" s="118">
-        <f t="shared" si="1"/>
-        <v>3.8069999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="124">
-        <v>4</v>
-      </c>
-      <c r="B9" s="55">
-        <v>32</v>
-      </c>
-      <c r="C9" s="117">
-        <v>10.83</v>
-      </c>
-      <c r="D9" s="117">
-        <v>2.62</v>
-      </c>
-      <c r="E9" s="117">
-        <v>2.95</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="55">
-        <v>32</v>
-      </c>
-      <c r="H9" s="117">
-        <v>8.33</v>
-      </c>
-      <c r="I9" s="117">
-        <v>1.78</v>
-      </c>
-      <c r="J9" s="117">
-        <v>3.84</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="55">
-        <v>32</v>
-      </c>
-      <c r="M9" s="117">
-        <v>8</v>
-      </c>
-      <c r="N9" s="117">
-        <v>2.7</v>
-      </c>
-      <c r="O9" s="117">
-        <v>4</v>
-      </c>
-      <c r="R9" s="116">
-        <v>2019</v>
-      </c>
-      <c r="S9" s="55">
-        <v>18</v>
-      </c>
-      <c r="T9" s="55">
-        <f>AVERAGE(L6:L15)</f>
-        <v>30.8</v>
-      </c>
-      <c r="U9" s="60"/>
-      <c r="V9" s="117">
-        <f>AVERAGE(M6:M15)</f>
-        <v>8.1840000000000011</v>
-      </c>
-      <c r="W9" s="117">
-        <f>AVERAGE(N6:N15)</f>
-        <v>2.5090000000000003</v>
-      </c>
-      <c r="X9" s="117">
-        <f>AVERAGE(O6:O15)</f>
-        <v>3.7650000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="70">
-        <v>5</v>
-      </c>
-      <c r="B10" s="71">
-        <v>34</v>
-      </c>
-      <c r="C10" s="127">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="D10" s="127">
-        <v>2.71</v>
-      </c>
-      <c r="E10" s="127">
-        <v>3.33</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="71">
-        <v>32</v>
-      </c>
-      <c r="H10" s="127">
-        <v>8.06</v>
-      </c>
-      <c r="I10" s="127">
-        <v>1.89</v>
-      </c>
-      <c r="J10" s="127">
-        <v>3.97</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="71">
-        <v>31</v>
-      </c>
-      <c r="M10" s="127">
-        <v>8.61</v>
-      </c>
-      <c r="N10" s="127">
-        <v>2.75</v>
-      </c>
-      <c r="O10" s="127">
-        <v>3.6</v>
-      </c>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="124">
-        <v>6</v>
-      </c>
-      <c r="B11" s="55">
-        <v>32</v>
-      </c>
-      <c r="C11" s="117">
-        <v>10.67</v>
-      </c>
-      <c r="D11" s="117">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="E11" s="117">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="55">
-        <v>31</v>
-      </c>
-      <c r="H11" s="117">
-        <v>8.06</v>
-      </c>
-      <c r="I11" s="117">
-        <v>2.1</v>
-      </c>
-      <c r="J11" s="117">
-        <v>3.85</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="55">
-        <v>28</v>
-      </c>
-      <c r="M11" s="117">
-        <v>8.06</v>
-      </c>
-      <c r="N11" s="117">
-        <v>2.34</v>
-      </c>
-      <c r="O11" s="117">
-        <v>3.48</v>
-      </c>
-      <c r="R11" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="119"/>
-      <c r="W11" s="119"/>
-      <c r="X11" s="119"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="70">
-        <v>7</v>
-      </c>
-      <c r="B12" s="55">
-        <v>35</v>
-      </c>
-      <c r="C12" s="117">
-        <v>11.22</v>
-      </c>
-      <c r="D12" s="117">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="E12" s="117">
-        <v>3.12</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="41">
-        <v>34</v>
-      </c>
-      <c r="H12" s="118">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="I12" s="118">
-        <v>1.93</v>
-      </c>
-      <c r="J12" s="118">
-        <v>3.9</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="41">
-        <v>33</v>
-      </c>
-      <c r="M12" s="118">
-        <v>8.17</v>
-      </c>
-      <c r="N12" s="118">
-        <v>2.41</v>
-      </c>
-      <c r="O12" s="118">
-        <v>4.04</v>
-      </c>
-      <c r="R12" s="116">
-        <v>1979</v>
-      </c>
-      <c r="S12" s="55">
-        <v>18</v>
-      </c>
-      <c r="T12" s="55">
-        <f>AVERAGE(B21:B30)</f>
-        <v>43.3</v>
-      </c>
-      <c r="U12" s="60"/>
-      <c r="V12" s="117">
-        <f>AVERAGE(C21:C30)</f>
-        <v>12.960999999999999</v>
-      </c>
-      <c r="W12" s="117">
-        <f t="shared" ref="W12:X12" si="2">AVERAGE(D21:D30)</f>
-        <v>3.9079999999999999</v>
-      </c>
-      <c r="X12" s="117">
-        <f t="shared" si="2"/>
-        <v>3.347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="124">
-        <v>8</v>
-      </c>
-      <c r="B13" s="55">
-        <v>34</v>
-      </c>
-      <c r="C13" s="117">
-        <v>11</v>
-      </c>
-      <c r="D13" s="117">
-        <v>2.4</v>
-      </c>
-      <c r="E13" s="117">
-        <v>3.09</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="71">
-        <v>31</v>
-      </c>
-      <c r="H13" s="118">
-        <v>8.33</v>
-      </c>
-      <c r="I13" s="118">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="J13" s="118">
-        <v>3.72</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="71">
-        <v>26</v>
-      </c>
-      <c r="M13" s="118">
-        <v>8.06</v>
-      </c>
-      <c r="N13" s="118">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="O13" s="118">
-        <v>3.23</v>
-      </c>
-      <c r="R13" s="43">
-        <v>1999</v>
-      </c>
-      <c r="S13" s="55">
-        <v>18</v>
-      </c>
-      <c r="T13" s="71">
-        <f>AVERAGE(G21:G30)</f>
-        <v>36.4</v>
-      </c>
-      <c r="U13" s="60"/>
-      <c r="V13" s="118">
-        <f>AVERAGE(H21:H30)</f>
-        <v>9.7219999999999995</v>
-      </c>
-      <c r="W13" s="118">
-        <f t="shared" ref="W13:X13" si="3">AVERAGE(I21:I30)</f>
-        <v>3.9189999999999996</v>
-      </c>
-      <c r="X13" s="118">
-        <f t="shared" si="3"/>
-        <v>3.7600000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="70">
-        <v>9</v>
-      </c>
-      <c r="B14" s="55">
-        <v>34</v>
-      </c>
-      <c r="C14" s="117">
-        <v>11.39</v>
-      </c>
-      <c r="D14" s="117">
-        <v>2.12</v>
-      </c>
-      <c r="E14" s="117">
-        <v>2.99</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="75">
-        <v>31</v>
-      </c>
-      <c r="H14" s="126">
-        <v>8.56</v>
-      </c>
-      <c r="I14" s="126">
-        <v>1.95</v>
-      </c>
-      <c r="J14" s="126">
-        <v>3.62</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="75">
-        <v>30</v>
-      </c>
-      <c r="M14" s="126">
-        <v>8</v>
-      </c>
-      <c r="N14" s="126">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="O14" s="126">
-        <v>3.75</v>
-      </c>
-      <c r="R14" s="116">
-        <v>2019</v>
-      </c>
-      <c r="S14" s="55">
-        <v>18</v>
-      </c>
-      <c r="T14" s="55">
-        <f>AVERAGE(L21:L30)</f>
-        <v>27</v>
-      </c>
-      <c r="U14" s="60"/>
-      <c r="V14" s="117">
-        <f>AVERAGE(M21:M30)</f>
-        <v>5.8299999999999992</v>
-      </c>
-      <c r="W14" s="117">
-        <f t="shared" ref="W14:X14" si="4">AVERAGE(N21:N30)</f>
-        <v>2.7899999999999996</v>
-      </c>
-      <c r="X14" s="117">
-        <f t="shared" si="4"/>
-        <v>4.6300000000000008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="124">
-        <v>10</v>
-      </c>
-      <c r="B15" s="55">
-        <v>29</v>
-      </c>
-      <c r="C15" s="117">
-        <v>10.06</v>
-      </c>
-      <c r="D15" s="117">
-        <v>1.89</v>
-      </c>
-      <c r="E15" s="117">
-        <v>2.88</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="55">
-        <v>32</v>
-      </c>
-      <c r="H15" s="117">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="I15" s="117">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J15" s="117">
-        <v>3.89</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="55">
-        <v>34</v>
-      </c>
-      <c r="M15" s="117">
-        <v>9</v>
-      </c>
-      <c r="N15" s="117">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O15" s="117">
-        <v>3.78</v>
-      </c>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="115"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="R16" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="R17" s="116">
-        <v>1979</v>
-      </c>
-      <c r="S17" s="55">
-        <v>18</v>
-      </c>
-      <c r="T17" s="55">
-        <f>AVERAGE(B36:B45)</f>
-        <v>31.7</v>
-      </c>
-      <c r="U17" s="60"/>
-      <c r="V17" s="117">
-        <f>AVERAGE(C36:C45)</f>
-        <v>12.827999999999999</v>
-      </c>
-      <c r="W17" s="117">
-        <f t="shared" ref="W17:X17" si="5">AVERAGE(D36:D45)</f>
-        <v>3.63</v>
-      </c>
-      <c r="X17" s="117">
-        <f t="shared" si="5"/>
-        <v>2.4710000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="R18" s="43">
-        <v>1999</v>
-      </c>
-      <c r="S18" s="55">
-        <v>18</v>
-      </c>
-      <c r="T18" s="71">
-        <f>AVERAGE(G36:G45)</f>
-        <v>36</v>
-      </c>
-      <c r="U18" s="60"/>
-      <c r="V18" s="118">
-        <f>AVERAGE(H36:H45)</f>
-        <v>11.5</v>
-      </c>
-      <c r="W18" s="118">
-        <f t="shared" ref="W18:X18" si="6">AVERAGE(I36:I45)</f>
-        <v>2.9200000000000004</v>
-      </c>
-      <c r="X18" s="118">
-        <f t="shared" si="6"/>
-        <v>3.1299999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="123" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="170">
-        <v>1979</v>
-      </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="G19" s="170">
-        <v>1999</v>
-      </c>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="L19" s="170">
-        <v>2019</v>
-      </c>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="R19" s="116">
-        <v>2019</v>
-      </c>
-      <c r="S19" s="55">
-        <v>18</v>
-      </c>
-      <c r="T19" s="55">
-        <f>AVERAGE(L36:L45)</f>
-        <v>31.4</v>
-      </c>
-      <c r="U19" s="60"/>
-      <c r="V19" s="117">
-        <f>AVERAGE(M36:M45)</f>
-        <v>10.516999999999999</v>
-      </c>
-      <c r="W19" s="117">
-        <f t="shared" ref="W19:X19" si="7">AVERAGE(N36:N45)</f>
-        <v>1.9009999999999998</v>
-      </c>
-      <c r="X19" s="117">
-        <f t="shared" si="7"/>
-        <v>2.9850000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="39" x14ac:dyDescent="0.35">
-      <c r="A20" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="G20" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="I20" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="N20" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A21" s="70">
-        <v>1</v>
-      </c>
-      <c r="B21" s="71">
-        <v>44</v>
-      </c>
-      <c r="C21" s="127">
-        <v>13.67</v>
-      </c>
-      <c r="D21" s="127">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="E21" s="127">
-        <v>3.22</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="71">
-        <v>35</v>
-      </c>
-      <c r="H21" s="127">
-        <v>10.61</v>
-      </c>
-      <c r="I21" s="127">
-        <v>3.6</v>
-      </c>
-      <c r="J21" s="127">
-        <v>3.3</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="71">
-        <v>27</v>
-      </c>
-      <c r="M21" s="127">
-        <v>5.83</v>
-      </c>
-      <c r="N21" s="127">
-        <v>2.79</v>
-      </c>
-      <c r="O21" s="127">
-        <v>4.63</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="124">
-        <v>2</v>
-      </c>
-      <c r="B22" s="55">
-        <v>44</v>
-      </c>
-      <c r="C22" s="117">
-        <v>13.61</v>
-      </c>
-      <c r="D22" s="117">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E22" s="117">
-        <v>3.23</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="55">
-        <v>37</v>
-      </c>
-      <c r="H22" s="117">
-        <v>10.28</v>
-      </c>
-      <c r="I22" s="117">
-        <v>3.82</v>
-      </c>
-      <c r="J22" s="117">
-        <v>3.6</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="55">
-        <v>27</v>
-      </c>
-      <c r="M22" s="117">
-        <v>5.83</v>
-      </c>
-      <c r="N22" s="117">
-        <v>2.79</v>
-      </c>
-      <c r="O22" s="117">
-        <v>4.63</v>
-      </c>
-      <c r="R22" s="116">
-        <v>1979</v>
-      </c>
-      <c r="S22" s="55">
-        <v>54</v>
-      </c>
-      <c r="T22" s="55">
-        <f>AVERAGE(B51:B60)</f>
-        <v>47.6</v>
-      </c>
-      <c r="U22" s="57"/>
-      <c r="V22" s="120">
-        <f>AVERAGE(C51:C60)</f>
-        <v>12.153</v>
-      </c>
-      <c r="W22" s="120">
-        <f t="shared" ref="W22:X22" si="8">AVERAGE(D51:D60)</f>
-        <v>3.4850000000000003</v>
-      </c>
-      <c r="X22" s="120">
-        <f t="shared" si="8"/>
-        <v>3.9169999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A23" s="70">
-        <v>3</v>
-      </c>
-      <c r="B23" s="71">
-        <v>43</v>
-      </c>
-      <c r="C23" s="118">
-        <v>12.89</v>
-      </c>
-      <c r="D23" s="118">
-        <v>3.88</v>
-      </c>
-      <c r="E23" s="118">
-        <v>3.34</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="71">
-        <v>36</v>
-      </c>
-      <c r="H23" s="118">
-        <v>9.83</v>
-      </c>
-      <c r="I23" s="118">
-        <v>3.79</v>
-      </c>
-      <c r="J23" s="118">
-        <v>3.66</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="71">
-        <v>27</v>
-      </c>
-      <c r="M23" s="127">
-        <v>5.83</v>
-      </c>
-      <c r="N23" s="127">
-        <v>2.79</v>
-      </c>
-      <c r="O23" s="127">
-        <v>4.63</v>
-      </c>
-      <c r="R23" s="43">
-        <v>1999</v>
-      </c>
-      <c r="S23" s="55">
-        <v>54</v>
-      </c>
-      <c r="T23" s="71">
-        <f>AVERAGE(G51:G60)</f>
-        <v>42.1</v>
-      </c>
-      <c r="U23" s="57"/>
-      <c r="V23" s="121">
-        <f>AVERAGE(H51:H60)</f>
-        <v>10.023</v>
-      </c>
-      <c r="W23" s="121">
-        <f t="shared" ref="W23:X23" si="9">AVERAGE(I51:I60)</f>
-        <v>3.351</v>
-      </c>
-      <c r="X23" s="121">
-        <f t="shared" si="9"/>
-        <v>4.218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="124">
-        <v>4</v>
-      </c>
-      <c r="B24" s="55">
-        <v>43</v>
-      </c>
-      <c r="C24" s="117">
-        <v>12</v>
-      </c>
-      <c r="D24" s="117">
-        <v>3.55</v>
-      </c>
-      <c r="E24" s="117">
-        <v>3.58</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="55">
-        <v>36</v>
-      </c>
-      <c r="H24" s="117">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="I24" s="117">
-        <v>3.93</v>
-      </c>
-      <c r="J24" s="117">
-        <v>3.9</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="55">
-        <v>27</v>
-      </c>
-      <c r="M24" s="117">
-        <v>5.83</v>
-      </c>
-      <c r="N24" s="117">
-        <v>2.79</v>
-      </c>
-      <c r="O24" s="117">
-        <v>4.63</v>
-      </c>
-      <c r="R24" s="116">
-        <v>2019</v>
-      </c>
-      <c r="S24" s="55">
-        <v>54</v>
-      </c>
-      <c r="T24" s="55">
-        <f>AVERAGE(L51:L60)</f>
-        <v>41.7</v>
-      </c>
-      <c r="U24" s="57"/>
-      <c r="V24" s="120">
-        <f>AVERAGE(M51:M60)</f>
-        <v>8.1770000000000014</v>
-      </c>
-      <c r="W24" s="120">
-        <f t="shared" ref="W24:X24" si="10">AVERAGE(N51:N60)</f>
-        <v>3.0749999999999997</v>
-      </c>
-      <c r="X24" s="120">
-        <f t="shared" si="10"/>
-        <v>5.1010000000000009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A25" s="70">
-        <v>5</v>
-      </c>
-      <c r="B25" s="71">
-        <v>43</v>
-      </c>
-      <c r="C25" s="127">
-        <v>13.44</v>
-      </c>
-      <c r="D25" s="127">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="E25" s="127">
-        <v>3.2</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="71">
-        <v>36</v>
-      </c>
-      <c r="H25" s="127">
-        <v>10.67</v>
-      </c>
-      <c r="I25" s="127">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J25" s="127">
-        <v>3.38</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="71">
-        <v>27</v>
-      </c>
-      <c r="M25" s="127">
-        <v>5.83</v>
-      </c>
-      <c r="N25" s="127">
-        <v>2.79</v>
-      </c>
-      <c r="O25" s="127">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="124">
-        <v>6</v>
-      </c>
-      <c r="B26" s="55">
-        <v>41</v>
-      </c>
-      <c r="C26" s="117">
-        <v>12.72</v>
-      </c>
-      <c r="D26" s="117">
-        <v>3.82</v>
-      </c>
-      <c r="E26" s="117">
-        <v>3.22</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="55">
-        <v>37</v>
-      </c>
-      <c r="H26" s="117">
-        <v>9.83</v>
-      </c>
-      <c r="I26" s="117">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="J26" s="117">
-        <v>3.76</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="55">
-        <v>27</v>
-      </c>
-      <c r="M26" s="117">
-        <v>5.83</v>
-      </c>
-      <c r="N26" s="117">
-        <v>2.79</v>
-      </c>
-      <c r="O26" s="117">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="70">
-        <v>7</v>
-      </c>
-      <c r="B27" s="55">
-        <v>44</v>
-      </c>
-      <c r="C27" s="117">
-        <v>13.72</v>
-      </c>
-      <c r="D27" s="117">
-        <v>3.79</v>
-      </c>
-      <c r="E27" s="117">
-        <v>3.21</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="41">
-        <v>36</v>
-      </c>
-      <c r="H27" s="118">
-        <v>8.89</v>
-      </c>
-      <c r="I27" s="118">
-        <v>3.79</v>
-      </c>
-      <c r="J27" s="118">
-        <v>4.05</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="71">
-        <v>27</v>
-      </c>
-      <c r="M27" s="127">
-        <v>5.83</v>
-      </c>
-      <c r="N27" s="127">
-        <v>2.79</v>
-      </c>
-      <c r="O27" s="127">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="124">
-        <v>8</v>
-      </c>
-      <c r="B28" s="55">
-        <v>45</v>
-      </c>
-      <c r="C28" s="117">
-        <v>13.28</v>
-      </c>
-      <c r="D28" s="117">
-        <v>3.98</v>
-      </c>
-      <c r="E28" s="117">
-        <v>3.39</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="71">
-        <v>38</v>
-      </c>
-      <c r="H28" s="118">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="I28" s="118">
-        <v>4.17</v>
-      </c>
-      <c r="J28" s="118">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="55">
-        <v>27</v>
-      </c>
-      <c r="M28" s="117">
-        <v>5.83</v>
-      </c>
-      <c r="N28" s="117">
-        <v>2.79</v>
-      </c>
-      <c r="O28" s="117">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="70">
-        <v>9</v>
-      </c>
-      <c r="B29" s="55">
-        <v>43</v>
-      </c>
-      <c r="C29" s="117">
-        <v>12.11</v>
-      </c>
-      <c r="D29" s="117">
-        <v>3.92</v>
-      </c>
-      <c r="E29" s="117">
-        <v>3.55</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="75">
-        <v>36</v>
-      </c>
-      <c r="H29" s="126">
-        <v>9.5</v>
-      </c>
-      <c r="I29" s="126">
-        <v>3.84</v>
-      </c>
-      <c r="J29" s="126">
-        <v>3.79</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="71">
-        <v>27</v>
-      </c>
-      <c r="M29" s="127">
-        <v>5.83</v>
-      </c>
-      <c r="N29" s="127">
-        <v>2.79</v>
-      </c>
-      <c r="O29" s="127">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A30" s="124">
-        <v>10</v>
-      </c>
-      <c r="B30" s="55">
-        <v>43</v>
-      </c>
-      <c r="C30" s="117">
-        <v>12.17</v>
-      </c>
-      <c r="D30" s="117">
-        <v>3.42</v>
-      </c>
-      <c r="E30" s="117">
-        <v>3.53</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="55">
-        <v>37</v>
-      </c>
-      <c r="H30" s="117">
-        <v>9.11</v>
-      </c>
-      <c r="I30" s="117">
-        <v>3.92</v>
-      </c>
-      <c r="J30" s="117">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="55">
-        <v>27</v>
-      </c>
-      <c r="M30" s="117">
-        <v>5.83</v>
-      </c>
-      <c r="N30" s="117">
-        <v>2.79</v>
-      </c>
-      <c r="O30" s="117">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="123" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="170">
-        <v>1979</v>
-      </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="G34" s="170">
-        <v>1999</v>
-      </c>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="L34" s="170">
-        <v>2019</v>
-      </c>
-      <c r="M34" s="170"/>
-      <c r="N34" s="170"/>
-      <c r="O34" s="170"/>
-    </row>
-    <row r="35" spans="1:15" ht="39" x14ac:dyDescent="0.35">
-      <c r="A35" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="I35" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="L35" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="N35" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="114" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="70">
-        <v>1</v>
-      </c>
-      <c r="B36" s="71">
-        <v>31</v>
-      </c>
-      <c r="C36" s="127">
-        <v>12.61</v>
-      </c>
-      <c r="D36" s="127">
-        <v>3.57</v>
-      </c>
-      <c r="E36" s="127">
-        <v>2.46</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="131">
-        <v>36</v>
-      </c>
-      <c r="H36" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I36" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J36" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="71">
-        <v>31</v>
-      </c>
-      <c r="M36" s="127">
-        <v>10.78</v>
-      </c>
-      <c r="N36" s="127">
-        <v>1.63</v>
-      </c>
-      <c r="O36" s="127">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="124">
-        <v>2</v>
-      </c>
-      <c r="B37" s="55">
-        <v>32</v>
-      </c>
-      <c r="C37" s="117">
-        <v>12.89</v>
-      </c>
-      <c r="D37" s="117">
-        <v>3.71</v>
-      </c>
-      <c r="E37" s="117">
-        <v>2.48</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="131">
-        <v>36</v>
-      </c>
-      <c r="H37" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I37" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J37" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="55">
-        <v>32</v>
-      </c>
-      <c r="M37" s="117">
-        <v>10.5</v>
-      </c>
-      <c r="N37" s="117">
-        <v>1.79</v>
-      </c>
-      <c r="O37" s="117">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="70">
-        <v>3</v>
-      </c>
-      <c r="B38" s="71">
-        <v>32</v>
-      </c>
-      <c r="C38" s="118">
-        <v>13.06</v>
-      </c>
-      <c r="D38" s="118">
-        <v>3.59</v>
-      </c>
-      <c r="E38" s="118">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="131">
-        <v>36</v>
-      </c>
-      <c r="H38" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I38" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J38" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="71">
-        <v>32</v>
-      </c>
-      <c r="M38" s="118">
-        <v>10.72</v>
-      </c>
-      <c r="N38" s="118">
-        <v>1.87</v>
-      </c>
-      <c r="O38" s="118">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="124">
-        <v>4</v>
-      </c>
-      <c r="B39" s="55">
-        <v>32</v>
-      </c>
-      <c r="C39" s="117">
-        <v>13</v>
-      </c>
-      <c r="D39" s="117">
-        <v>3.65</v>
-      </c>
-      <c r="E39" s="117">
-        <v>2.46</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="131">
-        <v>36</v>
-      </c>
-      <c r="H39" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I39" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J39" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="55">
-        <v>32</v>
-      </c>
-      <c r="M39" s="117">
-        <v>10.5</v>
-      </c>
-      <c r="N39" s="117">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="O39" s="117">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="70">
-        <v>5</v>
-      </c>
-      <c r="B40" s="71">
-        <v>31</v>
-      </c>
-      <c r="C40" s="127">
-        <v>12.56</v>
-      </c>
-      <c r="D40" s="127">
-        <v>3.48</v>
-      </c>
-      <c r="E40" s="127">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="131">
-        <v>36</v>
-      </c>
-      <c r="H40" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I40" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J40" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="71">
-        <v>32</v>
-      </c>
-      <c r="M40" s="127">
-        <v>10.72</v>
-      </c>
-      <c r="N40" s="127">
-        <v>1.81</v>
-      </c>
-      <c r="O40" s="127">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="124">
-        <v>6</v>
-      </c>
-      <c r="B41" s="55">
-        <v>32</v>
-      </c>
-      <c r="C41" s="117">
-        <v>12.94</v>
-      </c>
-      <c r="D41" s="117">
-        <v>3.69</v>
-      </c>
-      <c r="E41" s="117">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="131">
-        <v>36</v>
-      </c>
-      <c r="H41" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I41" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J41" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="55">
-        <v>31</v>
-      </c>
-      <c r="M41" s="117">
-        <v>10.33</v>
-      </c>
-      <c r="N41" s="117">
-        <v>1.94</v>
-      </c>
-      <c r="O41" s="117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="70">
-        <v>7</v>
-      </c>
-      <c r="B42" s="55">
-        <v>32</v>
-      </c>
-      <c r="C42" s="117">
-        <v>13</v>
-      </c>
-      <c r="D42" s="117">
-        <v>3.65</v>
-      </c>
-      <c r="E42" s="117">
-        <v>2.46</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="131">
-        <v>36</v>
-      </c>
-      <c r="H42" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I42" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J42" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="41">
-        <v>31</v>
-      </c>
-      <c r="M42" s="118">
-        <v>9.94</v>
-      </c>
-      <c r="N42" s="118">
-        <v>1.89</v>
-      </c>
-      <c r="O42" s="118">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="124">
-        <v>8</v>
-      </c>
-      <c r="B43" s="55">
-        <v>32</v>
-      </c>
-      <c r="C43" s="117">
-        <v>12.72</v>
-      </c>
-      <c r="D43" s="117">
-        <v>3.68</v>
-      </c>
-      <c r="E43" s="117">
-        <v>2.52</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="131">
-        <v>36</v>
-      </c>
-      <c r="H43" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I43" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J43" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="71">
-        <v>31</v>
-      </c>
-      <c r="M43" s="118">
-        <v>10.72</v>
-      </c>
-      <c r="N43" s="118">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="O43" s="118">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="70">
-        <v>9</v>
-      </c>
-      <c r="B44" s="55">
-        <v>32</v>
-      </c>
-      <c r="C44" s="117">
-        <v>12.89</v>
-      </c>
-      <c r="D44" s="117">
-        <v>3.71</v>
-      </c>
-      <c r="E44" s="117">
-        <v>2.48</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="131">
-        <v>36</v>
-      </c>
-      <c r="H44" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I44" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J44" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="75">
-        <v>29</v>
-      </c>
-      <c r="M44" s="126">
-        <v>10.18</v>
-      </c>
-      <c r="N44" s="126">
-        <v>1.86</v>
-      </c>
-      <c r="O44" s="126">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="124">
-        <v>10</v>
-      </c>
-      <c r="B45" s="55">
-        <v>31</v>
-      </c>
-      <c r="C45" s="117">
-        <v>12.61</v>
-      </c>
-      <c r="D45" s="117">
-        <v>3.57</v>
-      </c>
-      <c r="E45" s="117">
-        <v>2.46</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="131">
-        <v>36</v>
-      </c>
-      <c r="H45" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I45" s="117">
-        <v>2.92</v>
-      </c>
-      <c r="J45" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="55">
-        <v>33</v>
-      </c>
-      <c r="M45" s="117">
-        <v>10.78</v>
-      </c>
-      <c r="N45" s="117">
-        <v>1.99</v>
-      </c>
-      <c r="O45" s="117">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="49" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="123" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="170">
-        <v>1979</v>
-      </c>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="G49" s="170">
-        <v>1999</v>
-      </c>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
-      <c r="J49" s="170"/>
-      <c r="L49" s="170">
-        <v>2019</v>
-      </c>
-      <c r="M49" s="170"/>
-      <c r="N49" s="170"/>
-      <c r="O49" s="170"/>
-    </row>
-    <row r="50" spans="1:15" ht="39" x14ac:dyDescent="0.35">
-      <c r="A50" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="G50" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="I50" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="J50" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="L50" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="M50" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="N50" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="O50" s="114" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="70">
-        <v>1</v>
-      </c>
-      <c r="B51" s="71">
-        <v>47</v>
-      </c>
-      <c r="C51" s="71">
-        <v>12.19</v>
-      </c>
-      <c r="D51" s="71">
-        <v>3.75</v>
-      </c>
-      <c r="E51" s="71">
-        <v>3.86</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="71">
-        <v>42</v>
-      </c>
-      <c r="H51" s="71">
-        <v>9.93</v>
-      </c>
-      <c r="I51" s="71">
-        <v>3.25</v>
-      </c>
-      <c r="J51" s="71">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="71">
-        <v>43</v>
-      </c>
-      <c r="M51" s="127">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="N51" s="127">
-        <v>3.21</v>
-      </c>
-      <c r="O51" s="127">
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="124">
-        <v>2</v>
-      </c>
-      <c r="B52" s="55">
-        <v>48</v>
-      </c>
-      <c r="C52" s="117">
-        <v>12.43</v>
-      </c>
-      <c r="D52" s="117">
-        <v>3.61</v>
-      </c>
-      <c r="E52" s="117">
-        <v>3.86</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="55">
-        <v>41</v>
-      </c>
-      <c r="H52" s="117">
-        <v>10.11</v>
-      </c>
-      <c r="I52" s="117">
-        <v>3.2</v>
-      </c>
-      <c r="J52" s="117">
-        <v>4.05</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="55">
-        <v>42</v>
-      </c>
-      <c r="M52" s="117">
-        <v>8.07</v>
-      </c>
-      <c r="N52" s="117">
-        <v>3.12</v>
-      </c>
-      <c r="O52" s="117">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="70">
-        <v>3</v>
-      </c>
-      <c r="B53" s="71">
-        <v>47</v>
-      </c>
-      <c r="C53" s="118">
-        <v>12.07</v>
-      </c>
-      <c r="D53" s="118">
-        <v>3.5</v>
-      </c>
-      <c r="E53" s="118">
-        <v>3.89</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="71">
-        <v>43</v>
-      </c>
-      <c r="H53" s="118">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="I53" s="118">
-        <v>3.19</v>
-      </c>
-      <c r="J53" s="118">
-        <v>4.32</v>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="71">
-        <v>41</v>
-      </c>
-      <c r="M53" s="118">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="N53" s="118">
-        <v>3.1</v>
-      </c>
-      <c r="O53" s="118">
-        <v>5.04</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="124">
-        <v>4</v>
-      </c>
-      <c r="B54" s="55">
-        <v>49</v>
-      </c>
-      <c r="C54" s="117">
-        <v>11.94</v>
-      </c>
-      <c r="D54" s="117">
-        <v>3.36</v>
-      </c>
-      <c r="E54" s="117">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="55">
-        <v>36</v>
-      </c>
-      <c r="H54" s="117">
-        <v>11.5</v>
-      </c>
-      <c r="I54" s="117">
-        <v>3.92</v>
-      </c>
-      <c r="J54" s="117">
-        <v>3.13</v>
-      </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="55">
-        <v>43</v>
-      </c>
-      <c r="M54" s="117">
-        <v>8.11</v>
-      </c>
-      <c r="N54" s="117">
-        <v>3.17</v>
-      </c>
-      <c r="O54" s="117">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="70">
-        <v>5</v>
-      </c>
-      <c r="B55" s="71">
-        <v>47</v>
-      </c>
-      <c r="C55" s="127">
-        <v>12.07</v>
-      </c>
-      <c r="D55" s="127">
-        <v>3.74</v>
-      </c>
-      <c r="E55" s="127">
-        <v>3.89</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="71">
-        <v>42</v>
-      </c>
-      <c r="H55" s="127">
-        <v>10.07</v>
-      </c>
-      <c r="I55" s="127">
-        <v>3.39</v>
-      </c>
-      <c r="J55" s="127">
-        <v>4.17</v>
-      </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="71">
-        <v>41</v>
-      </c>
-      <c r="M55" s="127">
-        <v>8.39</v>
-      </c>
-      <c r="N55" s="127">
-        <v>3.17</v>
-      </c>
-      <c r="O55" s="127">
-        <v>4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="124">
-        <v>6</v>
-      </c>
-      <c r="B56" s="55">
-        <v>47</v>
-      </c>
-      <c r="C56" s="117">
-        <v>12.11</v>
-      </c>
-      <c r="D56" s="117">
-        <v>3.43</v>
-      </c>
-      <c r="E56" s="117">
-        <v>3.88</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="55">
-        <v>43</v>
-      </c>
-      <c r="H56" s="117">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I56" s="117">
-        <v>3.45</v>
-      </c>
-      <c r="J56" s="117">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="55">
-        <v>39</v>
-      </c>
-      <c r="M56" s="117">
-        <v>8.07</v>
-      </c>
-      <c r="N56" s="117">
-        <v>2.98</v>
-      </c>
-      <c r="O56" s="117">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="70">
-        <v>7</v>
-      </c>
-      <c r="B57" s="55">
-        <v>48</v>
-      </c>
-      <c r="C57" s="117">
-        <v>12.65</v>
-      </c>
-      <c r="D57" s="117">
-        <v>3.42</v>
-      </c>
-      <c r="E57" s="117">
-        <v>3.8</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="41">
-        <v>44</v>
-      </c>
-      <c r="H57" s="118">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I57" s="118">
-        <v>3.19</v>
-      </c>
-      <c r="J57" s="118">
-        <v>4.53</v>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="41">
-        <v>43</v>
-      </c>
-      <c r="M57" s="118">
-        <v>7.98</v>
-      </c>
-      <c r="N57" s="118">
-        <v>2.9</v>
-      </c>
-      <c r="O57" s="118">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="124">
-        <v>8</v>
-      </c>
-      <c r="B58" s="55">
-        <v>49</v>
-      </c>
-      <c r="C58" s="117">
-        <v>12.33</v>
-      </c>
-      <c r="D58" s="117">
-        <v>3.5</v>
-      </c>
-      <c r="E58" s="117">
-        <v>3.97</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="71">
-        <v>44</v>
-      </c>
-      <c r="H58" s="118">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I58" s="118">
-        <v>3.42</v>
-      </c>
-      <c r="J58" s="118">
-        <v>4.53</v>
-      </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="71">
-        <v>40</v>
-      </c>
-      <c r="M58" s="118">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N58" s="118">
-        <v>3.09</v>
-      </c>
-      <c r="O58" s="118">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="70">
-        <v>9</v>
-      </c>
-      <c r="B59" s="55">
-        <v>48</v>
-      </c>
-      <c r="C59" s="117">
-        <v>12.13</v>
-      </c>
-      <c r="D59" s="117">
-        <v>3.34</v>
-      </c>
-      <c r="E59" s="117">
-        <v>3.96</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="75">
-        <v>43</v>
-      </c>
-      <c r="H59" s="126">
-        <v>9.85</v>
-      </c>
-      <c r="I59" s="126">
-        <v>3.19</v>
-      </c>
-      <c r="J59" s="126">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="75">
-        <v>42</v>
-      </c>
-      <c r="M59" s="126">
-        <v>8</v>
-      </c>
-      <c r="N59" s="126">
-        <v>2.95</v>
-      </c>
-      <c r="O59" s="126">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="124">
-        <v>10</v>
-      </c>
-      <c r="B60" s="55">
-        <v>46</v>
-      </c>
-      <c r="C60" s="117">
-        <v>11.61</v>
-      </c>
-      <c r="D60" s="117">
-        <v>3.2</v>
-      </c>
-      <c r="E60" s="117">
-        <v>3.96</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="55">
-        <v>43</v>
-      </c>
-      <c r="H60" s="117">
-        <v>9.61</v>
-      </c>
-      <c r="I60" s="117">
-        <v>3.31</v>
-      </c>
-      <c r="J60" s="117">
-        <v>4.47</v>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="55">
-        <v>43</v>
-      </c>
-      <c r="M60" s="117">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="N60" s="117">
-        <v>3.06</v>
-      </c>
-      <c r="O60" s="117">
-        <v>5.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -12215,32 +13353,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672CF68E-CAEE-413A-A4ED-E0B11FCCA037}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870C599-734A-4F80-B43A-AAD654208358}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788966EF-76C7-4555-8184-5346880E3019}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12257,4 +13385,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870C599-734A-4F80-B43A-AAD654208358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672CF68E-CAEE-413A-A4ED-E0B11FCCA037}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D7D29953-1664-4D93-B392-574D2E7B9CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{D7D29953-1664-4D93-B392-574D2E7B9CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0CE04E9A-9FD3-4A7A-9B7B-F065C4BEFC58}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{D5046F42-BD19-457B-A65F-4703A2C409A5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="316">
   <si>
     <t>IndVal</t>
   </si>
@@ -850,45 +850,24 @@
     <t>Sidalcia_hendersonii</t>
   </si>
   <si>
-    <t>spelling - Puccinellia</t>
-  </si>
-  <si>
-    <t>Puccinella_pauciflora</t>
-  </si>
-  <si>
-    <t>Trifolium_wormskioldii</t>
-  </si>
-  <si>
     <t>Potentilla_pacifica</t>
   </si>
   <si>
-    <t>Symphotrichum_subspicatum</t>
-  </si>
-  <si>
     <t>Polygonum_hydropiper</t>
   </si>
   <si>
     <t>Poa_trivialis</t>
   </si>
   <si>
-    <t>Schoenoplectus_tabernaemontani</t>
-  </si>
-  <si>
     <t>Poa_palustris</t>
   </si>
   <si>
-    <t>Scirpus_microcarpus</t>
-  </si>
-  <si>
     <t>Platanthera_dilatata</t>
   </si>
   <si>
     <t>Poa_cf_palustris</t>
   </si>
   <si>
-    <t>Salix_scouleriana</t>
-  </si>
-  <si>
     <t>Phalaris_arundinacea</t>
   </si>
   <si>
@@ -913,9 +892,6 @@
     <t>Mentha_citrata</t>
   </si>
   <si>
-    <t>Platanthera_dilatata_var_dilatata</t>
-  </si>
-  <si>
     <t>Mentha_arvensis</t>
   </si>
   <si>
@@ -925,9 +901,6 @@
     <t>Lysimachia_thyrsiflora</t>
   </si>
   <si>
-    <t>Myrica_gale</t>
-  </si>
-  <si>
     <t>Lilaeopsis_occidentalis</t>
   </si>
   <si>
@@ -943,9 +916,6 @@
     <t>Leersia_oryzoides</t>
   </si>
   <si>
-    <t>Mentha_aquatica</t>
-  </si>
-  <si>
     <t>Lathyrus_palustris</t>
   </si>
   <si>
@@ -958,15 +928,9 @@
     <t>Juncus_articulatus</t>
   </si>
   <si>
-    <t>Lycopus_europaeus</t>
-  </si>
-  <si>
     <t>Iris_pseudocorus</t>
   </si>
   <si>
-    <t>Lysichiton_americanus</t>
-  </si>
-  <si>
     <t>Impatiens_capensis</t>
   </si>
   <si>
@@ -991,42 +955,27 @@
     <t>Galium_sp</t>
   </si>
   <si>
-    <t>code should be JUAR4</t>
-  </si>
-  <si>
     <t>Festuca_sp</t>
   </si>
   <si>
     <t>Festuca_arundinacea</t>
   </si>
   <si>
-    <t>Juncus_acuminatus</t>
-  </si>
-  <si>
     <t>Equisetum_variegatum</t>
   </si>
   <si>
-    <t>Iris_pseudacorus</t>
-  </si>
-  <si>
     <t>Equisetum_palustre</t>
   </si>
   <si>
     <t>Equisetum_fluviatile</t>
   </si>
   <si>
-    <t>Hypericum_scouleri</t>
-  </si>
-  <si>
     <t>Eleocharis_palustris</t>
   </si>
   <si>
     <t>Deschampsia_caespitosa</t>
   </si>
   <si>
-    <t>Galium_trifidum</t>
-  </si>
-  <si>
     <t>GATR2</t>
   </si>
   <si>
@@ -1036,21 +985,12 @@
     <t>Composite_unidentif</t>
   </si>
   <si>
-    <t>Galium_palustre</t>
-  </si>
-  <si>
     <t>Cirsium_arvense</t>
   </si>
   <si>
-    <t>syn Schedonorus arundinaceus</t>
-  </si>
-  <si>
     <t>Carex_lyngbei</t>
   </si>
   <si>
-    <t>Equisetum_arvense</t>
-  </si>
-  <si>
     <t>Caltha_palustris</t>
   </si>
   <si>
@@ -1078,16 +1018,172 @@
     <t>Agrostis_alba</t>
   </si>
   <si>
-    <t>Agrostis_stolonifera</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>Sidalcea hendersonii</t>
+  </si>
+  <si>
+    <t>JUAR4</t>
+  </si>
+  <si>
+    <t>NRCS Plant Code</t>
+  </si>
+  <si>
+    <t>Puccinellia_pauciflora</t>
+  </si>
+  <si>
+    <t>Species found 1979-2019</t>
+  </si>
+  <si>
+    <t>Synonym recorded in 1979, 1999</t>
+  </si>
+  <si>
+    <t>Endemism Status</t>
+  </si>
+  <si>
+    <t>Alisma plantago-aquatica</t>
+  </si>
+  <si>
+    <t>Iris pseudacorus</t>
+  </si>
+  <si>
+    <t>Llilaeopsis occidentalis</t>
+  </si>
+  <si>
+    <t>Lysichiton americanus</t>
+  </si>
+  <si>
+    <t>Platanthera dilatata var dilatata</t>
+  </si>
+  <si>
+    <t>Trifolium wormskioldii</t>
+  </si>
+  <si>
+    <t>Exotic</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Carex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Carex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Composite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (unidentified)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Festuca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Galium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grass</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(unidentified)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Salix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1098,7 +1194,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,6 +1298,19 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1407,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1785,6 +1894,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1824,15 +1942,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2147,11 +2269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625F1577-DE26-4051-92E5-B0BE0DA6AC79}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2202,7 +2323,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>83</v>
       </c>
@@ -2218,7 +2339,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -2232,7 +2353,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="30" t="s">
         <v>87</v>
@@ -2246,7 +2367,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="155" t="s">
         <v>89</v>
       </c>
@@ -2265,7 +2386,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
@@ -2283,7 +2404,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
@@ -2301,7 +2422,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
         <v>94</v>
@@ -2315,7 +2436,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="21" t="s">
         <v>96</v>
@@ -2329,7 +2450,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>3</v>
       </c>
@@ -2365,7 +2486,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>27</v>
       </c>
@@ -2381,7 +2502,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
@@ -2395,7 +2516,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="29" t="s">
         <v>32</v>
       </c>
@@ -2413,7 +2534,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="26" t="s">
@@ -2427,7 +2548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>10</v>
       </c>
@@ -2445,7 +2566,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2461,7 +2582,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>31</v>
       </c>
@@ -2495,7 +2616,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>111</v>
       </c>
@@ -2509,7 +2630,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="33"/>
       <c r="C22" s="26" t="s">
@@ -2523,7 +2644,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
         <v>115</v>
       </c>
@@ -2541,7 +2662,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>117</v>
@@ -2555,7 +2676,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
         <v>26</v>
       </c>
@@ -2571,7 +2692,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>120</v>
       </c>
@@ -2587,7 +2708,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="37" t="s">
@@ -2635,7 +2756,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="26" t="s">
@@ -2649,7 +2770,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>13</v>
       </c>
@@ -2667,7 +2788,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>130</v>
       </c>
@@ -2683,7 +2804,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>73</v>
       </c>
@@ -2701,7 +2822,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
@@ -2719,7 +2840,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
         <v>75</v>
       </c>
@@ -2735,7 +2856,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>134</v>
       </c>
@@ -2749,7 +2870,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="29" t="s">
         <v>136</v>
       </c>
@@ -2779,7 +2900,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>138</v>
@@ -2795,7 +2916,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -2869,7 +2990,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -2887,7 +3008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>147</v>
       </c>
@@ -2901,7 +3022,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26" t="s">
@@ -2933,7 +3054,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>152</v>
       </c>
@@ -2967,7 +3088,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>156</v>
       </c>
@@ -2985,7 +3106,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
         <v>18</v>
       </c>
@@ -3015,7 +3136,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
         <v>161</v>
@@ -3043,7 +3164,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="29" t="s">
         <v>78</v>
       </c>
@@ -3061,7 +3182,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="155" t="s">
         <v>216</v>
       </c>
@@ -3091,7 +3212,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>170</v>
       </c>
@@ -3109,7 +3230,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
         <v>16</v>
       </c>
@@ -3127,7 +3248,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -3141,7 +3262,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="29" t="s">
         <v>22</v>
       </c>
@@ -3159,7 +3280,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>176</v>
       </c>
@@ -3175,7 +3296,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>178</v>
       </c>
@@ -3189,7 +3310,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="26"/>
       <c r="C64" s="2" t="s">
@@ -3203,7 +3324,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
         <v>182</v>
       </c>
@@ -3223,7 +3344,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>25</v>
       </c>
@@ -3241,7 +3362,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
         <v>185</v>
       </c>
@@ -3271,7 +3392,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="29" t="s">
         <v>189</v>
       </c>
@@ -3289,7 +3410,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>20</v>
       </c>
@@ -3307,7 +3428,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
         <v>193</v>
       </c>
@@ -3325,7 +3446,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>195</v>
       </c>
@@ -3340,13 +3461,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G72" xr:uid="{7C8DDF9E-B538-4E31-B346-1DDB2758620E}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="exotic"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G72" xr:uid="{7C8DDF9E-B538-4E31-B346-1DDB2758620E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3381,34 +3496,34 @@
       <c r="A4" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="166">
+      <c r="B4" s="173">
         <v>1979</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="G4" s="166">
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="G4" s="173">
         <v>1999</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="L4" s="166">
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="L4" s="173">
         <v>2019</v>
       </c>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="S4" s="162" t="s">
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="S4" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="162"/>
+      <c r="T4" s="169"/>
       <c r="U4" s="113"/>
-      <c r="V4" s="162" t="s">
+      <c r="V4" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="169"/>
     </row>
     <row r="5" spans="1:24" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
@@ -4178,24 +4293,24 @@
       <c r="A19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="166">
+      <c r="B19" s="173">
         <v>1979</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="G19" s="166">
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="G19" s="173">
         <v>1999</v>
       </c>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="L19" s="166">
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
+      <c r="L19" s="173">
         <v>2019</v>
       </c>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
       <c r="R19" s="116">
         <v>2019</v>
       </c>
@@ -4780,24 +4895,24 @@
       <c r="A34" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="166">
+      <c r="B34" s="173">
         <v>1979</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="G34" s="166">
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="G34" s="173">
         <v>1999</v>
       </c>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
-      <c r="L34" s="166">
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="L34" s="173">
         <v>2019</v>
       </c>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166"/>
-      <c r="O34" s="166"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="173"/>
     </row>
     <row r="35" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
@@ -5290,24 +5405,24 @@
       <c r="A49" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="166">
+      <c r="B49" s="173">
         <v>1979</v>
       </c>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="G49" s="166">
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="G49" s="173">
         <v>1999</v>
       </c>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="L49" s="166">
+      <c r="H49" s="173"/>
+      <c r="I49" s="173"/>
+      <c r="J49" s="173"/>
+      <c r="L49" s="173">
         <v>2019</v>
       </c>
-      <c r="M49" s="166"/>
-      <c r="N49" s="166"/>
-      <c r="O49" s="166"/>
+      <c r="M49" s="173"/>
+      <c r="N49" s="173"/>
+      <c r="O49" s="173"/>
     </row>
     <row r="50" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
@@ -5900,7 +6015,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="174" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="129" t="s">
@@ -5917,7 +6032,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="168"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="130" t="s">
         <v>211</v>
       </c>
@@ -5932,7 +6047,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="176" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="142" t="s">
@@ -5949,7 +6064,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="168"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="143" t="s">
         <v>211</v>
       </c>
@@ -5964,7 +6079,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="174" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="142" t="s">
@@ -5981,7 +6096,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="168"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="143" t="s">
         <v>211</v>
       </c>
@@ -6007,808 +6122,1256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0E501D-E36F-4F14-87D7-20731F77FBF1}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="179"/>
+    <col min="2" max="2" width="30.26953125" style="180" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" style="180" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="179" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1">
+        <v>1999</v>
+      </c>
+      <c r="F1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1">
+        <v>1979</v>
+      </c>
+      <c r="H1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="181" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="183" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="157" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="159" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="179" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="182" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="158"/>
+      <c r="D3" s="179" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="157" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="157"/>
+      <c r="G3" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="178" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="177"/>
+      <c r="D4" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="157" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="157" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="179" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="158"/>
+      <c r="D5" s="179" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="157" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="157"/>
+      <c r="G5" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="178" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="177" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="157" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="157"/>
+      <c r="G6" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="178" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="181"/>
+      <c r="D7" s="183" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="157" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="157"/>
+      <c r="G7" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="178"/>
+      <c r="B8" s="181" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="177"/>
+      <c r="D8" s="178" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="157" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="157"/>
+      <c r="G8" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="178"/>
+      <c r="B9" s="177" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="177"/>
+      <c r="D9" s="178" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="157" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="157"/>
+      <c r="G9" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="178" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="177" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="181"/>
+      <c r="D10" s="183" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="157" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="157"/>
+      <c r="G10" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="178"/>
+      <c r="B11" s="181" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="177"/>
+      <c r="D11" s="178" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="157" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="157"/>
+      <c r="G11" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="177"/>
+      <c r="D12" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12" s="157"/>
+      <c r="G12" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="178" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="177" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="181"/>
+      <c r="D13" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="157" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="157"/>
+      <c r="G13" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="178" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="181" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="177"/>
+      <c r="D14" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="157" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="157"/>
+      <c r="G14" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="178" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="157" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="157"/>
+      <c r="G15" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="181"/>
+      <c r="D16" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" s="157" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="157"/>
+      <c r="G16" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="178" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E17" s="157" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="157"/>
+      <c r="G17" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="178" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="177"/>
+      <c r="D18" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="157" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="157"/>
+      <c r="G18" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="178"/>
+      <c r="B19" s="177" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="181"/>
+      <c r="D19" s="183" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" s="157" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="157"/>
+      <c r="G19" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="178" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="177"/>
+      <c r="D20" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="157" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="157"/>
+      <c r="G20" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="178"/>
+      <c r="B21" s="177" t="s">
         <v>313</v>
       </c>
-      <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1">
-        <v>1999</v>
-      </c>
-      <c r="E1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1">
-        <v>1979</v>
-      </c>
-      <c r="G1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="170" t="s">
-        <v>310</v>
-      </c>
-      <c r="E2" s="172" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="G2" s="172" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C21" s="177"/>
+      <c r="D21" s="178" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="157" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="157"/>
+      <c r="G21" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="178" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22" s="157" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="157"/>
+      <c r="G22" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="178"/>
+      <c r="B23" s="181" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" s="157" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="157"/>
+      <c r="G23" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="178" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="177" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="157" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" s="157"/>
+      <c r="G24" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="178" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="177" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" s="157" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="157"/>
+      <c r="G25" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="178" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="177"/>
+      <c r="D26" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="157" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="157"/>
+      <c r="G26" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="178" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="177" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="157" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="157"/>
+      <c r="G27" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="178" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="181"/>
+      <c r="D28" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" s="157" t="s">
+        <v>253</v>
+      </c>
+      <c r="F28" s="157"/>
+      <c r="G28" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="178" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" s="181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="177"/>
+      <c r="D29" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E29" s="157" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="157"/>
+      <c r="G29" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="177" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="177"/>
+      <c r="D30" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E30" s="157" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="157"/>
+      <c r="G30" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="178" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="177" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="181"/>
+      <c r="D31" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" s="157" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="157"/>
+      <c r="G31" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="178" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="177"/>
+      <c r="D32" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32" s="157" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" s="159" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="178" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="177"/>
+      <c r="D33" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" s="157" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="157"/>
+      <c r="G33" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="178" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="177" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="181"/>
+      <c r="D34" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" s="157" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="157"/>
+      <c r="G34" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="178" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="181" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" s="177"/>
+      <c r="D35" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E35" s="157" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="157"/>
+      <c r="G35" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="178" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="177"/>
+      <c r="D36" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="157" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="157"/>
+      <c r="G36" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="178" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="177" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="181"/>
+      <c r="D37" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="157" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="157"/>
+      <c r="G37" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="178" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="177"/>
+      <c r="D38" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" s="157" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="157"/>
+      <c r="G38" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="178" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="177" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="177"/>
+      <c r="D39" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" s="157" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="157"/>
+      <c r="G39" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="178" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="183" t="s">
+        <v>305</v>
+      </c>
+      <c r="E40" s="157" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="157"/>
+      <c r="G40" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="181" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="177"/>
+      <c r="D41" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="E41" s="157" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="157"/>
+      <c r="G41" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="178" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="177"/>
+      <c r="D42" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E42" s="157" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="157"/>
+      <c r="G42" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="178" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="177" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="181"/>
+      <c r="D43" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="157" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="157"/>
+      <c r="G43" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="177"/>
+      <c r="D44" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="157" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="178" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="177" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="177"/>
+      <c r="D45" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="157" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="157"/>
+      <c r="G45" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="178" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="177" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="181"/>
+      <c r="D46" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="157" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="157"/>
+      <c r="G46" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="178" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="181" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="177"/>
+      <c r="D47" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" s="157" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="178" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="177" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="177"/>
+      <c r="D48" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" s="157" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" s="157"/>
+      <c r="G48" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="178" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="181"/>
+      <c r="D49" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="178" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="181" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="177"/>
+      <c r="D50" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="178" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="177"/>
+      <c r="D51" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="178" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="177" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="181"/>
+      <c r="D52" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="178" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="181" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" s="177"/>
+      <c r="D53" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="178" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="177" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="177"/>
+      <c r="D54" s="178" t="s">
+        <v>305</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H54" s="157" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="178" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="177" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="181"/>
+      <c r="D55" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="178" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="177"/>
+      <c r="D56" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="178" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="177"/>
+      <c r="D57" s="178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="178" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="177" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="181"/>
+      <c r="D58" s="178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="177"/>
+      <c r="D59" s="178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="178"/>
+      <c r="B60" s="177" t="s">
+        <v>315</v>
+      </c>
+      <c r="C60" s="177"/>
+      <c r="D60" s="178" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="181" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="181" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="177"/>
+      <c r="D62" s="178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="178" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="177" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" s="177"/>
+      <c r="D63" s="178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="178" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="177" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="181"/>
+      <c r="D64" s="178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="178" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="181" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="177"/>
+      <c r="D65" s="178" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="178" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="178" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="177" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="170" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="170" t="s">
+      <c r="C67" s="181" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="178" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="170" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="170" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="9" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="178" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" s="181" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" s="177"/>
+      <c r="D68" s="178" t="s">
         <v>306</v>
       </c>
-      <c r="G5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" s="170" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="170"/>
-      <c r="F6" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="170" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="170" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="170" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="170"/>
-      <c r="F9" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" s="170" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" s="170"/>
-      <c r="F10" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="170" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="170" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="170"/>
-      <c r="F12" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="170" t="s">
-        <v>291</v>
-      </c>
-      <c r="E13" s="170"/>
-      <c r="F13" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="170" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="170"/>
-      <c r="F14" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" s="170" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" s="170"/>
-      <c r="F15" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D16" s="170" t="s">
-        <v>286</v>
-      </c>
-      <c r="E16" s="170"/>
-      <c r="F16" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="170" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="170"/>
-      <c r="F17" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="170" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="172" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="170" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" s="170"/>
-      <c r="F19" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="170" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" s="170"/>
-      <c r="F20" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="170" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="170"/>
-      <c r="F21" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D22" s="170" t="s">
-        <v>272</v>
-      </c>
-      <c r="E22" s="170"/>
-      <c r="F22" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="171" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" s="170" t="s">
-        <v>270</v>
-      </c>
-      <c r="E23" s="170"/>
-      <c r="F23" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="171" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="170" t="s">
-        <v>268</v>
-      </c>
-      <c r="E24" s="170"/>
-      <c r="F24" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="171" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="170" t="s">
-        <v>267</v>
-      </c>
-      <c r="E25" s="170"/>
-      <c r="F25" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="171" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="170" t="s">
-        <v>265</v>
-      </c>
-      <c r="E26" s="170"/>
-      <c r="F26" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="171" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" s="170" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="170"/>
-      <c r="F27" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="171" t="s">
-        <v>253</v>
-      </c>
-      <c r="D28" s="170" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="170"/>
-      <c r="F28" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="171" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="170" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="170"/>
-      <c r="F29" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="171" t="s">
-        <v>250</v>
-      </c>
-      <c r="D30" s="170" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="170"/>
-      <c r="F30" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="171" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="170" t="s">
-        <v>257</v>
-      </c>
-      <c r="E31" s="170"/>
-      <c r="F31" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="171" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" s="170" t="s">
-        <v>255</v>
-      </c>
-      <c r="E32" s="172" t="s">
-        <v>254</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G32" s="172" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="171" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="170" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33" s="170"/>
-      <c r="F33" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="171" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="170" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" s="170"/>
-      <c r="F34" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>171</v>
-      </c>
-      <c r="B35" s="171" t="s">
-        <v>233</v>
-      </c>
-      <c r="D35" s="170" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="170"/>
-      <c r="F35" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B36" s="171" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="170" t="s">
-        <v>248</v>
-      </c>
-      <c r="E36" s="170"/>
-      <c r="F36" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="171" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="170" t="s">
-        <v>245</v>
-      </c>
-      <c r="E37" s="170"/>
-      <c r="F37" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>174</v>
-      </c>
-      <c r="B38" s="171" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="170" t="s">
-        <v>246</v>
-      </c>
-      <c r="E38" s="170"/>
-      <c r="F38" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" s="171" t="s">
-        <v>244</v>
-      </c>
-      <c r="D39" s="170" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="170"/>
-      <c r="F39" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="171" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" s="170" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="170"/>
-      <c r="F40" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="171" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="170" t="s">
-        <v>232</v>
-      </c>
-      <c r="E41" s="170"/>
-      <c r="F41" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="171" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="170" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" s="170"/>
-      <c r="F42" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="171" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43" s="170" t="s">
-        <v>230</v>
-      </c>
-      <c r="E43" s="170"/>
-      <c r="F43" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G43" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>194</v>
-      </c>
-      <c r="B44" s="171" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" s="170" t="s">
-        <v>228</v>
-      </c>
-      <c r="E44" s="170" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D45" s="170" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="170"/>
-      <c r="F45" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D46" s="170" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="170"/>
-      <c r="F46" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D47" s="170" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" s="170" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D48" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="170"/>
-      <c r="F48" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F49" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F50" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F51" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F52" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F53" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F54" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G54" s="170" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F55" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F56" s="9" t="s">
-        <v>220</v>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="178" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="177" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="177"/>
+      <c r="D69" s="178" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C69">
+    <sortCondition ref="B2:B69"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6838,57 +7401,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
-      <c r="B4" s="160">
+      <c r="B4" s="167">
         <v>1979</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="42"/>
-      <c r="F4" s="160">
+      <c r="F4" s="167">
         <v>1999</v>
       </c>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
       <c r="I4" s="42"/>
-      <c r="J4" s="160">
+      <c r="J4" s="167">
         <v>2019</v>
       </c>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
     </row>
     <row r="5" spans="1:13" s="71" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
@@ -6925,7 +7488,7 @@
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="164" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -6960,7 +7523,7 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="158"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="54" t="s">
         <v>16</v>
       </c>
@@ -6987,7 +7550,7 @@
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="159"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="66" t="s">
         <v>17</v>
       </c>
@@ -7012,7 +7575,7 @@
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="164" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -7047,7 +7610,7 @@
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="158"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="92" t="s">
         <v>22</v>
       </c>
@@ -7080,7 +7643,7 @@
       <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="158"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="108" t="s">
         <v>23</v>
       </c>
@@ -7113,7 +7676,7 @@
       <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="158"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="92" t="s">
         <v>24</v>
       </c>
@@ -7140,9 +7703,9 @@
       <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="158"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="108" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C15" s="78">
         <v>0.33100000000000002</v>
@@ -7161,7 +7724,7 @@
       <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="158"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="77" t="s">
         <v>26</v>
       </c>
@@ -7182,11 +7745,11 @@
       <c r="M16" s="57"/>
     </row>
     <row r="17" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="159"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="173">
+      <c r="C17" s="160">
         <v>0.26700000000000002</v>
       </c>
       <c r="D17" s="83">
@@ -7207,7 +7770,7 @@
       <c r="M18" s="57"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="164" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="111" t="s">
@@ -7242,7 +7805,7 @@
       <c r="M19" s="57"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="158"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="77" t="s">
         <v>29</v>
       </c>
@@ -7275,7 +7838,7 @@
       <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="158"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="59" t="s">
         <v>21</v>
       </c>
@@ -7308,7 +7871,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="158"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="77" t="s">
         <v>30</v>
       </c>
@@ -7341,7 +7904,7 @@
       <c r="M22" s="57"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="158"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="59" t="s">
         <v>10</v>
       </c>
@@ -7374,7 +7937,7 @@
       <c r="M23" s="57"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="158"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="54" t="s">
         <v>9</v>
       </c>
@@ -7407,7 +7970,7 @@
       <c r="M24" s="57"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="158"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="57"/>
       <c r="C25" s="60"/>
       <c r="D25" s="81"/>
@@ -7428,7 +7991,7 @@
       <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="158"/>
+      <c r="A26" s="165"/>
       <c r="B26" s="57"/>
       <c r="C26" s="60"/>
       <c r="D26" s="81"/>
@@ -7449,7 +8012,7 @@
       <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="158"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="57"/>
       <c r="C27" s="60"/>
       <c r="D27" s="81"/>
@@ -7470,7 +8033,7 @@
       <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="159"/>
+      <c r="A28" s="166"/>
       <c r="B28" s="65"/>
       <c r="C28" s="68"/>
       <c r="D28" s="83"/>
@@ -7528,48 +8091,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
-      <c r="B4" s="160">
+      <c r="B4" s="167">
         <v>1979</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="167"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="160">
+      <c r="E4" s="167">
         <v>1999</v>
       </c>
-      <c r="F4" s="160"/>
+      <c r="F4" s="167"/>
       <c r="G4" s="42"/>
-      <c r="H4" s="160">
+      <c r="H4" s="167">
         <v>2019</v>
       </c>
-      <c r="I4" s="160"/>
+      <c r="I4" s="167"/>
     </row>
     <row r="5" spans="1:10" s="71" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
@@ -7597,7 +8160,7 @@
     </row>
     <row r="6" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="164" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -7623,7 +8186,7 @@
       <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="158"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="54" t="s">
         <v>16</v>
       </c>
@@ -7643,7 +8206,7 @@
       <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="159"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="66" t="s">
         <v>17</v>
       </c>
@@ -7663,7 +8226,7 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="164" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -7689,7 +8252,7 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="158"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="92" t="s">
         <v>22</v>
       </c>
@@ -7713,7 +8276,7 @@
       <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="158"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="108" t="s">
         <v>23</v>
       </c>
@@ -7737,7 +8300,7 @@
       <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="158"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="92" t="s">
         <v>24</v>
       </c>
@@ -7757,9 +8320,9 @@
       <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="158"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="108" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C15" s="81">
         <v>5.7999999999999996E-3</v>
@@ -7773,7 +8336,7 @@
       <c r="J15" s="57"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="158"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="77" t="s">
         <v>26</v>
       </c>
@@ -7789,7 +8352,7 @@
       <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="159"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="110" t="s">
         <v>27</v>
       </c>
@@ -7809,7 +8372,7 @@
       <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="164" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="111" t="s">
@@ -7835,7 +8398,7 @@
       <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="158"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="77" t="s">
         <v>29</v>
       </c>
@@ -7859,7 +8422,7 @@
       <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="158"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="59" t="s">
         <v>21</v>
       </c>
@@ -7883,7 +8446,7 @@
       <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="158"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="77" t="s">
         <v>30</v>
       </c>
@@ -7907,7 +8470,7 @@
       <c r="J22" s="57"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="158"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="59" t="s">
         <v>10</v>
       </c>
@@ -7931,7 +8494,7 @@
       <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="158"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="54" t="s">
         <v>9</v>
       </c>
@@ -7955,7 +8518,7 @@
       <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="158"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="57"/>
       <c r="C25" s="81"/>
       <c r="D25" s="57"/>
@@ -7971,7 +8534,7 @@
       <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="158"/>
+      <c r="A26" s="165"/>
       <c r="B26" s="57"/>
       <c r="C26" s="81"/>
       <c r="D26" s="57"/>
@@ -7987,7 +8550,7 @@
       <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="158"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="57"/>
       <c r="C27" s="81"/>
       <c r="D27" s="57"/>
@@ -8003,7 +8566,7 @@
       <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="159"/>
+      <c r="A28" s="166"/>
       <c r="B28" s="65"/>
       <c r="C28" s="83"/>
       <c r="D28" s="65"/>
@@ -8061,23 +8624,23 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
-      <c r="C2" s="160">
+      <c r="C2" s="167">
         <v>1979</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="160">
+      <c r="G2" s="167">
         <v>1999</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="160">
+      <c r="K2" s="167">
         <v>2019</v>
       </c>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
     </row>
     <row r="3" spans="2:13" s="42" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -8115,7 +8678,7 @@
     </row>
     <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="164" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -8149,7 +8712,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="158"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
@@ -8181,7 +8744,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="158"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="59" t="s">
         <v>17</v>
       </c>
@@ -8201,7 +8764,7 @@
       <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="159"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -8226,7 +8789,7 @@
       <c r="M9" s="72"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="164" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -8260,7 +8823,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="158"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="54" t="s">
         <v>76</v>
       </c>
@@ -8292,7 +8855,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="158"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="77" t="s">
         <v>24</v>
       </c>
@@ -8312,7 +8875,7 @@
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="158"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="77" t="s">
         <v>23</v>
       </c>
@@ -8332,7 +8895,7 @@
       <c r="M13" s="151"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="158"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="77" t="s">
         <v>15</v>
       </c>
@@ -8352,7 +8915,7 @@
       <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="158"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="77" t="s">
         <v>25</v>
       </c>
@@ -8372,7 +8935,7 @@
       <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="159"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="82" t="s">
         <v>156</v>
       </c>
@@ -8403,7 +8966,7 @@
       <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="164" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -8437,7 +9000,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="158"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="77" t="s">
         <v>12</v>
       </c>
@@ -8469,7 +9032,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="158"/>
+      <c r="B20" s="165"/>
       <c r="C20" s="59" t="s">
         <v>13</v>
       </c>
@@ -8501,7 +9064,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="158"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="77" t="s">
         <v>30</v>
       </c>
@@ -8533,7 +9096,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="158"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="59" t="s">
         <v>9</v>
       </c>
@@ -8565,7 +9128,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="158"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="77" t="s">
         <v>20</v>
       </c>
@@ -8597,7 +9160,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="158"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="90" t="s">
         <v>136</v>
       </c>
@@ -8629,7 +9192,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="158"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="77" t="s">
         <v>8</v>
       </c>
@@ -8661,7 +9224,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="158"/>
+      <c r="B26" s="165"/>
       <c r="C26" s="57"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
@@ -8681,7 +9244,7 @@
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="158"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="57"/>
       <c r="D27" s="60"/>
       <c r="E27" s="61"/>
@@ -8701,7 +9264,7 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="159"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="65"/>
       <c r="D28" s="68"/>
       <c r="E28" s="67"/>
@@ -8772,23 +9335,23 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
-      <c r="C2" s="160">
+      <c r="C2" s="167">
         <v>1979</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="160">
+      <c r="G2" s="167">
         <v>1999</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="160">
+      <c r="K2" s="167">
         <v>2019</v>
       </c>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
     </row>
     <row r="3" spans="2:13" s="42" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -8826,7 +9389,7 @@
     </row>
     <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="164" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -8860,7 +9423,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="158"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
@@ -8892,7 +9455,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="158"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="59" t="s">
         <v>17</v>
       </c>
@@ -8912,7 +9475,7 @@
       <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="159"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -8937,7 +9500,7 @@
       <c r="M9" s="72"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="164" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -8971,7 +9534,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="158"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="54" t="s">
         <v>76</v>
       </c>
@@ -9003,7 +9566,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="158"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="77" t="s">
         <v>24</v>
       </c>
@@ -9023,7 +9586,7 @@
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="158"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="77" t="s">
         <v>23</v>
       </c>
@@ -9043,7 +9606,7 @@
       <c r="M13" s="151"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="158"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="77" t="s">
         <v>15</v>
       </c>
@@ -9063,7 +9626,7 @@
       <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="158"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="77" t="s">
         <v>25</v>
       </c>
@@ -9083,7 +9646,7 @@
       <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="159"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="82" t="s">
         <v>156</v>
       </c>
@@ -9114,7 +9677,7 @@
       <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="164" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -9148,7 +9711,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="158"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="77" t="s">
         <v>12</v>
       </c>
@@ -9180,7 +9743,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="158"/>
+      <c r="B20" s="165"/>
       <c r="C20" s="59" t="s">
         <v>13</v>
       </c>
@@ -9212,7 +9775,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="158"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="77" t="s">
         <v>30</v>
       </c>
@@ -9244,7 +9807,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="158"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="59" t="s">
         <v>9</v>
       </c>
@@ -9276,7 +9839,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="158"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="77" t="s">
         <v>20</v>
       </c>
@@ -9308,7 +9871,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="158"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="90" t="s">
         <v>136</v>
       </c>
@@ -9340,7 +9903,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="158"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="77" t="s">
         <v>8</v>
       </c>
@@ -9372,7 +9935,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="158"/>
+      <c r="B26" s="165"/>
       <c r="C26" s="57"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
@@ -9392,7 +9955,7 @@
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="158"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="57"/>
       <c r="D27" s="60"/>
       <c r="E27" s="61"/>
@@ -9412,7 +9975,7 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="159"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="65"/>
       <c r="D28" s="68"/>
       <c r="E28" s="67"/>
@@ -9616,68 +10179,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="172" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="J1" s="164" t="s">
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="J1" s="171" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="R1" s="164" t="s">
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="R1" s="171" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
     </row>
     <row r="2" spans="2:24" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="43"/>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="162"/>
+      <c r="D2" s="169"/>
       <c r="E2" s="113"/>
-      <c r="F2" s="162" t="s">
+      <c r="F2" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="K2" s="163" t="s">
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="K2" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="163"/>
+      <c r="L2" s="170"/>
       <c r="M2" s="43"/>
-      <c r="N2" s="163" t="s">
+      <c r="N2" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
-      <c r="S2" s="163" t="s">
+      <c r="S2" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="163"/>
+      <c r="T2" s="170"/>
       <c r="U2" s="43"/>
-      <c r="V2" s="163" t="s">
+      <c r="V2" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
     </row>
     <row r="3" spans="2:24" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
@@ -9950,8 +10513,8 @@
       <c r="D8" s="43"/>
       <c r="E8" s="57"/>
       <c r="F8" s="119"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
       <c r="I8" s="132"/>
       <c r="J8" s="132"/>
       <c r="K8" s="132"/>
@@ -9977,18 +10540,18 @@
       <c r="D9" s="43"/>
       <c r="E9" s="57"/>
       <c r="F9" s="119"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
       <c r="I9" s="132"/>
-      <c r="J9" s="175" t="s">
+      <c r="J9" s="162" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="137"/>
       <c r="L9" s="137"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="174"/>
-      <c r="P9" s="174"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
       <c r="Q9" s="132"/>
       <c r="R9" s="42" t="s">
         <v>37</v>
@@ -10209,17 +10772,17 @@
       <c r="E14" s="57"/>
       <c r="F14" s="119"/>
       <c r="G14" s="119"/>
-      <c r="H14" s="174"/>
+      <c r="H14" s="161"/>
       <c r="I14" s="132"/>
-      <c r="J14" s="175" t="s">
+      <c r="J14" s="162" t="s">
         <v>38</v>
       </c>
       <c r="K14" s="137"/>
       <c r="L14" s="137"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="174"/>
-      <c r="P14" s="174"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
       <c r="Q14" s="132"/>
       <c r="R14" s="42" t="s">
         <v>38</v>
@@ -10426,7 +10989,7 @@
       <c r="J18" s="137"/>
       <c r="K18" s="137"/>
       <c r="L18" s="137"/>
-      <c r="M18" s="176"/>
+      <c r="M18" s="163"/>
       <c r="N18" s="137"/>
       <c r="O18" s="137"/>
       <c r="P18" s="137"/>
@@ -10450,12 +11013,12 @@
       <c r="G19" s="43"/>
       <c r="H19" s="137"/>
       <c r="I19" s="132"/>
-      <c r="J19" s="175" t="s">
+      <c r="J19" s="162" t="s">
         <v>47</v>
       </c>
       <c r="K19" s="137"/>
       <c r="L19" s="137"/>
-      <c r="M19" s="176"/>
+      <c r="M19" s="163"/>
       <c r="N19" s="137"/>
       <c r="O19" s="137"/>
       <c r="P19" s="137"/>
@@ -10500,7 +11063,7 @@
       <c r="L20" s="74">
         <v>47.6</v>
       </c>
-      <c r="M20" s="176"/>
+      <c r="M20" s="163"/>
       <c r="N20" s="120">
         <v>12.153</v>
       </c>
@@ -10561,7 +11124,7 @@
       <c r="L21" s="134">
         <v>42.1</v>
       </c>
-      <c r="M21" s="176"/>
+      <c r="M21" s="163"/>
       <c r="N21" s="121">
         <v>10.023</v>
       </c>
@@ -10622,7 +11185,7 @@
       <c r="L22" s="74">
         <v>41.7</v>
       </c>
-      <c r="M22" s="176"/>
+      <c r="M22" s="163"/>
       <c r="N22" s="120">
         <v>8.1770000000000014</v>
       </c>
@@ -10703,34 +11266,34 @@
       <c r="A4" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="166">
+      <c r="B4" s="173">
         <v>1979</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="G4" s="166">
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="G4" s="173">
         <v>1999</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="L4" s="166">
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="L4" s="173">
         <v>2019</v>
       </c>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="S4" s="162" t="s">
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="S4" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="162"/>
+      <c r="T4" s="169"/>
       <c r="U4" s="113"/>
-      <c r="V4" s="162" t="s">
+      <c r="V4" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="162"/>
-      <c r="X4" s="162"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="169"/>
     </row>
     <row r="5" spans="1:24" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
@@ -11500,24 +12063,24 @@
       <c r="A19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="166">
+      <c r="B19" s="173">
         <v>1979</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="G19" s="166">
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="G19" s="173">
         <v>1999</v>
       </c>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="L19" s="166">
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
+      <c r="L19" s="173">
         <v>2019</v>
       </c>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
       <c r="R19" s="116">
         <v>2019</v>
       </c>
@@ -12102,24 +12665,24 @@
       <c r="A34" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="166">
+      <c r="B34" s="173">
         <v>1979</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="G34" s="166">
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="G34" s="173">
         <v>1999</v>
       </c>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
-      <c r="L34" s="166">
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="L34" s="173">
         <v>2019</v>
       </c>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166"/>
-      <c r="O34" s="166"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="173"/>
     </row>
     <row r="35" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
@@ -12612,24 +13175,24 @@
       <c r="A49" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="166">
+      <c r="B49" s="173">
         <v>1979</v>
       </c>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="G49" s="166">
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="G49" s="173">
         <v>1999</v>
       </c>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="L49" s="166">
+      <c r="H49" s="173"/>
+      <c r="I49" s="173"/>
+      <c r="J49" s="173"/>
+      <c r="L49" s="173">
         <v>2019</v>
       </c>
-      <c r="M49" s="166"/>
-      <c r="N49" s="166"/>
-      <c r="O49" s="166"/>
+      <c r="M49" s="173"/>
+      <c r="N49" s="173"/>
+      <c r="O49" s="173"/>
     </row>
     <row r="50" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
@@ -13354,18 +13917,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13388,26 +13951,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672CF68E-CAEE-413A-A4ED-E0B11FCCA037}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870C599-734A-4F80-B43A-AAD654208358}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672CF68E-CAEE-413A-A4ED-E0B11FCCA037}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="14_{D7D29953-1664-4D93-B392-574D2E7B9CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0CE04E9A-9FD3-4A7A-9B7B-F065C4BEFC58}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{ED10299A-CA02-4A71-BBF1-4119BDCBD233}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2D8C354F-FC02-42BD-8814-1F55987880D3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{D5046F42-BD19-457B-A65F-4703A2C409A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="7" activeTab="11" xr2:uid="{D5046F42-BD19-457B-A65F-4703A2C409A5}"/>
   </bookViews>
   <sheets>
     <sheet name="NRCS_species_OLD" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="318">
   <si>
     <t>IndVal</t>
   </si>
@@ -1185,14 +1185,33 @@
       <t>sp</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.01</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt; 0.01</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1900,48 +1919,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1953,6 +1931,107 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3496,34 +3575,34 @@
       <c r="A4" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="173">
+      <c r="B4" s="178">
         <v>1979</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="G4" s="173">
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="G4" s="178">
         <v>1999</v>
       </c>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="L4" s="173">
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="L4" s="178">
         <v>2019</v>
       </c>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="S4" s="169" t="s">
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="S4" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="169"/>
+      <c r="T4" s="174"/>
       <c r="U4" s="113"/>
-      <c r="V4" s="169" t="s">
+      <c r="V4" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
     </row>
     <row r="5" spans="1:24" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
@@ -4293,24 +4372,24 @@
       <c r="A19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="173">
+      <c r="B19" s="178">
         <v>1979</v>
       </c>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="G19" s="173">
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="G19" s="178">
         <v>1999</v>
       </c>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="L19" s="173">
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="L19" s="178">
         <v>2019</v>
       </c>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="178"/>
+      <c r="O19" s="178"/>
       <c r="R19" s="116">
         <v>2019</v>
       </c>
@@ -4895,24 +4974,24 @@
       <c r="A34" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="173">
+      <c r="B34" s="178">
         <v>1979</v>
       </c>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="G34" s="173">
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="G34" s="178">
         <v>1999</v>
       </c>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="173"/>
-      <c r="L34" s="173">
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
+      <c r="L34" s="178">
         <v>2019</v>
       </c>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="173"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
     </row>
     <row r="35" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
@@ -5405,24 +5484,24 @@
       <c r="A49" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="173">
+      <c r="B49" s="178">
         <v>1979</v>
       </c>
-      <c r="C49" s="173"/>
-      <c r="D49" s="173"/>
-      <c r="E49" s="173"/>
-      <c r="G49" s="173">
+      <c r="C49" s="178"/>
+      <c r="D49" s="178"/>
+      <c r="E49" s="178"/>
+      <c r="G49" s="178">
         <v>1999</v>
       </c>
-      <c r="H49" s="173"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="173"/>
-      <c r="L49" s="173">
+      <c r="H49" s="178"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="178"/>
+      <c r="L49" s="178">
         <v>2019</v>
       </c>
-      <c r="M49" s="173"/>
-      <c r="N49" s="173"/>
-      <c r="O49" s="173"/>
+      <c r="M49" s="178"/>
+      <c r="N49" s="178"/>
+      <c r="O49" s="178"/>
     </row>
     <row r="50" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
@@ -5985,8 +6064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E39F2F4-922C-4DC7-AF1C-C568276BB17B}">
   <dimension ref="C3:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6015,7 +6094,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="179" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="129" t="s">
@@ -6032,7 +6111,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="175"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="130" t="s">
         <v>211</v>
       </c>
@@ -6047,7 +6126,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="181" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="142" t="s">
@@ -6064,7 +6143,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="175"/>
+      <c r="C7" s="180"/>
       <c r="D7" s="143" t="s">
         <v>211</v>
       </c>
@@ -6079,7 +6158,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="179" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="142" t="s">
@@ -6096,7 +6175,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="175"/>
+      <c r="C9" s="180"/>
       <c r="D9" s="143" t="s">
         <v>211</v>
       </c>
@@ -6124,16 +6203,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0E501D-E36F-4F14-87D7-20731F77FBF1}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="179"/>
-    <col min="2" max="2" width="30.26953125" style="180" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" style="180" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="179" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="164"/>
+    <col min="2" max="2" width="30.26953125" style="165" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" style="165" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="164" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
@@ -6167,16 +6246,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="183" t="s">
+      <c r="D2" s="168" t="s">
         <v>305</v>
       </c>
       <c r="E2" s="157" t="s">
@@ -6193,14 +6272,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="167" t="s">
         <v>299</v>
       </c>
       <c r="C3" s="158"/>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="164" t="s">
         <v>305</v>
       </c>
       <c r="E3" s="157" t="s">
@@ -6212,14 +6291,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="163" t="s">
         <v>305</v>
       </c>
       <c r="E4" s="157" t="s">
@@ -6233,14 +6312,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="164" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="158" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="158"/>
-      <c r="D5" s="179" t="s">
+      <c r="D5" s="164" t="s">
         <v>306</v>
       </c>
       <c r="E5" s="157" t="s">
@@ -6255,14 +6334,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="178" t="s">
+      <c r="A6" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178" t="s">
+      <c r="C6" s="162"/>
+      <c r="D6" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E6" s="157" t="s">
@@ -6274,14 +6353,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="183" t="s">
+      <c r="C7" s="166"/>
+      <c r="D7" s="168" t="s">
         <v>306</v>
       </c>
       <c r="E7" s="157" t="s">
@@ -6293,12 +6372,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="178"/>
-      <c r="B8" s="181" t="s">
+      <c r="A8" s="163"/>
+      <c r="B8" s="166" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="178" t="s">
+      <c r="C8" s="162"/>
+      <c r="D8" s="163" t="s">
         <v>307</v>
       </c>
       <c r="E8" s="157" t="s">
@@ -6310,12 +6389,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="178"/>
-      <c r="B9" s="177" t="s">
+      <c r="A9" s="163"/>
+      <c r="B9" s="162" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178" t="s">
+      <c r="C9" s="162"/>
+      <c r="D9" s="163" t="s">
         <v>307</v>
       </c>
       <c r="E9" s="157" t="s">
@@ -6327,14 +6406,14 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="163" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="183" t="s">
+      <c r="C10" s="166"/>
+      <c r="D10" s="168" t="s">
         <v>305</v>
       </c>
       <c r="E10" s="157" t="s">
@@ -6346,12 +6425,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="178"/>
-      <c r="B11" s="181" t="s">
+      <c r="A11" s="163"/>
+      <c r="B11" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178" t="s">
+      <c r="C11" s="162"/>
+      <c r="D11" s="163" t="s">
         <v>308</v>
       </c>
       <c r="E11" s="157" t="s">
@@ -6363,14 +6442,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178" t="s">
+      <c r="C12" s="162"/>
+      <c r="D12" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E12" s="157" t="s">
@@ -6382,14 +6461,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="177" t="s">
+      <c r="B13" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="178" t="s">
+      <c r="C13" s="166"/>
+      <c r="D13" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E13" s="157" t="s">
@@ -6401,14 +6480,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="178" t="s">
+      <c r="A14" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178" t="s">
+      <c r="C14" s="162"/>
+      <c r="D14" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E14" s="157" t="s">
@@ -6420,14 +6499,14 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="177" t="s">
+      <c r="B15" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178" t="s">
+      <c r="C15" s="162"/>
+      <c r="D15" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E15" s="157" t="s">
@@ -6439,14 +6518,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="181"/>
-      <c r="D16" s="178" t="s">
+      <c r="C16" s="166"/>
+      <c r="D16" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E16" s="157" t="s">
@@ -6458,14 +6537,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="163" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="181" t="s">
+      <c r="B17" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="178" t="s">
+      <c r="C17" s="162"/>
+      <c r="D17" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E17" s="157" t="s">
@@ -6477,14 +6556,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="178" t="s">
+      <c r="A18" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="177" t="s">
+      <c r="B18" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="178" t="s">
+      <c r="C18" s="162"/>
+      <c r="D18" s="163" t="s">
         <v>305</v>
       </c>
       <c r="E18" s="157" t="s">
@@ -6499,12 +6578,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="178"/>
-      <c r="B19" s="177" t="s">
+      <c r="A19" s="163"/>
+      <c r="B19" s="162" t="s">
         <v>312</v>
       </c>
-      <c r="C19" s="181"/>
-      <c r="D19" s="183" t="s">
+      <c r="C19" s="166"/>
+      <c r="D19" s="168" t="s">
         <v>307</v>
       </c>
       <c r="E19" s="157" t="s">
@@ -6516,14 +6595,14 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178" t="s">
+      <c r="C20" s="162"/>
+      <c r="D20" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E20" s="157" t="s">
@@ -6538,12 +6617,12 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="178"/>
-      <c r="B21" s="177" t="s">
+      <c r="A21" s="163"/>
+      <c r="B21" s="162" t="s">
         <v>313</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178" t="s">
+      <c r="C21" s="162"/>
+      <c r="D21" s="163" t="s">
         <v>307</v>
       </c>
       <c r="E21" s="157" t="s">
@@ -6555,16 +6634,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="178" t="s">
+      <c r="A22" s="163" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="177" t="s">
+      <c r="B22" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="181" t="s">
+      <c r="C22" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="178" t="s">
+      <c r="D22" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E22" s="157" t="s">
@@ -6576,12 +6655,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="178"/>
-      <c r="B23" s="181" t="s">
+      <c r="A23" s="163"/>
+      <c r="B23" s="166" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178" t="s">
+      <c r="C23" s="162"/>
+      <c r="D23" s="163" t="s">
         <v>308</v>
       </c>
       <c r="E23" s="157" t="s">
@@ -6593,14 +6672,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178" t="s">
+      <c r="C24" s="162"/>
+      <c r="D24" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E24" s="157" t="s">
@@ -6612,16 +6691,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="178" t="s">
+      <c r="A25" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="181" t="s">
+      <c r="C25" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="178" t="s">
+      <c r="D25" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E25" s="157" t="s">
@@ -6633,14 +6712,14 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="178" t="s">
+      <c r="A26" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="178" t="s">
+      <c r="C26" s="162"/>
+      <c r="D26" s="163" t="s">
         <v>305</v>
       </c>
       <c r="E26" s="157" t="s">
@@ -6652,14 +6731,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="178" t="s">
+      <c r="A27" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="177" t="s">
+      <c r="B27" s="162" t="s">
         <v>300</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178" t="s">
+      <c r="C27" s="162"/>
+      <c r="D27" s="163" t="s">
         <v>305</v>
       </c>
       <c r="E27" s="157" t="s">
@@ -6671,14 +6750,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="181"/>
-      <c r="D28" s="178" t="s">
+      <c r="C28" s="166"/>
+      <c r="D28" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E28" s="157" t="s">
@@ -6690,14 +6769,14 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="163" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="181" t="s">
+      <c r="B29" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="178" t="s">
+      <c r="C29" s="162"/>
+      <c r="D29" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E29" s="157" t="s">
@@ -6709,14 +6788,14 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="178" t="s">
+      <c r="C30" s="162"/>
+      <c r="D30" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E30" s="157" t="s">
@@ -6728,14 +6807,14 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="178" t="s">
+      <c r="A31" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="177" t="s">
+      <c r="B31" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="181"/>
-      <c r="D31" s="178" t="s">
+      <c r="C31" s="166"/>
+      <c r="D31" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E31" s="157" t="s">
@@ -6747,14 +6826,14 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="178" t="s">
+      <c r="A32" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="181" t="s">
+      <c r="B32" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="178" t="s">
+      <c r="C32" s="162"/>
+      <c r="D32" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E32" s="157" t="s">
@@ -6771,14 +6850,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="178" t="s">
+      <c r="A33" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="177" t="s">
+      <c r="B33" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="177"/>
-      <c r="D33" s="178" t="s">
+      <c r="C33" s="162"/>
+      <c r="D33" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E33" s="157" t="s">
@@ -6790,14 +6869,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="162" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="181"/>
-      <c r="D34" s="178" t="s">
+      <c r="C34" s="166"/>
+      <c r="D34" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E34" s="157" t="s">
@@ -6809,14 +6888,14 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="178" t="s">
+      <c r="A35" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="178" t="s">
+      <c r="C35" s="162"/>
+      <c r="D35" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E35" s="157" t="s">
@@ -6828,14 +6907,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="178" t="s">
+      <c r="A36" s="163" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="162" t="s">
         <v>219</v>
       </c>
-      <c r="C36" s="177"/>
-      <c r="D36" s="178" t="s">
+      <c r="C36" s="162"/>
+      <c r="D36" s="163" t="s">
         <v>305</v>
       </c>
       <c r="E36" s="157" t="s">
@@ -6847,14 +6926,14 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="178" t="s">
+      <c r="A37" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="177" t="s">
+      <c r="B37" s="162" t="s">
         <v>302</v>
       </c>
-      <c r="C37" s="181"/>
-      <c r="D37" s="178" t="s">
+      <c r="C37" s="166"/>
+      <c r="D37" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E37" s="157" t="s">
@@ -6866,14 +6945,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="178" t="s">
+      <c r="C38" s="162"/>
+      <c r="D38" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E38" s="157" t="s">
@@ -6885,14 +6964,14 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="177"/>
-      <c r="D39" s="178" t="s">
+      <c r="C39" s="162"/>
+      <c r="D39" s="163" t="s">
         <v>305</v>
       </c>
       <c r="E39" s="157" t="s">
@@ -6904,16 +6983,16 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="178" t="s">
+      <c r="A40" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="181" t="s">
+      <c r="C40" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="183" t="s">
+      <c r="D40" s="168" t="s">
         <v>305</v>
       </c>
       <c r="E40" s="157" t="s">
@@ -6925,14 +7004,14 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="178" t="s">
+      <c r="A41" s="163" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="181" t="s">
+      <c r="B41" s="166" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="177"/>
-      <c r="D41" s="178" t="s">
+      <c r="C41" s="162"/>
+      <c r="D41" s="163" t="s">
         <v>305</v>
       </c>
       <c r="E41" s="157" t="s">
@@ -6944,14 +7023,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="177"/>
-      <c r="D42" s="178" t="s">
+      <c r="C42" s="162"/>
+      <c r="D42" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E42" s="157" t="s">
@@ -6963,14 +7042,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="178" t="s">
+      <c r="A43" s="163" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="181"/>
-      <c r="D43" s="178" t="s">
+      <c r="C43" s="166"/>
+      <c r="D43" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E43" s="157" t="s">
@@ -6982,14 +7061,14 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="163" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="181" t="s">
+      <c r="B44" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="178" t="s">
+      <c r="C44" s="162"/>
+      <c r="D44" s="163" t="s">
         <v>305</v>
       </c>
       <c r="E44" s="157" t="s">
@@ -7003,14 +7082,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="178" t="s">
+      <c r="A45" s="163" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="177" t="s">
+      <c r="B45" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="177"/>
-      <c r="D45" s="178" t="s">
+      <c r="C45" s="162"/>
+      <c r="D45" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E45" s="157" t="s">
@@ -7022,14 +7101,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="178" t="s">
+      <c r="A46" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="181"/>
-      <c r="D46" s="178" t="s">
+      <c r="C46" s="166"/>
+      <c r="D46" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E46" s="157" t="s">
@@ -7041,14 +7120,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="178" t="s">
+      <c r="A47" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="181" t="s">
+      <c r="B47" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="177"/>
-      <c r="D47" s="178" t="s">
+      <c r="C47" s="162"/>
+      <c r="D47" s="163" t="s">
         <v>305</v>
       </c>
       <c r="E47" s="157" t="s">
@@ -7062,14 +7141,14 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="178" t="s">
+      <c r="A48" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="162" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="177"/>
-      <c r="D48" s="178" t="s">
+      <c r="C48" s="162"/>
+      <c r="D48" s="163" t="s">
         <v>306</v>
       </c>
       <c r="E48" s="157" t="s">
@@ -7081,14 +7160,14 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="178" t="s">
+      <c r="A49" s="163" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="177" t="s">
+      <c r="B49" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="181"/>
-      <c r="D49" s="178" t="s">
+      <c r="C49" s="166"/>
+      <c r="D49" s="163" t="s">
         <v>306</v>
       </c>
       <c r="G49" s="9" t="s">
@@ -7096,14 +7175,14 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="178" t="s">
+      <c r="A50" s="163" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="181" t="s">
+      <c r="B50" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="177"/>
-      <c r="D50" s="178" t="s">
+      <c r="C50" s="162"/>
+      <c r="D50" s="163" t="s">
         <v>305</v>
       </c>
       <c r="G50" s="9" t="s">
@@ -7114,14 +7193,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="178" t="s">
+      <c r="A51" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="177" t="s">
+      <c r="B51" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="177"/>
-      <c r="D51" s="178" t="s">
+      <c r="C51" s="162"/>
+      <c r="D51" s="163" t="s">
         <v>305</v>
       </c>
       <c r="G51" s="9" t="s">
@@ -7129,14 +7208,14 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="178" t="s">
+      <c r="A52" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="181"/>
-      <c r="D52" s="178" t="s">
+      <c r="C52" s="166"/>
+      <c r="D52" s="163" t="s">
         <v>306</v>
       </c>
       <c r="G52" s="9" t="s">
@@ -7144,14 +7223,14 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="B53" s="181" t="s">
+      <c r="B53" s="166" t="s">
         <v>216</v>
       </c>
-      <c r="C53" s="177"/>
-      <c r="D53" s="178" t="s">
+      <c r="C53" s="162"/>
+      <c r="D53" s="163" t="s">
         <v>306</v>
       </c>
       <c r="G53" s="9" t="s">
@@ -7159,14 +7238,14 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="178" t="s">
+      <c r="A54" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="B54" s="177" t="s">
+      <c r="B54" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="177"/>
-      <c r="D54" s="178" t="s">
+      <c r="C54" s="162"/>
+      <c r="D54" s="163" t="s">
         <v>305</v>
       </c>
       <c r="G54" s="9" t="s">
@@ -7177,14 +7256,14 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="178" t="s">
+      <c r="A55" s="163" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="177" t="s">
+      <c r="B55" s="162" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="181"/>
-      <c r="D55" s="178" t="s">
+      <c r="C55" s="166"/>
+      <c r="D55" s="163" t="s">
         <v>306</v>
       </c>
       <c r="G55" s="9" t="s">
@@ -7192,14 +7271,14 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="178" t="s">
+      <c r="A56" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="181" t="s">
+      <c r="B56" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="177"/>
-      <c r="D56" s="178" t="s">
+      <c r="C56" s="162"/>
+      <c r="D56" s="163" t="s">
         <v>306</v>
       </c>
       <c r="G56" s="9" t="s">
@@ -7207,162 +7286,162 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="178" t="s">
+      <c r="A57" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="177" t="s">
+      <c r="B57" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="177"/>
-      <c r="D57" s="178" t="s">
+      <c r="C57" s="162"/>
+      <c r="D57" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="178" t="s">
+      <c r="A58" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="177" t="s">
+      <c r="B58" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="181"/>
-      <c r="D58" s="178" t="s">
+      <c r="C58" s="166"/>
+      <c r="D58" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="178" t="s">
+      <c r="A59" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="181" t="s">
+      <c r="B59" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="C59" s="177"/>
-      <c r="D59" s="178" t="s">
+      <c r="C59" s="162"/>
+      <c r="D59" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="178"/>
-      <c r="B60" s="177" t="s">
+      <c r="A60" s="163"/>
+      <c r="B60" s="162" t="s">
         <v>315</v>
       </c>
-      <c r="C60" s="177"/>
-      <c r="D60" s="178" t="s">
+      <c r="C60" s="162"/>
+      <c r="D60" s="163" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="178" t="s">
+      <c r="A61" s="163" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="177" t="s">
+      <c r="B61" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="181" t="s">
+      <c r="C61" s="166" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="178" t="s">
+      <c r="D61" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="178" t="s">
+      <c r="A62" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="181" t="s">
+      <c r="B62" s="166" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="177"/>
-      <c r="D62" s="178" t="s">
+      <c r="C62" s="162"/>
+      <c r="D62" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="178" t="s">
+      <c r="A63" s="163" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="177" t="s">
+      <c r="B63" s="162" t="s">
         <v>292</v>
       </c>
-      <c r="C63" s="177"/>
-      <c r="D63" s="178" t="s">
+      <c r="C63" s="162"/>
+      <c r="D63" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="178" t="s">
+      <c r="A64" s="163" t="s">
         <v>186</v>
       </c>
-      <c r="B64" s="177" t="s">
+      <c r="B64" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="181"/>
-      <c r="D64" s="178" t="s">
+      <c r="C64" s="166"/>
+      <c r="D64" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="178" t="s">
+      <c r="A65" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="181" t="s">
+      <c r="B65" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="177"/>
-      <c r="D65" s="178" t="s">
+      <c r="C65" s="162"/>
+      <c r="D65" s="163" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="178" t="s">
+      <c r="A66" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="177" t="s">
+      <c r="B66" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="177" t="s">
+      <c r="C66" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="D66" s="178" t="s">
+      <c r="D66" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="178" t="s">
+      <c r="A67" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="B67" s="177" t="s">
+      <c r="B67" s="162" t="s">
         <v>304</v>
       </c>
-      <c r="C67" s="181" t="s">
+      <c r="C67" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="178" t="s">
+      <c r="D67" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="178" t="s">
+      <c r="A68" s="163" t="s">
         <v>194</v>
       </c>
-      <c r="B68" s="181" t="s">
+      <c r="B68" s="166" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="177"/>
-      <c r="D68" s="178" t="s">
+      <c r="C68" s="162"/>
+      <c r="D68" s="163" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="178" t="s">
+      <c r="A69" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="177" t="s">
+      <c r="B69" s="162" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="177"/>
-      <c r="D69" s="178" t="s">
+      <c r="C69" s="162"/>
+      <c r="D69" s="163" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7380,7 +7459,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L28"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7401,57 +7480,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
-      <c r="B4" s="167">
+      <c r="B4" s="172">
         <v>1979</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
       <c r="E4" s="42"/>
-      <c r="F4" s="167">
+      <c r="F4" s="172">
         <v>1999</v>
       </c>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
       <c r="I4" s="42"/>
-      <c r="J4" s="167">
+      <c r="J4" s="172">
         <v>2019</v>
       </c>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
     </row>
     <row r="5" spans="1:13" s="71" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
@@ -7488,7 +7567,7 @@
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="169" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -7523,7 +7602,7 @@
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="165"/>
+      <c r="A8" s="170"/>
       <c r="B8" s="54" t="s">
         <v>16</v>
       </c>
@@ -7550,7 +7629,7 @@
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="166"/>
+      <c r="A9" s="171"/>
       <c r="B9" s="66" t="s">
         <v>17</v>
       </c>
@@ -7575,7 +7654,7 @@
       <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="169" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -7610,7 +7689,7 @@
       <c r="M11" s="57"/>
     </row>
     <row r="12" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="165"/>
+      <c r="A12" s="170"/>
       <c r="B12" s="92" t="s">
         <v>22</v>
       </c>
@@ -7643,7 +7722,7 @@
       <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="165"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="108" t="s">
         <v>23</v>
       </c>
@@ -7676,7 +7755,7 @@
       <c r="M13" s="57"/>
     </row>
     <row r="14" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="165"/>
+      <c r="A14" s="170"/>
       <c r="B14" s="92" t="s">
         <v>24</v>
       </c>
@@ -7703,7 +7782,7 @@
       <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="165"/>
+      <c r="A15" s="170"/>
       <c r="B15" s="108" t="s">
         <v>292</v>
       </c>
@@ -7724,7 +7803,7 @@
       <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="165"/>
+      <c r="A16" s="170"/>
       <c r="B16" s="77" t="s">
         <v>26</v>
       </c>
@@ -7745,7 +7824,7 @@
       <c r="M16" s="57"/>
     </row>
     <row r="17" spans="1:13" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="166"/>
+      <c r="A17" s="171"/>
       <c r="B17" s="110" t="s">
         <v>27</v>
       </c>
@@ -7770,7 +7849,7 @@
       <c r="M18" s="57"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="169" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="111" t="s">
@@ -7805,7 +7884,7 @@
       <c r="M19" s="57"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="165"/>
+      <c r="A20" s="170"/>
       <c r="B20" s="77" t="s">
         <v>29</v>
       </c>
@@ -7838,7 +7917,7 @@
       <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="165"/>
+      <c r="A21" s="170"/>
       <c r="B21" s="59" t="s">
         <v>21</v>
       </c>
@@ -7871,7 +7950,7 @@
       <c r="M21" s="57"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="165"/>
+      <c r="A22" s="170"/>
       <c r="B22" s="77" t="s">
         <v>30</v>
       </c>
@@ -7904,7 +7983,7 @@
       <c r="M22" s="57"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="165"/>
+      <c r="A23" s="170"/>
       <c r="B23" s="59" t="s">
         <v>10</v>
       </c>
@@ -7937,7 +8016,7 @@
       <c r="M23" s="57"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="165"/>
+      <c r="A24" s="170"/>
       <c r="B24" s="54" t="s">
         <v>9</v>
       </c>
@@ -7970,7 +8049,7 @@
       <c r="M24" s="57"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="165"/>
+      <c r="A25" s="170"/>
       <c r="B25" s="57"/>
       <c r="C25" s="60"/>
       <c r="D25" s="81"/>
@@ -7991,7 +8070,7 @@
       <c r="M25" s="57"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="165"/>
+      <c r="A26" s="170"/>
       <c r="B26" s="57"/>
       <c r="C26" s="60"/>
       <c r="D26" s="81"/>
@@ -8012,7 +8091,7 @@
       <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="165"/>
+      <c r="A27" s="170"/>
       <c r="B27" s="57"/>
       <c r="C27" s="60"/>
       <c r="D27" s="81"/>
@@ -8033,7 +8112,7 @@
       <c r="M27" s="57"/>
     </row>
     <row r="28" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="166"/>
+      <c r="A28" s="171"/>
       <c r="B28" s="65"/>
       <c r="C28" s="68"/>
       <c r="D28" s="83"/>
@@ -8072,8 +8151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261D7286-BEB9-4C09-9CD9-2C7DA7A9DDE3}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8091,48 +8170,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="168"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
-      <c r="B4" s="167">
+      <c r="B4" s="172">
         <v>1979</v>
       </c>
-      <c r="C4" s="167"/>
+      <c r="C4" s="172"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="167">
+      <c r="E4" s="172">
         <v>1999</v>
       </c>
-      <c r="F4" s="167"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="42"/>
-      <c r="H4" s="167">
+      <c r="H4" s="172">
         <v>2019</v>
       </c>
-      <c r="I4" s="167"/>
+      <c r="I4" s="172"/>
     </row>
     <row r="5" spans="1:10" s="71" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="99" t="s">
@@ -8160,373 +8239,379 @@
     </row>
     <row r="6" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="169" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="103">
-        <v>1E-4</v>
+      <c r="C7" s="203" t="s">
+        <v>317</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="103">
-        <v>1E-4</v>
+      <c r="F7" s="197" t="s">
+        <v>317</v>
       </c>
       <c r="G7" s="52"/>
       <c r="H7" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="104">
-        <v>1E-4</v>
+      <c r="I7" s="199" t="s">
+        <v>317</v>
       </c>
       <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="165"/>
+      <c r="A8" s="170"/>
       <c r="B8" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="105">
-        <v>1E-4</v>
+      <c r="C8" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="D8" s="57"/>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="117">
         <v>1.47E-2</v>
       </c>
       <c r="G8" s="57"/>
       <c r="H8" s="59"/>
-      <c r="I8" s="93"/>
+      <c r="I8" s="200"/>
       <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="166"/>
+      <c r="A9" s="171"/>
       <c r="B9" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="83">
-        <v>4.0000000000000002E-4</v>
+      <c r="C9" s="65" t="s">
+        <v>316</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="66"/>
-      <c r="F9" s="83"/>
+      <c r="F9" s="198"/>
       <c r="G9" s="65"/>
       <c r="H9" s="66"/>
-      <c r="I9" s="96"/>
+      <c r="I9" s="201"/>
       <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="127"/>
+      <c r="F10" s="127"/>
       <c r="H10" s="84"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="169" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="103">
-        <v>1E-4</v>
+      <c r="C11" s="203" t="s">
+        <v>317</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="103">
-        <v>1E-4</v>
+      <c r="F11" s="203" t="s">
+        <v>317</v>
       </c>
       <c r="G11" s="52"/>
       <c r="H11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="106">
-        <v>1E-4</v>
+      <c r="I11" s="199" t="s">
+        <v>317</v>
       </c>
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="165"/>
+      <c r="A12" s="170"/>
       <c r="B12" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="105">
-        <v>1E-4</v>
+      <c r="C12" s="117" t="s">
+        <v>316</v>
       </c>
       <c r="D12" s="57"/>
       <c r="E12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="105">
-        <v>5.9999999999999995E-4</v>
+      <c r="F12" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="107">
-        <v>1E-4</v>
+      <c r="I12" s="202" t="s">
+        <v>317</v>
       </c>
       <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="165"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="81">
-        <v>1E-4</v>
+      <c r="C13" s="117" t="s">
+        <v>316</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="81">
-        <v>1.4E-3</v>
+      <c r="F13" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="109">
+      <c r="I13" s="202">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="165"/>
+      <c r="A14" s="170"/>
       <c r="B14" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="105">
-        <v>2.9999999999999997E-4</v>
+      <c r="C14" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="105">
-        <v>4.4000000000000003E-3</v>
+      <c r="F14" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="59"/>
-      <c r="I14" s="93"/>
+      <c r="I14" s="200"/>
       <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="165"/>
+      <c r="A15" s="170"/>
       <c r="B15" s="108" t="s">
         <v>292</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="125">
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
-      <c r="F15" s="81"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="57"/>
       <c r="H15" s="59"/>
-      <c r="I15" s="93"/>
+      <c r="I15" s="200"/>
       <c r="J15" s="57"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="165"/>
+      <c r="A16" s="170"/>
       <c r="B16" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="117">
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
-      <c r="F16" s="81"/>
+      <c r="F16" s="125"/>
       <c r="G16" s="57"/>
       <c r="H16" s="59"/>
-      <c r="I16" s="93"/>
+      <c r="I16" s="200"/>
       <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="166"/>
+      <c r="A17" s="171"/>
       <c r="B17" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="198">
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="65"/>
-      <c r="F17" s="83"/>
+      <c r="F17" s="198"/>
       <c r="G17" s="65"/>
       <c r="H17" s="66"/>
-      <c r="I17" s="96"/>
+      <c r="I17" s="201"/>
       <c r="J17" s="57"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="127"/>
+      <c r="F18" s="127"/>
       <c r="H18" s="84"/>
+      <c r="I18" s="127"/>
       <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="169" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="103">
-        <v>1E-4</v>
+      <c r="C19" s="203" t="s">
+        <v>317</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="103">
-        <v>1E-4</v>
+      <c r="F19" s="203" t="s">
+        <v>317</v>
       </c>
       <c r="G19" s="52"/>
       <c r="H19" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="106">
-        <v>1E-4</v>
+      <c r="I19" s="199" t="s">
+        <v>317</v>
       </c>
       <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="165"/>
+      <c r="A20" s="170"/>
       <c r="B20" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="105">
-        <v>2.9999999999999997E-4</v>
+      <c r="C20" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="105">
-        <v>1E-4</v>
+      <c r="F20" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="109">
-        <v>1E-4</v>
+      <c r="I20" s="202" t="s">
+        <v>317</v>
       </c>
       <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="165"/>
+      <c r="A21" s="170"/>
       <c r="B21" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="81">
-        <v>1.1999999999999999E-3</v>
+      <c r="C21" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="81">
-        <v>5.0000000000000001E-4</v>
+      <c r="F21" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="93">
-        <v>1E-4</v>
+      <c r="I21" s="202" t="s">
+        <v>317</v>
       </c>
       <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="165"/>
+      <c r="A22" s="170"/>
       <c r="B22" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="105">
-        <v>1.1999999999999999E-3</v>
+      <c r="C22" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="105">
-        <v>1.1999999999999999E-3</v>
+      <c r="F22" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="109">
-        <v>5.9999999999999995E-4</v>
+      <c r="I22" s="202" t="s">
+        <v>317</v>
       </c>
       <c r="J22" s="57"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="165"/>
+      <c r="A23" s="170"/>
       <c r="B23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="125">
         <v>1.06E-2</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="81">
-        <v>5.0000000000000001E-4</v>
+      <c r="F23" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="G23" s="57"/>
       <c r="H23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="93">
+      <c r="I23" s="200">
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="J23" s="57"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="165"/>
+      <c r="A24" s="170"/>
       <c r="B24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="105">
+      <c r="C24" s="117">
         <v>1.03E-2</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="105">
-        <v>1.6000000000000001E-3</v>
+      <c r="F24" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="G24" s="57"/>
       <c r="H24" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="109">
+      <c r="I24" s="202">
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="165"/>
+      <c r="A25" s="170"/>
       <c r="B25" s="57"/>
       <c r="C25" s="81"/>
       <c r="D25" s="57"/>
       <c r="E25" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="81">
-        <v>4.5999999999999999E-3</v>
+      <c r="F25" s="117" t="s">
+        <v>317</v>
       </c>
       <c r="G25" s="57"/>
       <c r="H25" s="57"/>
@@ -8534,14 +8619,14 @@
       <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="165"/>
+      <c r="A26" s="170"/>
       <c r="B26" s="57"/>
       <c r="C26" s="81"/>
       <c r="D26" s="57"/>
       <c r="E26" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="105">
+      <c r="F26" s="117">
         <v>2.24E-2</v>
       </c>
       <c r="G26" s="57"/>
@@ -8550,14 +8635,14 @@
       <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="165"/>
+      <c r="A27" s="170"/>
       <c r="B27" s="57"/>
       <c r="C27" s="81"/>
       <c r="D27" s="57"/>
       <c r="E27" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="105">
+      <c r="F27" s="117">
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="G27" s="57"/>
@@ -8566,14 +8651,14 @@
       <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="166"/>
+      <c r="A28" s="171"/>
       <c r="B28" s="65"/>
       <c r="C28" s="83"/>
       <c r="D28" s="65"/>
       <c r="E28" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="83">
+      <c r="F28" s="198">
         <v>2.7E-2</v>
       </c>
       <c r="G28" s="65"/>
@@ -8624,23 +8709,23 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
-      <c r="C2" s="167">
+      <c r="C2" s="172">
         <v>1979</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="167">
+      <c r="G2" s="172">
         <v>1999</v>
       </c>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="167">
+      <c r="K2" s="172">
         <v>2019</v>
       </c>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
     </row>
     <row r="3" spans="2:13" s="42" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -8678,7 +8763,7 @@
     </row>
     <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="169" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -8712,7 +8797,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="165"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
@@ -8744,7 +8829,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="165"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="59" t="s">
         <v>17</v>
       </c>
@@ -8764,7 +8849,7 @@
       <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="166"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -8789,7 +8874,7 @@
       <c r="M9" s="72"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="169" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -8823,7 +8908,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="165"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="54" t="s">
         <v>76</v>
       </c>
@@ -8855,7 +8940,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="165"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="77" t="s">
         <v>24</v>
       </c>
@@ -8875,7 +8960,7 @@
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="165"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="77" t="s">
         <v>23</v>
       </c>
@@ -8895,7 +8980,7 @@
       <c r="M13" s="151"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="165"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="77" t="s">
         <v>15</v>
       </c>
@@ -8915,7 +9000,7 @@
       <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="165"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="77" t="s">
         <v>25</v>
       </c>
@@ -8935,7 +9020,7 @@
       <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="166"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="82" t="s">
         <v>156</v>
       </c>
@@ -8966,7 +9051,7 @@
       <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="169" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -9000,7 +9085,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="165"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="77" t="s">
         <v>12</v>
       </c>
@@ -9032,7 +9117,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="165"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="59" t="s">
         <v>13</v>
       </c>
@@ -9064,7 +9149,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="165"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="77" t="s">
         <v>30</v>
       </c>
@@ -9096,7 +9181,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="165"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="59" t="s">
         <v>9</v>
       </c>
@@ -9128,7 +9213,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="165"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="77" t="s">
         <v>20</v>
       </c>
@@ -9160,7 +9245,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="165"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="90" t="s">
         <v>136</v>
       </c>
@@ -9192,7 +9277,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="165"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="77" t="s">
         <v>8</v>
       </c>
@@ -9224,7 +9309,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="165"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="57"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
@@ -9244,7 +9329,7 @@
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="165"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="57"/>
       <c r="D27" s="60"/>
       <c r="E27" s="61"/>
@@ -9264,7 +9349,7 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="166"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="65"/>
       <c r="D28" s="68"/>
       <c r="E28" s="67"/>
@@ -9335,23 +9420,23 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
-      <c r="C2" s="167">
+      <c r="C2" s="172">
         <v>1979</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="167">
+      <c r="G2" s="172">
         <v>1999</v>
       </c>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="167">
+      <c r="K2" s="172">
         <v>2019</v>
       </c>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
     </row>
     <row r="3" spans="2:13" s="42" customFormat="1" ht="39" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -9389,7 +9474,7 @@
     </row>
     <row r="4" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="169" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -9423,7 +9508,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="165"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
@@ -9455,7 +9540,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="165"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="59" t="s">
         <v>17</v>
       </c>
@@ -9475,7 +9560,7 @@
       <c r="M7" s="62"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="166"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -9500,7 +9585,7 @@
       <c r="M9" s="72"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="169" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -9534,7 +9619,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="165"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="54" t="s">
         <v>76</v>
       </c>
@@ -9566,7 +9651,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="165"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="77" t="s">
         <v>24</v>
       </c>
@@ -9586,7 +9671,7 @@
       <c r="M12" s="76"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="165"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="77" t="s">
         <v>23</v>
       </c>
@@ -9606,7 +9691,7 @@
       <c r="M13" s="151"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="165"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="77" t="s">
         <v>15</v>
       </c>
@@ -9626,7 +9711,7 @@
       <c r="M14" s="62"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="165"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="77" t="s">
         <v>25</v>
       </c>
@@ -9646,7 +9731,7 @@
       <c r="M15" s="62"/>
     </row>
     <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="166"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="82" t="s">
         <v>156</v>
       </c>
@@ -9677,7 +9762,7 @@
       <c r="M17" s="72"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="169" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -9711,7 +9796,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="165"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="77" t="s">
         <v>12</v>
       </c>
@@ -9743,7 +9828,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="165"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="59" t="s">
         <v>13</v>
       </c>
@@ -9775,7 +9860,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="165"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="77" t="s">
         <v>30</v>
       </c>
@@ -9807,7 +9892,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="165"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="59" t="s">
         <v>9</v>
       </c>
@@ -9839,7 +9924,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="165"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="77" t="s">
         <v>20</v>
       </c>
@@ -9871,7 +9956,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="165"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="90" t="s">
         <v>136</v>
       </c>
@@ -9903,7 +9988,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="165"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="77" t="s">
         <v>8</v>
       </c>
@@ -9935,7 +10020,7 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="165"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="57"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
@@ -9955,7 +10040,7 @@
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="165"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="57"/>
       <c r="D27" s="60"/>
       <c r="E27" s="61"/>
@@ -9975,7 +10060,7 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="166"/>
+      <c r="B28" s="171"/>
       <c r="C28" s="65"/>
       <c r="D28" s="68"/>
       <c r="E28" s="67"/>
@@ -10161,8 +10246,8 @@
   <dimension ref="B1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10179,68 +10264,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="J1" s="171" t="s">
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="J1" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="R1" s="171" t="s">
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="R1" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
     </row>
     <row r="2" spans="2:24" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="43"/>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="169"/>
+      <c r="D2" s="174"/>
       <c r="E2" s="113"/>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="K2" s="170" t="s">
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="K2" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="170"/>
+      <c r="L2" s="175"/>
       <c r="M2" s="43"/>
-      <c r="N2" s="170" t="s">
+      <c r="N2" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
-      <c r="S2" s="170" t="s">
+      <c r="S2" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="170"/>
+      <c r="T2" s="175"/>
       <c r="U2" s="43"/>
-      <c r="V2" s="170" t="s">
+      <c r="V2" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="170"/>
-      <c r="X2" s="170"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
     </row>
     <row r="3" spans="2:24" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
@@ -10335,13 +10420,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="60"/>
-      <c r="F5" s="117">
+      <c r="F5" s="182">
         <v>8.74</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="183">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H5" s="120">
+      <c r="H5" s="183">
         <v>3.89</v>
       </c>
       <c r="I5" s="132"/>
@@ -10396,13 +10481,13 @@
         <v>35</v>
       </c>
       <c r="E6" s="60"/>
-      <c r="F6" s="118">
+      <c r="F6" s="184">
         <v>8.26</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="185">
         <v>1.98</v>
       </c>
-      <c r="H6" s="136">
+      <c r="H6" s="185">
         <v>4.24</v>
       </c>
       <c r="I6" s="132"/>
@@ -10457,13 +10542,13 @@
         <v>34</v>
       </c>
       <c r="E7" s="60"/>
-      <c r="F7" s="117">
+      <c r="F7" s="182">
         <v>7.89</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="183">
         <v>2.69</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="183">
         <v>4.3099999999999996</v>
       </c>
       <c r="I7" s="132"/>
@@ -10512,17 +10597,17 @@
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="57"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
       <c r="I8" s="132"/>
       <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
       <c r="Q8" s="132"/>
       <c r="R8" s="43"/>
       <c r="S8" s="71"/>
@@ -10539,25 +10624,25 @@
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="57"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
       <c r="I9" s="132"/>
-      <c r="J9" s="162" t="s">
+      <c r="J9" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
       <c r="Q9" s="132"/>
       <c r="R9" s="42" t="s">
         <v>37</v>
       </c>
       <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
+      <c r="T9" s="189"/>
       <c r="U9" s="71"/>
       <c r="V9" s="71"/>
       <c r="W9" s="127"/>
@@ -10574,13 +10659,13 @@
         <v>45</v>
       </c>
       <c r="E10" s="60"/>
-      <c r="F10" s="117">
+      <c r="F10" s="182">
         <v>10.83</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="182">
         <v>3.87</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="182">
         <v>4.16</v>
       </c>
       <c r="J10" s="116">
@@ -10589,17 +10674,17 @@
       <c r="K10" s="55">
         <v>18</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="131">
         <v>43.3</v>
       </c>
       <c r="M10" s="60"/>
-      <c r="N10" s="117">
+      <c r="N10" s="182">
         <v>12.960999999999999</v>
       </c>
-      <c r="O10" s="117">
+      <c r="O10" s="182">
         <v>3.9079999999999999</v>
       </c>
-      <c r="P10" s="117">
+      <c r="P10" s="182">
         <v>3.347</v>
       </c>
       <c r="R10" s="116">
@@ -10608,17 +10693,17 @@
       <c r="S10" s="55">
         <v>10</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="131">
         <v>35.1</v>
       </c>
       <c r="U10" s="71"/>
-      <c r="V10" s="55">
+      <c r="V10" s="182">
         <v>10.9</v>
       </c>
-      <c r="W10" s="117">
+      <c r="W10" s="182">
         <v>3.9340000000000002</v>
       </c>
-      <c r="X10" s="120">
+      <c r="X10" s="183">
         <v>3.2299999999999995</v>
       </c>
     </row>
@@ -10633,13 +10718,13 @@
         <v>41</v>
       </c>
       <c r="E11" s="60"/>
-      <c r="F11" s="118">
+      <c r="F11" s="184">
         <v>9.69</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="184">
         <v>3.96</v>
       </c>
-      <c r="H11" s="118">
+      <c r="H11" s="184">
         <v>4.2300000000000004</v>
       </c>
       <c r="J11" s="43">
@@ -10648,17 +10733,17 @@
       <c r="K11" s="41">
         <v>18</v>
       </c>
-      <c r="L11" s="71">
+      <c r="L11" s="189">
         <v>36.4</v>
       </c>
       <c r="M11" s="60"/>
-      <c r="N11" s="118">
+      <c r="N11" s="184">
         <v>9.7219999999999995</v>
       </c>
-      <c r="O11" s="118">
+      <c r="O11" s="184">
         <v>3.9189999999999996</v>
       </c>
-      <c r="P11" s="118">
+      <c r="P11" s="184">
         <v>3.7600000000000002</v>
       </c>
       <c r="R11" s="43">
@@ -10667,17 +10752,17 @@
       <c r="S11" s="41">
         <v>10</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="189">
         <v>30.4</v>
       </c>
       <c r="U11" s="71"/>
-      <c r="V11" s="71">
+      <c r="V11" s="192">
         <v>9.6399999999999988</v>
       </c>
-      <c r="W11" s="127">
+      <c r="W11" s="192">
         <v>3.6129999999999995</v>
       </c>
-      <c r="X11" s="138">
+      <c r="X11" s="193">
         <v>3.214</v>
       </c>
     </row>
@@ -10692,13 +10777,13 @@
         <v>27</v>
       </c>
       <c r="E12" s="60"/>
-      <c r="F12" s="117">
+      <c r="F12" s="182">
         <v>5.83</v>
       </c>
-      <c r="G12" s="117">
+      <c r="G12" s="182">
         <v>2.79</v>
       </c>
-      <c r="H12" s="117">
+      <c r="H12" s="182">
         <v>4.63</v>
       </c>
       <c r="J12" s="116">
@@ -10707,17 +10792,17 @@
       <c r="K12" s="55">
         <v>18</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="131">
         <v>27</v>
       </c>
       <c r="M12" s="60"/>
-      <c r="N12" s="117">
+      <c r="N12" s="182">
         <v>5.8299999999999992</v>
       </c>
-      <c r="O12" s="117">
+      <c r="O12" s="182">
         <v>2.7899999999999996</v>
       </c>
-      <c r="P12" s="117">
+      <c r="P12" s="182">
         <v>4.6300000000000008</v>
       </c>
       <c r="R12" s="116">
@@ -10726,17 +10811,17 @@
       <c r="S12" s="55">
         <v>10</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="131">
         <v>21.7</v>
       </c>
       <c r="U12" s="71"/>
-      <c r="V12" s="55">
+      <c r="V12" s="182">
         <v>5.71</v>
       </c>
-      <c r="W12" s="117">
+      <c r="W12" s="182">
         <v>2.6919999999999993</v>
       </c>
-      <c r="X12" s="120">
+      <c r="X12" s="183">
         <v>3.8259999999999996</v>
       </c>
     </row>
@@ -10745,23 +10830,23 @@
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="57"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
       <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="192"/>
+      <c r="O13" s="192"/>
+      <c r="P13" s="192"/>
       <c r="R13" s="43"/>
       <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
+      <c r="T13" s="189"/>
       <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="127"/>
+      <c r="V13" s="192"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="192"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B14" s="42" t="s">
@@ -10770,29 +10855,29 @@
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
       <c r="E14" s="57"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="161"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="187"/>
       <c r="I14" s="132"/>
-      <c r="J14" s="162" t="s">
+      <c r="J14" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
       <c r="Q14" s="132"/>
       <c r="R14" s="42" t="s">
         <v>38</v>
       </c>
       <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
+      <c r="T14" s="189"/>
       <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
+      <c r="V14" s="192"/>
+      <c r="W14" s="192"/>
+      <c r="X14" s="192"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B15" s="116">
@@ -10805,13 +10890,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="78"/>
-      <c r="F15" s="120">
+      <c r="F15" s="183">
         <v>10.84</v>
       </c>
-      <c r="G15" s="120">
+      <c r="G15" s="183">
         <v>3.61</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="183">
         <v>2.77</v>
       </c>
       <c r="I15" s="132"/>
@@ -10821,17 +10906,17 @@
       <c r="K15" s="74">
         <v>18</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="191">
         <v>31.7</v>
       </c>
       <c r="M15" s="78"/>
-      <c r="N15" s="120">
+      <c r="N15" s="183">
         <v>12.827999999999999</v>
       </c>
-      <c r="O15" s="120">
+      <c r="O15" s="183">
         <v>3.63</v>
       </c>
-      <c r="P15" s="120">
+      <c r="P15" s="183">
         <v>2.4710000000000001</v>
       </c>
       <c r="Q15" s="132"/>
@@ -10841,17 +10926,17 @@
       <c r="S15" s="74">
         <v>10</v>
       </c>
-      <c r="T15" s="74">
+      <c r="T15" s="191">
         <v>27.3</v>
       </c>
       <c r="U15" s="134"/>
-      <c r="V15" s="74">
+      <c r="V15" s="183">
         <v>11.040000000000001</v>
       </c>
-      <c r="W15" s="120">
+      <c r="W15" s="183">
         <v>3.597</v>
       </c>
-      <c r="X15" s="140">
+      <c r="X15" s="194">
         <v>2.4810000000000003</v>
       </c>
     </row>
@@ -10866,13 +10951,13 @@
         <v>36</v>
       </c>
       <c r="E16" s="78"/>
-      <c r="F16" s="136">
+      <c r="F16" s="185">
         <v>11.5</v>
       </c>
-      <c r="G16" s="136">
+      <c r="G16" s="185">
         <v>2.92</v>
       </c>
-      <c r="H16" s="136">
+      <c r="H16" s="185">
         <v>3.13</v>
       </c>
       <c r="I16" s="132"/>
@@ -10882,17 +10967,17 @@
       <c r="K16" s="135">
         <v>18</v>
       </c>
-      <c r="L16" s="134">
+      <c r="L16" s="190">
         <v>36</v>
       </c>
       <c r="M16" s="78"/>
-      <c r="N16" s="136">
+      <c r="N16" s="185">
         <v>11.5</v>
       </c>
-      <c r="O16" s="136">
+      <c r="O16" s="185">
         <v>2.9200000000000004</v>
       </c>
-      <c r="P16" s="136">
+      <c r="P16" s="185">
         <v>3.1299999999999994</v>
       </c>
       <c r="Q16" s="132"/>
@@ -10902,17 +10987,17 @@
       <c r="S16" s="135">
         <v>10</v>
       </c>
-      <c r="T16" s="134">
+      <c r="T16" s="190">
         <v>32.299999999999997</v>
       </c>
       <c r="U16" s="134"/>
-      <c r="V16" s="134">
+      <c r="V16" s="193">
         <v>11.32</v>
       </c>
-      <c r="W16" s="138">
+      <c r="W16" s="193">
         <v>3.181</v>
       </c>
-      <c r="X16" s="141">
+      <c r="X16" s="195">
         <v>2.8579999999999997</v>
       </c>
     </row>
@@ -10927,13 +11012,13 @@
         <v>34</v>
       </c>
       <c r="E17" s="78"/>
-      <c r="F17" s="120">
+      <c r="F17" s="183">
         <v>10.46</v>
       </c>
-      <c r="G17" s="120">
+      <c r="G17" s="183">
         <v>1.9</v>
       </c>
-      <c r="H17" s="120">
+      <c r="H17" s="183">
         <v>3.25</v>
       </c>
       <c r="I17" s="132"/>
@@ -10943,17 +11028,17 @@
       <c r="K17" s="74">
         <v>18</v>
       </c>
-      <c r="L17" s="74">
+      <c r="L17" s="191">
         <v>31.4</v>
       </c>
       <c r="M17" s="78"/>
-      <c r="N17" s="120">
+      <c r="N17" s="183">
         <v>10.516999999999999</v>
       </c>
-      <c r="O17" s="120">
+      <c r="O17" s="183">
         <v>1.9009999999999998</v>
       </c>
-      <c r="P17" s="120">
+      <c r="P17" s="183">
         <v>2.9850000000000003</v>
       </c>
       <c r="Q17" s="132"/>
@@ -10963,17 +11048,17 @@
       <c r="S17" s="74">
         <v>10</v>
       </c>
-      <c r="T17" s="74">
+      <c r="T17" s="191">
         <v>25.7</v>
       </c>
       <c r="U17" s="134"/>
-      <c r="V17" s="74">
+      <c r="V17" s="183">
         <v>10.43</v>
       </c>
-      <c r="W17" s="120">
+      <c r="W17" s="183">
         <v>1.8580000000000001</v>
       </c>
-      <c r="X17" s="140">
+      <c r="X17" s="194">
         <v>2.464</v>
       </c>
     </row>
@@ -10982,25 +11067,25 @@
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="57"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="137"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="187"/>
       <c r="I18" s="132"/>
       <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
       <c r="Q18" s="132"/>
       <c r="R18" s="43"/>
       <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
+      <c r="T18" s="189"/>
       <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B19" s="42" t="s">
@@ -11009,29 +11094,29 @@
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
       <c r="E19" s="57"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="137"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="187"/>
       <c r="I19" s="132"/>
-      <c r="J19" s="162" t="s">
+      <c r="J19" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="137"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="193"/>
       <c r="Q19" s="132"/>
       <c r="R19" s="42" t="s">
         <v>47</v>
       </c>
       <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
+      <c r="T19" s="189"/>
       <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
+      <c r="V19" s="192"/>
+      <c r="W19" s="192"/>
+      <c r="X19" s="192"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B20" s="116">
@@ -11044,13 +11129,13 @@
         <v>48</v>
       </c>
       <c r="E20" s="57"/>
-      <c r="F20" s="120">
+      <c r="F20" s="183">
         <v>9.9600000000000009</v>
       </c>
-      <c r="G20" s="120">
+      <c r="G20" s="183">
         <v>3.41</v>
       </c>
-      <c r="H20" s="120">
+      <c r="H20" s="183">
         <v>4.82</v>
       </c>
       <c r="I20" s="132"/>
@@ -11060,17 +11145,17 @@
       <c r="K20" s="74">
         <v>54</v>
       </c>
-      <c r="L20" s="74">
+      <c r="L20" s="191">
         <v>47.6</v>
       </c>
-      <c r="M20" s="163"/>
-      <c r="N20" s="120">
+      <c r="M20" s="78"/>
+      <c r="N20" s="183">
         <v>12.153</v>
       </c>
-      <c r="O20" s="120">
+      <c r="O20" s="183">
         <v>3.4850000000000003</v>
       </c>
-      <c r="P20" s="120">
+      <c r="P20" s="183">
         <v>3.9169999999999994</v>
       </c>
       <c r="Q20" s="132"/>
@@ -11080,17 +11165,17 @@
       <c r="S20" s="55">
         <v>30</v>
       </c>
-      <c r="T20" s="55">
+      <c r="T20" s="131">
         <v>40.799999999999997</v>
       </c>
       <c r="U20" s="71"/>
-      <c r="V20" s="117">
+      <c r="V20" s="182">
         <v>10.216000000000001</v>
       </c>
-      <c r="W20" s="117">
+      <c r="W20" s="182">
         <v>3.5289999999999999</v>
       </c>
-      <c r="X20" s="140">
+      <c r="X20" s="194">
         <v>3.9989999999999997</v>
       </c>
     </row>
@@ -11105,13 +11190,13 @@
         <v>45</v>
       </c>
       <c r="E21" s="57"/>
-      <c r="F21" s="121">
+      <c r="F21" s="188">
         <v>9.5500000000000007</v>
       </c>
-      <c r="G21" s="121">
+      <c r="G21" s="188">
         <v>3.3</v>
       </c>
-      <c r="H21" s="121">
+      <c r="H21" s="188">
         <v>4.71</v>
       </c>
       <c r="I21" s="132"/>
@@ -11121,17 +11206,17 @@
       <c r="K21" s="135">
         <v>54</v>
       </c>
-      <c r="L21" s="134">
+      <c r="L21" s="190">
         <v>42.1</v>
       </c>
-      <c r="M21" s="163"/>
-      <c r="N21" s="121">
+      <c r="M21" s="78"/>
+      <c r="N21" s="188">
         <v>10.023</v>
       </c>
-      <c r="O21" s="121">
+      <c r="O21" s="188">
         <v>3.351</v>
       </c>
-      <c r="P21" s="121">
+      <c r="P21" s="188">
         <v>4.218</v>
       </c>
       <c r="Q21" s="132"/>
@@ -11141,17 +11226,17 @@
       <c r="S21" s="41">
         <v>30</v>
       </c>
-      <c r="T21" s="71">
+      <c r="T21" s="189">
         <v>40.1</v>
       </c>
       <c r="U21" s="71"/>
-      <c r="V21" s="127">
+      <c r="V21" s="192">
         <v>9.706999999999999</v>
       </c>
-      <c r="W21" s="127">
+      <c r="W21" s="192">
         <v>3.2749999999999999</v>
       </c>
-      <c r="X21" s="141">
+      <c r="X21" s="195">
         <v>4.1420000000000003</v>
       </c>
     </row>
@@ -11166,13 +11251,13 @@
         <v>44</v>
       </c>
       <c r="E22" s="57"/>
-      <c r="F22" s="120">
+      <c r="F22" s="183">
         <v>9.36</v>
       </c>
-      <c r="G22" s="120">
+      <c r="G22" s="183">
         <v>3.03</v>
       </c>
-      <c r="H22" s="120">
+      <c r="H22" s="183">
         <v>4.7</v>
       </c>
       <c r="I22" s="132"/>
@@ -11182,17 +11267,17 @@
       <c r="K22" s="74">
         <v>54</v>
       </c>
-      <c r="L22" s="74">
+      <c r="L22" s="191">
         <v>41.7</v>
       </c>
-      <c r="M22" s="163"/>
-      <c r="N22" s="120">
+      <c r="M22" s="78"/>
+      <c r="N22" s="183">
         <v>8.1770000000000014</v>
       </c>
-      <c r="O22" s="120">
+      <c r="O22" s="183">
         <v>3.0749999999999997</v>
       </c>
-      <c r="P22" s="120">
+      <c r="P22" s="183">
         <v>5.1010000000000009</v>
       </c>
       <c r="Q22" s="132"/>
@@ -11202,17 +11287,17 @@
       <c r="S22" s="55">
         <v>30</v>
       </c>
-      <c r="T22" s="55">
+      <c r="T22" s="131">
         <v>37.299999999999997</v>
       </c>
       <c r="U22" s="71"/>
-      <c r="V22" s="117">
+      <c r="V22" s="182">
         <v>7.9449999999999985</v>
       </c>
-      <c r="W22" s="117">
+      <c r="W22" s="182">
         <v>3.1510000000000002</v>
       </c>
-      <c r="X22" s="140">
+      <c r="X22" s="194">
         <v>4.697000000000001</v>
       </c>
     </row>
@@ -11266,34 +11351,34 @@
       <c r="A4" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="173">
+      <c r="B4" s="178">
         <v>1979</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="G4" s="173">
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="G4" s="178">
         <v>1999</v>
       </c>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="L4" s="173">
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="L4" s="178">
         <v>2019</v>
       </c>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="S4" s="169" t="s">
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="S4" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="169"/>
+      <c r="T4" s="174"/>
       <c r="U4" s="113"/>
-      <c r="V4" s="169" t="s">
+      <c r="V4" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
     </row>
     <row r="5" spans="1:24" ht="39" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
@@ -12063,24 +12148,24 @@
       <c r="A19" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="173">
+      <c r="B19" s="178">
         <v>1979</v>
       </c>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="G19" s="173">
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="G19" s="178">
         <v>1999</v>
       </c>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="L19" s="173">
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="L19" s="178">
         <v>2019</v>
       </c>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="178"/>
+      <c r="O19" s="178"/>
       <c r="R19" s="116">
         <v>2019</v>
       </c>
@@ -12665,24 +12750,24 @@
       <c r="A34" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="173">
+      <c r="B34" s="178">
         <v>1979</v>
       </c>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="G34" s="173">
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="G34" s="178">
         <v>1999</v>
       </c>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="173"/>
-      <c r="L34" s="173">
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
+      <c r="L34" s="178">
         <v>2019</v>
       </c>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="173"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
     </row>
     <row r="35" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
@@ -13175,24 +13260,24 @@
       <c r="A49" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="173">
+      <c r="B49" s="178">
         <v>1979</v>
       </c>
-      <c r="C49" s="173"/>
-      <c r="D49" s="173"/>
-      <c r="E49" s="173"/>
-      <c r="G49" s="173">
+      <c r="C49" s="178"/>
+      <c r="D49" s="178"/>
+      <c r="E49" s="178"/>
+      <c r="G49" s="178">
         <v>1999</v>
       </c>
-      <c r="H49" s="173"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="173"/>
-      <c r="L49" s="173">
+      <c r="H49" s="178"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="178"/>
+      <c r="L49" s="178">
         <v>2019</v>
       </c>
-      <c r="M49" s="173"/>
-      <c r="N49" s="173"/>
-      <c r="O49" s="173"/>
+      <c r="M49" s="178"/>
+      <c r="N49" s="178"/>
+      <c r="O49" s="178"/>
     </row>
     <row r="50" spans="1:15" ht="39" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
@@ -13688,6 +13773,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -13916,22 +14016,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870C599-734A-4F80-B43A-AAD654208358}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672CF68E-CAEE-413A-A4ED-E0B11FCCA037}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788966EF-76C7-4555-8184-5346880E3019}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13948,29 +14058,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{672CF68E-CAEE-413A-A4ED-E0B11FCCA037}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870C599-734A-4F80-B43A-AAD654208358}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/CommunityStability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="14_{ED10299A-CA02-4A71-BBF1-4119BDCBD233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCA5EAC7-7687-44C6-91E6-FBD3EEF72B21}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="14_{ED10299A-CA02-4A71-BBF1-4119BDCBD233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEBB7866-4FCA-495B-9016-5D0501813D7C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{D5046F42-BD19-457B-A65F-4703A2C409A5}"/>
+    <workbookView xWindow="-28920" yWindow="-1680" windowWidth="29040" windowHeight="15720" tabRatio="666" firstSheet="1" activeTab="3" xr2:uid="{D5046F42-BD19-457B-A65F-4703A2C409A5}"/>
   </bookViews>
   <sheets>
     <sheet name="NRCS_species_OLD" sheetId="7" r:id="rId1"/>
     <sheet name="sp_syn" sheetId="12" r:id="rId2"/>
     <sheet name="IndicatorAnalysis" sheetId="1" r:id="rId3"/>
-    <sheet name="Indic_noIndVal" sheetId="10" r:id="rId4"/>
-    <sheet name="IndicatorAnalysisBC" sheetId="6" r:id="rId5"/>
-    <sheet name="Indic_noIndValBC" sheetId="11" r:id="rId6"/>
-    <sheet name="plots_omitted" sheetId="5" r:id="rId7"/>
-    <sheet name="DiversityMeasures" sheetId="2" r:id="rId8"/>
-    <sheet name="bootstrap-div-10plots" sheetId="8" r:id="rId9"/>
-    <sheet name="bootstrap-div-18plots" sheetId="9" r:id="rId10"/>
-    <sheet name="Stability" sheetId="3" r:id="rId11"/>
-    <sheet name="Turnover" sheetId="4" r:id="rId12"/>
+    <sheet name="ISA-subgps" sheetId="13" r:id="rId4"/>
+    <sheet name="Indic_noIndVal" sheetId="10" r:id="rId5"/>
+    <sheet name="IndicatorAnalysisBC" sheetId="6" r:id="rId6"/>
+    <sheet name="Indic_noIndValBC" sheetId="11" r:id="rId7"/>
+    <sheet name="plots_omitted" sheetId="5" r:id="rId8"/>
+    <sheet name="DiversityMeasures" sheetId="2" r:id="rId9"/>
+    <sheet name="bootstrap-div-10plots" sheetId="8" r:id="rId10"/>
+    <sheet name="bootstrap-div-18plots" sheetId="9" r:id="rId11"/>
+    <sheet name="Stability" sheetId="3" r:id="rId12"/>
+    <sheet name="Turnover" sheetId="4" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NRCS_species_OLD!$A$1:$G$72</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="333">
   <si>
     <t>p-value</t>
   </si>
@@ -1220,6 +1221,45 @@
   <si>
     <t>n plots</t>
   </si>
+  <si>
+    <t>Subgroup 1</t>
+  </si>
+  <si>
+    <t>Subgroup 2</t>
+  </si>
+  <si>
+    <t>Subgroup 3</t>
+  </si>
+  <si>
+    <t>Carex sp.</t>
+  </si>
+  <si>
+    <t>Asteraceae sp.</t>
+  </si>
+  <si>
+    <t>no species significantly characterized this subgroup</t>
+  </si>
+  <si>
+    <t>a third subgroup was not identified in 1999</t>
+  </si>
+  <si>
+    <t>a third subgroup was not identified in 1979</t>
+  </si>
+  <si>
+    <t>Only one group was identified in 1979</t>
+  </si>
+  <si>
+    <t>Only one group was identified in 1999</t>
+  </si>
+  <si>
+    <t>a third subgroup was not identified in 2019</t>
+  </si>
+  <si>
+    <t>no species significantly characterized this cluster when subgroups are introduced to indicator species analysis</t>
+  </si>
+  <si>
+    <t>Poaceae sp.</t>
+  </si>
 </sst>
 </file>
 
@@ -1230,7 +1270,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,6 +1391,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1372,7 +1447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1548,11 +1623,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1929,6 +2015,271 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3444,6 +3795,2452 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F62766-8C1A-4137-83E0-B0B1E504131D}">
+  <dimension ref="A1:X60"/>
+  <sheetViews>
+    <sheetView topLeftCell="G12" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="101"/>
+      <c r="R3" s="102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="150">
+        <v>1979</v>
+      </c>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="G4" s="150">
+        <v>1999</v>
+      </c>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="L4" s="150">
+        <v>2019</v>
+      </c>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="S4" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="146"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="146" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+    </row>
+    <row r="5" spans="1:24" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="94"/>
+      <c r="V5" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="W5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="63">
+        <v>1</v>
+      </c>
+      <c r="B6" s="53">
+        <v>27</v>
+      </c>
+      <c r="C6" s="100">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D6" s="100">
+        <v>2.67</v>
+      </c>
+      <c r="E6" s="100">
+        <v>3.1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="53">
+        <v>29</v>
+      </c>
+      <c r="H6" s="100">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I6" s="100">
+        <v>1.93</v>
+      </c>
+      <c r="J6" s="100">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="53">
+        <v>21</v>
+      </c>
+      <c r="M6" s="100">
+        <v>7.2</v>
+      </c>
+      <c r="N6" s="100">
+        <v>2.9</v>
+      </c>
+      <c r="O6" s="100">
+        <v>2.92</v>
+      </c>
+      <c r="R6" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="103">
+        <v>2</v>
+      </c>
+      <c r="B7" s="49">
+        <v>29</v>
+      </c>
+      <c r="C7" s="97">
+        <v>8.6</v>
+      </c>
+      <c r="D7" s="97">
+        <v>2.37</v>
+      </c>
+      <c r="E7" s="97">
+        <v>3.37</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="49">
+        <v>21</v>
+      </c>
+      <c r="H7" s="97">
+        <v>7.7</v>
+      </c>
+      <c r="I7" s="97">
+        <v>1.7</v>
+      </c>
+      <c r="J7" s="97">
+        <v>2.73</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="49">
+        <v>27</v>
+      </c>
+      <c r="M7" s="97">
+        <v>8.4</v>
+      </c>
+      <c r="N7" s="97">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O7" s="97">
+        <v>3.21</v>
+      </c>
+      <c r="R7" s="96">
+        <v>1979</v>
+      </c>
+      <c r="S7" s="49">
+        <v>10</v>
+      </c>
+      <c r="T7" s="49">
+        <f>AVERAGE(B6:B15)</f>
+        <v>27.4</v>
+      </c>
+      <c r="U7" s="53"/>
+      <c r="V7" s="97">
+        <f>AVERAGE(C6:C15)</f>
+        <v>8.7099999999999991</v>
+      </c>
+      <c r="W7" s="97">
+        <f t="shared" ref="W7:X7" si="0">AVERAGE(D6:D15)</f>
+        <v>2.391</v>
+      </c>
+      <c r="X7" s="97">
+        <f t="shared" si="0"/>
+        <v>3.1530000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="63">
+        <v>3</v>
+      </c>
+      <c r="B8" s="53">
+        <v>24</v>
+      </c>
+      <c r="C8" s="98">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D8" s="98">
+        <v>1.69</v>
+      </c>
+      <c r="E8" s="98">
+        <v>2.73</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="53">
+        <v>29</v>
+      </c>
+      <c r="H8" s="98">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I8" s="98">
+        <v>2</v>
+      </c>
+      <c r="J8" s="98">
+        <v>3.33</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="53">
+        <v>26</v>
+      </c>
+      <c r="M8" s="98">
+        <v>7.8</v>
+      </c>
+      <c r="N8" s="98">
+        <v>2.35</v>
+      </c>
+      <c r="O8" s="98">
+        <v>3.33</v>
+      </c>
+      <c r="R8" s="37">
+        <v>1999</v>
+      </c>
+      <c r="S8" s="49">
+        <v>10</v>
+      </c>
+      <c r="T8" s="53">
+        <f>AVERAGE(G6:G15)</f>
+        <v>27.8</v>
+      </c>
+      <c r="U8" s="53"/>
+      <c r="V8" s="98">
+        <f>AVERAGE(H6:H15)</f>
+        <v>8.16</v>
+      </c>
+      <c r="W8" s="98">
+        <f t="shared" ref="W8:X8" si="1">AVERAGE(I6:I15)</f>
+        <v>1.8649999999999998</v>
+      </c>
+      <c r="X8" s="98">
+        <f t="shared" si="1"/>
+        <v>3.378000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="103">
+        <v>4</v>
+      </c>
+      <c r="B9" s="49">
+        <v>29</v>
+      </c>
+      <c r="C9" s="97">
+        <v>9.5</v>
+      </c>
+      <c r="D9" s="97">
+        <v>2.46</v>
+      </c>
+      <c r="E9" s="97">
+        <v>3.05</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="49">
+        <v>29</v>
+      </c>
+      <c r="H9" s="97">
+        <v>7.9</v>
+      </c>
+      <c r="I9" s="97">
+        <v>1.66</v>
+      </c>
+      <c r="J9" s="97">
+        <v>3.67</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="49">
+        <v>24</v>
+      </c>
+      <c r="M9" s="97">
+        <v>7.5</v>
+      </c>
+      <c r="N9" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="O9" s="97">
+        <v>3.2</v>
+      </c>
+      <c r="R9" s="96">
+        <v>2019</v>
+      </c>
+      <c r="S9" s="49">
+        <v>10</v>
+      </c>
+      <c r="T9" s="49">
+        <f>AVERAGE(L6:L15)</f>
+        <v>25.3</v>
+      </c>
+      <c r="U9" s="53"/>
+      <c r="V9" s="97">
+        <f>AVERAGE(M6:M15)</f>
+        <v>7.7100000000000009</v>
+      </c>
+      <c r="W9" s="97">
+        <f>AVERAGE(N6:N15)</f>
+        <v>2.766</v>
+      </c>
+      <c r="X9" s="97">
+        <f>AVERAGE(O6:O15)</f>
+        <v>3.2809999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="63">
+        <v>5</v>
+      </c>
+      <c r="B10" s="53">
+        <v>26</v>
+      </c>
+      <c r="C10" s="100">
+        <v>8.9</v>
+      </c>
+      <c r="D10" s="100">
+        <v>2.81</v>
+      </c>
+      <c r="E10" s="100">
+        <v>2.92</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="53">
+        <v>29</v>
+      </c>
+      <c r="H10" s="100">
+        <v>8.1</v>
+      </c>
+      <c r="I10" s="100">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J10" s="100">
+        <v>3.58</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="53">
+        <v>27</v>
+      </c>
+      <c r="M10" s="100">
+        <v>7.9</v>
+      </c>
+      <c r="N10" s="100">
+        <v>3.25</v>
+      </c>
+      <c r="O10" s="100">
+        <v>3.42</v>
+      </c>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="103">
+        <v>6</v>
+      </c>
+      <c r="B11" s="49">
+        <v>26</v>
+      </c>
+      <c r="C11" s="97">
+        <v>7.2</v>
+      </c>
+      <c r="D11" s="97">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E11" s="97">
+        <v>3.61</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="49">
+        <v>27</v>
+      </c>
+      <c r="H11" s="97">
+        <v>8.4</v>
+      </c>
+      <c r="I11" s="97">
+        <v>2.46</v>
+      </c>
+      <c r="J11" s="97">
+        <v>3.21</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="49">
+        <v>29</v>
+      </c>
+      <c r="M11" s="97">
+        <v>8.4</v>
+      </c>
+      <c r="N11" s="97">
+        <v>3.03</v>
+      </c>
+      <c r="O11" s="97">
+        <v>3.45</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="63">
+        <v>7</v>
+      </c>
+      <c r="B12" s="49">
+        <v>27</v>
+      </c>
+      <c r="C12" s="97">
+        <v>8.5</v>
+      </c>
+      <c r="D12" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="E12" s="97">
+        <v>3.18</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="35">
+        <v>29</v>
+      </c>
+      <c r="H12" s="98">
+        <v>7.9</v>
+      </c>
+      <c r="I12" s="98">
+        <v>1.2</v>
+      </c>
+      <c r="J12" s="98">
+        <v>3.67</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="35">
+        <v>23</v>
+      </c>
+      <c r="M12" s="98">
+        <v>7.8</v>
+      </c>
+      <c r="N12" s="98">
+        <v>2.25</v>
+      </c>
+      <c r="O12" s="98">
+        <v>2.95</v>
+      </c>
+      <c r="R12" s="96">
+        <v>1979</v>
+      </c>
+      <c r="S12" s="49">
+        <v>10</v>
+      </c>
+      <c r="T12" s="49">
+        <f>AVERAGE(B21:B30)</f>
+        <v>35.1</v>
+      </c>
+      <c r="U12" s="53"/>
+      <c r="V12" s="97">
+        <f>AVERAGE(C21:C30)</f>
+        <v>10.9</v>
+      </c>
+      <c r="W12" s="97">
+        <f t="shared" ref="W12:X12" si="2">AVERAGE(D21:D30)</f>
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="X12" s="97">
+        <f t="shared" si="2"/>
+        <v>3.2299999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="103">
+        <v>8</v>
+      </c>
+      <c r="B13" s="49">
+        <v>26</v>
+      </c>
+      <c r="C13" s="97">
+        <v>8.4</v>
+      </c>
+      <c r="D13" s="97">
+        <v>2.72</v>
+      </c>
+      <c r="E13" s="97">
+        <v>3.1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="53">
+        <v>30</v>
+      </c>
+      <c r="H13" s="98">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I13" s="98">
+        <v>2.31</v>
+      </c>
+      <c r="J13" s="98">
+        <v>3.61</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="53">
+        <v>27</v>
+      </c>
+      <c r="M13" s="98">
+        <v>7.7</v>
+      </c>
+      <c r="N13" s="98">
+        <v>3.13</v>
+      </c>
+      <c r="O13" s="98">
+        <v>3.51</v>
+      </c>
+      <c r="R13" s="37">
+        <v>1999</v>
+      </c>
+      <c r="S13" s="49">
+        <v>10</v>
+      </c>
+      <c r="T13" s="53">
+        <f>AVERAGE(G21:G30)</f>
+        <v>30.4</v>
+      </c>
+      <c r="U13" s="53"/>
+      <c r="V13" s="98">
+        <f>AVERAGE(H21:H30)</f>
+        <v>9.6399999999999988</v>
+      </c>
+      <c r="W13" s="98">
+        <f t="shared" ref="W13:X13" si="3">AVERAGE(I21:I30)</f>
+        <v>3.6129999999999995</v>
+      </c>
+      <c r="X13" s="98">
+        <f t="shared" si="3"/>
+        <v>3.214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="63">
+        <v>9</v>
+      </c>
+      <c r="B14" s="49">
+        <v>33</v>
+      </c>
+      <c r="C14" s="97">
+        <v>9.6</v>
+      </c>
+      <c r="D14" s="97">
+        <v>2.72</v>
+      </c>
+      <c r="E14" s="97">
+        <v>3.44</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="65">
+        <v>29</v>
+      </c>
+      <c r="H14" s="104">
+        <v>8.6</v>
+      </c>
+      <c r="I14" s="104">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J14" s="104">
+        <v>3.37</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="65">
+        <v>25</v>
+      </c>
+      <c r="M14" s="104">
+        <v>6.9</v>
+      </c>
+      <c r="N14" s="104">
+        <v>2.69</v>
+      </c>
+      <c r="O14" s="104">
+        <v>3.62</v>
+      </c>
+      <c r="R14" s="96">
+        <v>2019</v>
+      </c>
+      <c r="S14" s="49">
+        <v>10</v>
+      </c>
+      <c r="T14" s="49">
+        <f>AVERAGE(L21:L30)</f>
+        <v>21.7</v>
+      </c>
+      <c r="U14" s="53"/>
+      <c r="V14" s="97">
+        <f>AVERAGE(M21:M30)</f>
+        <v>5.71</v>
+      </c>
+      <c r="W14" s="97">
+        <f t="shared" ref="W14:X14" si="4">AVERAGE(N21:N30)</f>
+        <v>2.6919999999999993</v>
+      </c>
+      <c r="X14" s="97">
+        <f t="shared" si="4"/>
+        <v>3.8259999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="103">
+        <v>10</v>
+      </c>
+      <c r="B15" s="49">
+        <v>27</v>
+      </c>
+      <c r="C15" s="97">
+        <v>8.9</v>
+      </c>
+      <c r="D15" s="97">
+        <v>2.23</v>
+      </c>
+      <c r="E15" s="97">
+        <v>3.03</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="49">
+        <v>26</v>
+      </c>
+      <c r="H15" s="97">
+        <v>7.2</v>
+      </c>
+      <c r="I15" s="97">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J15" s="97">
+        <v>3.61</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="49">
+        <v>24</v>
+      </c>
+      <c r="M15" s="97">
+        <v>7.5</v>
+      </c>
+      <c r="N15" s="97">
+        <v>2.95</v>
+      </c>
+      <c r="O15" s="97">
+        <v>3.2</v>
+      </c>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="99"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="95"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="R16" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="R17" s="96">
+        <v>1979</v>
+      </c>
+      <c r="S17" s="49">
+        <v>10</v>
+      </c>
+      <c r="T17" s="49">
+        <f>AVERAGE(B36:B45)</f>
+        <v>27.3</v>
+      </c>
+      <c r="U17" s="53"/>
+      <c r="V17" s="97">
+        <f>AVERAGE(C36:C45)</f>
+        <v>11.040000000000001</v>
+      </c>
+      <c r="W17" s="97">
+        <f t="shared" ref="W17:X17" si="5">AVERAGE(D36:D45)</f>
+        <v>3.597</v>
+      </c>
+      <c r="X17" s="97">
+        <f t="shared" si="5"/>
+        <v>2.4810000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="R18" s="37">
+        <v>1999</v>
+      </c>
+      <c r="S18" s="49">
+        <v>10</v>
+      </c>
+      <c r="T18" s="53">
+        <f>AVERAGE(G36:G45)</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="U18" s="53"/>
+      <c r="V18" s="98">
+        <f>AVERAGE(H36:H45)</f>
+        <v>11.32</v>
+      </c>
+      <c r="W18" s="98">
+        <f t="shared" ref="W18:X18" si="6">AVERAGE(I36:I45)</f>
+        <v>3.181</v>
+      </c>
+      <c r="X18" s="98">
+        <f t="shared" si="6"/>
+        <v>2.8579999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="150">
+        <v>1979</v>
+      </c>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="G19" s="150">
+        <v>1999</v>
+      </c>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="L19" s="150">
+        <v>2019</v>
+      </c>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="R19" s="96">
+        <v>2019</v>
+      </c>
+      <c r="S19" s="49">
+        <v>10</v>
+      </c>
+      <c r="T19" s="49">
+        <f>AVERAGE(L36:L45)</f>
+        <v>25.7</v>
+      </c>
+      <c r="U19" s="53"/>
+      <c r="V19" s="97">
+        <f>AVERAGE(M36:M45)</f>
+        <v>10.43</v>
+      </c>
+      <c r="W19" s="97">
+        <f t="shared" ref="W19:X19" si="7">AVERAGE(N36:N45)</f>
+        <v>1.8580000000000001</v>
+      </c>
+      <c r="X19" s="97">
+        <f t="shared" si="7"/>
+        <v>2.464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="63">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53">
+        <v>37</v>
+      </c>
+      <c r="C21" s="100">
+        <v>11.5</v>
+      </c>
+      <c r="D21" s="100">
+        <v>3.78</v>
+      </c>
+      <c r="E21" s="100">
+        <v>3.22</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="53">
+        <v>31</v>
+      </c>
+      <c r="H21" s="100">
+        <v>10.3</v>
+      </c>
+      <c r="I21" s="100">
+        <v>4.95</v>
+      </c>
+      <c r="J21" s="100">
+        <v>3.01</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="53">
+        <v>17</v>
+      </c>
+      <c r="M21" s="100">
+        <v>4.7</v>
+      </c>
+      <c r="N21" s="100">
+        <v>2</v>
+      </c>
+      <c r="O21" s="100">
+        <v>3.62</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="103">
+        <v>2</v>
+      </c>
+      <c r="B22" s="49">
+        <v>33</v>
+      </c>
+      <c r="C22" s="97">
+        <v>10.1</v>
+      </c>
+      <c r="D22" s="97">
+        <v>4.07</v>
+      </c>
+      <c r="E22" s="97">
+        <v>3.27</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="49">
+        <v>32</v>
+      </c>
+      <c r="H22" s="97">
+        <v>9.1</v>
+      </c>
+      <c r="I22" s="97">
+        <v>3.67</v>
+      </c>
+      <c r="J22" s="97">
+        <v>3.52</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="49">
+        <v>20</v>
+      </c>
+      <c r="M22" s="97">
+        <v>5.5</v>
+      </c>
+      <c r="N22" s="97">
+        <v>2.17</v>
+      </c>
+      <c r="O22" s="97">
+        <v>3.64</v>
+      </c>
+      <c r="R22" s="96">
+        <v>1979</v>
+      </c>
+      <c r="S22" s="49">
+        <v>30</v>
+      </c>
+      <c r="T22" s="49">
+        <f>AVERAGE(B51:B60)</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="U22" s="37"/>
+      <c r="V22" s="97">
+        <f>AVERAGE(C51:C60)</f>
+        <v>10.216000000000001</v>
+      </c>
+      <c r="W22" s="97">
+        <f t="shared" ref="W22:X22" si="8">AVERAGE(D51:D60)</f>
+        <v>3.5289999999999999</v>
+      </c>
+      <c r="X22" s="97">
+        <f t="shared" si="8"/>
+        <v>3.9989999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="63">
+        <v>3</v>
+      </c>
+      <c r="B23" s="53">
+        <v>39</v>
+      </c>
+      <c r="C23" s="98">
+        <v>12.8</v>
+      </c>
+      <c r="D23" s="98">
+        <v>4.49</v>
+      </c>
+      <c r="E23" s="98">
+        <v>3.05</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="53">
+        <v>31</v>
+      </c>
+      <c r="H23" s="98">
+        <v>8</v>
+      </c>
+      <c r="I23" s="98">
+        <v>2.94</v>
+      </c>
+      <c r="J23" s="98">
+        <v>3.88</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="53">
+        <v>22</v>
+      </c>
+      <c r="M23" s="98">
+        <v>5.4</v>
+      </c>
+      <c r="N23" s="98">
+        <v>2.59</v>
+      </c>
+      <c r="O23" s="98">
+        <v>4.07</v>
+      </c>
+      <c r="R23" s="37">
+        <v>1999</v>
+      </c>
+      <c r="S23" s="49">
+        <v>30</v>
+      </c>
+      <c r="T23" s="53">
+        <f>AVERAGE(G51:G60)</f>
+        <v>40.1</v>
+      </c>
+      <c r="U23" s="37"/>
+      <c r="V23" s="100">
+        <f>AVERAGE(H51:H60)</f>
+        <v>9.706999999999999</v>
+      </c>
+      <c r="W23" s="100">
+        <f t="shared" ref="W23:X23" si="9">AVERAGE(I51:I60)</f>
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="X23" s="100">
+        <f t="shared" si="9"/>
+        <v>4.1420000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="103">
+        <v>4</v>
+      </c>
+      <c r="B24" s="49">
+        <v>31</v>
+      </c>
+      <c r="C24" s="97">
+        <v>10.1</v>
+      </c>
+      <c r="D24" s="97">
+        <v>4.2</v>
+      </c>
+      <c r="E24" s="97">
+        <v>3.07</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="49">
+        <v>30</v>
+      </c>
+      <c r="H24" s="97">
+        <v>10.7</v>
+      </c>
+      <c r="I24" s="97">
+        <v>4.45</v>
+      </c>
+      <c r="J24" s="97">
+        <v>2.8</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="49">
+        <v>21</v>
+      </c>
+      <c r="M24" s="97">
+        <v>5.2</v>
+      </c>
+      <c r="N24" s="97">
+        <v>2.78</v>
+      </c>
+      <c r="O24" s="97">
+        <v>4.04</v>
+      </c>
+      <c r="R24" s="96">
+        <v>2019</v>
+      </c>
+      <c r="S24" s="49">
+        <v>30</v>
+      </c>
+      <c r="T24" s="49">
+        <f>AVERAGE(L51:L60)</f>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="U24" s="37"/>
+      <c r="V24" s="97">
+        <f>AVERAGE(M51:M60)</f>
+        <v>7.9449999999999985</v>
+      </c>
+      <c r="W24" s="97">
+        <f t="shared" ref="W24:X24" si="10">AVERAGE(N51:N60)</f>
+        <v>3.1510000000000002</v>
+      </c>
+      <c r="X24" s="97">
+        <f t="shared" si="10"/>
+        <v>4.697000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="63">
+        <v>5</v>
+      </c>
+      <c r="B25" s="53">
+        <v>37</v>
+      </c>
+      <c r="C25" s="100">
+        <v>11.7</v>
+      </c>
+      <c r="D25" s="100">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="100">
+        <v>3.16</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="53">
+        <v>31</v>
+      </c>
+      <c r="H25" s="100">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I25" s="100">
+        <v>3.88</v>
+      </c>
+      <c r="J25" s="100">
+        <v>3.78</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="53">
+        <v>23</v>
+      </c>
+      <c r="M25" s="100">
+        <v>7</v>
+      </c>
+      <c r="N25" s="100">
+        <v>2.83</v>
+      </c>
+      <c r="O25" s="100">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="103">
+        <v>6</v>
+      </c>
+      <c r="B26" s="49">
+        <v>32</v>
+      </c>
+      <c r="C26" s="97">
+        <v>11.2</v>
+      </c>
+      <c r="D26" s="97">
+        <v>3.91</v>
+      </c>
+      <c r="E26" s="97">
+        <v>2.86</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="49">
+        <v>32</v>
+      </c>
+      <c r="H26" s="97">
+        <v>12.9</v>
+      </c>
+      <c r="I26" s="97">
+        <v>2.82</v>
+      </c>
+      <c r="J26" s="97">
+        <v>2.48</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="49">
+        <v>19</v>
+      </c>
+      <c r="M26" s="97">
+        <v>5.3</v>
+      </c>
+      <c r="N26" s="97">
+        <v>2.71</v>
+      </c>
+      <c r="O26" s="97">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="63">
+        <v>7</v>
+      </c>
+      <c r="B27" s="49">
+        <v>35</v>
+      </c>
+      <c r="C27" s="97">
+        <v>11</v>
+      </c>
+      <c r="D27" s="97">
+        <v>3.94</v>
+      </c>
+      <c r="E27" s="97">
+        <v>3.18</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="35">
+        <v>30</v>
+      </c>
+      <c r="H27" s="98">
+        <v>9.1</v>
+      </c>
+      <c r="I27" s="98">
+        <v>3.21</v>
+      </c>
+      <c r="J27" s="98">
+        <v>3.3</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="35">
+        <v>23</v>
+      </c>
+      <c r="M27" s="98">
+        <v>5.9</v>
+      </c>
+      <c r="N27" s="98">
+        <v>2.88</v>
+      </c>
+      <c r="O27" s="98">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="103">
+        <v>8</v>
+      </c>
+      <c r="B28" s="49">
+        <v>35</v>
+      </c>
+      <c r="C28" s="97">
+        <v>10.5</v>
+      </c>
+      <c r="D28" s="97">
+        <v>4.12</v>
+      </c>
+      <c r="E28" s="97">
+        <v>3.33</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="53">
+        <v>27</v>
+      </c>
+      <c r="H28" s="98">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I28" s="98">
+        <v>3.06</v>
+      </c>
+      <c r="J28" s="98">
+        <v>3.25</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="53">
+        <v>25</v>
+      </c>
+      <c r="M28" s="98">
+        <v>6.5</v>
+      </c>
+      <c r="N28" s="98">
+        <v>3.31</v>
+      </c>
+      <c r="O28" s="98">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="63">
+        <v>9</v>
+      </c>
+      <c r="B29" s="49">
+        <v>37</v>
+      </c>
+      <c r="C29" s="97">
+        <v>10.1</v>
+      </c>
+      <c r="D29" s="97">
+        <v>3.93</v>
+      </c>
+      <c r="E29" s="97">
+        <v>3.66</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="65">
+        <v>28</v>
+      </c>
+      <c r="H29" s="104">
+        <v>8.6</v>
+      </c>
+      <c r="I29" s="104">
+        <v>3.24</v>
+      </c>
+      <c r="J29" s="104">
+        <v>3.26</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="65">
+        <v>24</v>
+      </c>
+      <c r="M29" s="104">
+        <v>6.7</v>
+      </c>
+      <c r="N29" s="104">
+        <v>3.23</v>
+      </c>
+      <c r="O29" s="104">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="103">
+        <v>10</v>
+      </c>
+      <c r="B30" s="49">
+        <v>35</v>
+      </c>
+      <c r="C30" s="97">
+        <v>10</v>
+      </c>
+      <c r="D30" s="97">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E30" s="97">
+        <v>3.5</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="49">
+        <v>32</v>
+      </c>
+      <c r="H30" s="97">
+        <v>11.2</v>
+      </c>
+      <c r="I30" s="97">
+        <v>3.91</v>
+      </c>
+      <c r="J30" s="97">
+        <v>2.86</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="49">
+        <v>23</v>
+      </c>
+      <c r="M30" s="97">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N30" s="97">
+        <v>2.42</v>
+      </c>
+      <c r="O30" s="97">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="150">
+        <v>1979</v>
+      </c>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="G34" s="150">
+        <v>1999</v>
+      </c>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="L34" s="150">
+        <v>2019</v>
+      </c>
+      <c r="M34" s="150"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="150"/>
+    </row>
+    <row r="35" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="63">
+        <v>1</v>
+      </c>
+      <c r="B36" s="53">
+        <v>27</v>
+      </c>
+      <c r="C36" s="100">
+        <v>10.8</v>
+      </c>
+      <c r="D36" s="100">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E36" s="100">
+        <v>2.5</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="53">
+        <v>31</v>
+      </c>
+      <c r="H36" s="100">
+        <v>11</v>
+      </c>
+      <c r="I36" s="100">
+        <v>3.68</v>
+      </c>
+      <c r="J36" s="100">
+        <v>2.82</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="53">
+        <v>24</v>
+      </c>
+      <c r="M36" s="100">
+        <v>11</v>
+      </c>
+      <c r="N36" s="100">
+        <v>1.7</v>
+      </c>
+      <c r="O36" s="100">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="103">
+        <v>2</v>
+      </c>
+      <c r="B37" s="49">
+        <v>29</v>
+      </c>
+      <c r="C37" s="97">
+        <v>11.7</v>
+      </c>
+      <c r="D37" s="97">
+        <v>3.4</v>
+      </c>
+      <c r="E37" s="97">
+        <v>2.48</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="49">
+        <v>31</v>
+      </c>
+      <c r="H37" s="97">
+        <v>11</v>
+      </c>
+      <c r="I37" s="97">
+        <v>2.83</v>
+      </c>
+      <c r="J37" s="97">
+        <v>2.82</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="49">
+        <v>23</v>
+      </c>
+      <c r="M37" s="97">
+        <v>10.6</v>
+      </c>
+      <c r="N37" s="97">
+        <v>1.07</v>
+      </c>
+      <c r="O37" s="97">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="63">
+        <v>3</v>
+      </c>
+      <c r="B38" s="53">
+        <v>29</v>
+      </c>
+      <c r="C38" s="98">
+        <v>11.1</v>
+      </c>
+      <c r="D38" s="98">
+        <v>4.51</v>
+      </c>
+      <c r="E38" s="98">
+        <v>2.61</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="53">
+        <v>32</v>
+      </c>
+      <c r="H38" s="98">
+        <v>11.7</v>
+      </c>
+      <c r="I38" s="98">
+        <v>3.43</v>
+      </c>
+      <c r="J38" s="98">
+        <v>2.74</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="53">
+        <v>22</v>
+      </c>
+      <c r="M38" s="98">
+        <v>9.4</v>
+      </c>
+      <c r="N38" s="98">
+        <v>2.12</v>
+      </c>
+      <c r="O38" s="98">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="103">
+        <v>4</v>
+      </c>
+      <c r="B39" s="49">
+        <v>27</v>
+      </c>
+      <c r="C39" s="97">
+        <v>12.6</v>
+      </c>
+      <c r="D39" s="97">
+        <v>2.91</v>
+      </c>
+      <c r="E39" s="97">
+        <v>2.14</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="49">
+        <v>32</v>
+      </c>
+      <c r="H39" s="97">
+        <v>11.5</v>
+      </c>
+      <c r="I39" s="97">
+        <v>3.34</v>
+      </c>
+      <c r="J39" s="97">
+        <v>2.78</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="49">
+        <v>27</v>
+      </c>
+      <c r="M39" s="97">
+        <v>10.7</v>
+      </c>
+      <c r="N39" s="97">
+        <v>0.82</v>
+      </c>
+      <c r="O39" s="97">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="63">
+        <v>5</v>
+      </c>
+      <c r="B40" s="53">
+        <v>27</v>
+      </c>
+      <c r="C40" s="100">
+        <v>11.4</v>
+      </c>
+      <c r="D40" s="100">
+        <v>4.22</v>
+      </c>
+      <c r="E40" s="100">
+        <v>2.37</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="53">
+        <v>32</v>
+      </c>
+      <c r="H40" s="100">
+        <v>11.8</v>
+      </c>
+      <c r="I40" s="100">
+        <v>3.43</v>
+      </c>
+      <c r="J40" s="100">
+        <v>2.71</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="53">
+        <v>24</v>
+      </c>
+      <c r="M40" s="100">
+        <v>10.6</v>
+      </c>
+      <c r="N40" s="100">
+        <v>1.78</v>
+      </c>
+      <c r="O40" s="100">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="103">
+        <v>6</v>
+      </c>
+      <c r="B41" s="49">
+        <v>34</v>
+      </c>
+      <c r="C41" s="97">
+        <v>10.9</v>
+      </c>
+      <c r="D41" s="97">
+        <v>2.64</v>
+      </c>
+      <c r="E41" s="97">
+        <v>3.12</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="49">
+        <v>33</v>
+      </c>
+      <c r="H41" s="97">
+        <v>11.8</v>
+      </c>
+      <c r="I41" s="97">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J41" s="97">
+        <v>2.8</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="49">
+        <v>27</v>
+      </c>
+      <c r="M41" s="97">
+        <v>10.3</v>
+      </c>
+      <c r="N41" s="97">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O41" s="97">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="63">
+        <v>7</v>
+      </c>
+      <c r="B42" s="49">
+        <v>25</v>
+      </c>
+      <c r="C42" s="97">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D42" s="97">
+        <v>3.99</v>
+      </c>
+      <c r="E42" s="97">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="35">
+        <v>33</v>
+      </c>
+      <c r="H42" s="98">
+        <v>11.8</v>
+      </c>
+      <c r="I42" s="98">
+        <v>3.33</v>
+      </c>
+      <c r="J42" s="98">
+        <v>2.8</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="35">
+        <v>27</v>
+      </c>
+      <c r="M42" s="98">
+        <v>10.3</v>
+      </c>
+      <c r="N42" s="98">
+        <v>2.21</v>
+      </c>
+      <c r="O42" s="98">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="103">
+        <v>8</v>
+      </c>
+      <c r="B43" s="49">
+        <v>25</v>
+      </c>
+      <c r="C43" s="97">
+        <v>11.7</v>
+      </c>
+      <c r="D43" s="97">
+        <v>3.13</v>
+      </c>
+      <c r="E43" s="97">
+        <v>2.14</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="53">
+        <v>31</v>
+      </c>
+      <c r="H43" s="98">
+        <v>10.7</v>
+      </c>
+      <c r="I43" s="98">
+        <v>3.62</v>
+      </c>
+      <c r="J43" s="98">
+        <v>2.9</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="53">
+        <v>28</v>
+      </c>
+      <c r="M43" s="98">
+        <v>10.6</v>
+      </c>
+      <c r="N43" s="98">
+        <v>2.12</v>
+      </c>
+      <c r="O43" s="98">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="63">
+        <v>9</v>
+      </c>
+      <c r="B44" s="49">
+        <v>26</v>
+      </c>
+      <c r="C44" s="97">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D44" s="97">
+        <v>3.33</v>
+      </c>
+      <c r="E44" s="97">
+        <v>2.65</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="65">
+        <v>34</v>
+      </c>
+      <c r="H44" s="104">
+        <v>11</v>
+      </c>
+      <c r="I44" s="104">
+        <v>2.98</v>
+      </c>
+      <c r="J44" s="104">
+        <v>3.09</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="65">
+        <v>26</v>
+      </c>
+      <c r="M44" s="104">
+        <v>10.6</v>
+      </c>
+      <c r="N44" s="104">
+        <v>1.84</v>
+      </c>
+      <c r="O44" s="104">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="103">
+        <v>10</v>
+      </c>
+      <c r="B45" s="49">
+        <v>24</v>
+      </c>
+      <c r="C45" s="97">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D45" s="97">
+        <v>3.82</v>
+      </c>
+      <c r="E45" s="97">
+        <v>2.35</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="49">
+        <v>34</v>
+      </c>
+      <c r="H45" s="97">
+        <v>10.9</v>
+      </c>
+      <c r="I45" s="97">
+        <v>2.64</v>
+      </c>
+      <c r="J45" s="97">
+        <v>3.12</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="49">
+        <v>29</v>
+      </c>
+      <c r="M45" s="97">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N45" s="97">
+        <v>2.66</v>
+      </c>
+      <c r="O45" s="97">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="150">
+        <v>1979</v>
+      </c>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="G49" s="150">
+        <v>1999</v>
+      </c>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="L49" s="150">
+        <v>2019</v>
+      </c>
+      <c r="M49" s="150"/>
+      <c r="N49" s="150"/>
+      <c r="O49" s="150"/>
+    </row>
+    <row r="50" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="L50" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="N50" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="63">
+        <v>1</v>
+      </c>
+      <c r="B51" s="53">
+        <v>40</v>
+      </c>
+      <c r="C51" s="53">
+        <v>10.33</v>
+      </c>
+      <c r="D51" s="53">
+        <v>3.62</v>
+      </c>
+      <c r="E51" s="53">
+        <v>3.87</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="53">
+        <v>39</v>
+      </c>
+      <c r="H51" s="53">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="I51" s="53">
+        <v>3.72</v>
+      </c>
+      <c r="J51" s="53">
+        <v>3.89</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="53">
+        <v>35</v>
+      </c>
+      <c r="M51" s="100">
+        <v>7.63</v>
+      </c>
+      <c r="N51" s="100">
+        <v>3.42</v>
+      </c>
+      <c r="O51" s="100">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="103">
+        <v>2</v>
+      </c>
+      <c r="B52" s="49">
+        <v>42</v>
+      </c>
+      <c r="C52" s="97">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D52" s="97">
+        <v>3.48</v>
+      </c>
+      <c r="E52" s="97">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="49">
+        <v>38</v>
+      </c>
+      <c r="H52" s="97">
+        <v>9.27</v>
+      </c>
+      <c r="I52" s="97">
+        <v>3.07</v>
+      </c>
+      <c r="J52" s="97">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="49">
+        <v>36</v>
+      </c>
+      <c r="M52" s="97">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="N52" s="97">
+        <v>2.76</v>
+      </c>
+      <c r="O52" s="97">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="63">
+        <v>3</v>
+      </c>
+      <c r="B53" s="53">
+        <v>43</v>
+      </c>
+      <c r="C53" s="98">
+        <v>10.9</v>
+      </c>
+      <c r="D53" s="98">
+        <v>4.03</v>
+      </c>
+      <c r="E53" s="98">
+        <v>3.94</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="53">
+        <v>41</v>
+      </c>
+      <c r="H53" s="98">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="I53" s="98">
+        <v>3.2</v>
+      </c>
+      <c r="J53" s="98">
+        <v>4.33</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="53">
+        <v>37</v>
+      </c>
+      <c r="M53" s="98">
+        <v>7.53</v>
+      </c>
+      <c r="N53" s="98">
+        <v>2.83</v>
+      </c>
+      <c r="O53" s="98">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="103">
+        <v>4</v>
+      </c>
+      <c r="B54" s="49">
+        <v>40</v>
+      </c>
+      <c r="C54" s="97">
+        <v>10.73</v>
+      </c>
+      <c r="D54" s="97">
+        <v>3.44</v>
+      </c>
+      <c r="E54" s="97">
+        <v>3.73</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="49">
+        <v>42</v>
+      </c>
+      <c r="H54" s="97">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="I54" s="97">
+        <v>3.6</v>
+      </c>
+      <c r="J54" s="97">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="49">
+        <v>36</v>
+      </c>
+      <c r="M54" s="97">
+        <v>7.8</v>
+      </c>
+      <c r="N54" s="97">
+        <v>3.29</v>
+      </c>
+      <c r="O54" s="97">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="63">
+        <v>5</v>
+      </c>
+      <c r="B55" s="53">
+        <v>38</v>
+      </c>
+      <c r="C55" s="100">
+        <v>10.67</v>
+      </c>
+      <c r="D55" s="100">
+        <v>3.4</v>
+      </c>
+      <c r="E55" s="100">
+        <v>3.56</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="53">
+        <v>39</v>
+      </c>
+      <c r="H55" s="100">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="I55" s="100">
+        <v>3.59</v>
+      </c>
+      <c r="J55" s="100">
+        <v>4.16</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="53">
+        <v>37</v>
+      </c>
+      <c r="M55" s="100">
+        <v>8.5</v>
+      </c>
+      <c r="N55" s="100">
+        <v>3.03</v>
+      </c>
+      <c r="O55" s="100">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="103">
+        <v>6</v>
+      </c>
+      <c r="B56" s="49">
+        <v>40</v>
+      </c>
+      <c r="C56" s="97">
+        <v>9.77</v>
+      </c>
+      <c r="D56" s="97">
+        <v>3.28</v>
+      </c>
+      <c r="E56" s="97">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="49">
+        <v>41</v>
+      </c>
+      <c r="H56" s="97">
+        <v>11.03</v>
+      </c>
+      <c r="I56" s="97">
+        <v>3.05</v>
+      </c>
+      <c r="J56" s="97">
+        <v>3.72</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="49">
+        <v>38</v>
+      </c>
+      <c r="M56" s="97">
+        <v>8</v>
+      </c>
+      <c r="N56" s="97">
+        <v>3.33</v>
+      </c>
+      <c r="O56" s="97">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="63">
+        <v>7</v>
+      </c>
+      <c r="B57" s="49">
+        <v>41</v>
+      </c>
+      <c r="C57" s="97">
+        <v>9.9</v>
+      </c>
+      <c r="D57" s="97">
+        <v>3.73</v>
+      </c>
+      <c r="E57" s="97">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="35">
+        <v>42</v>
+      </c>
+      <c r="H57" s="98">
+        <v>9.6</v>
+      </c>
+      <c r="I57" s="98">
+        <v>3.14</v>
+      </c>
+      <c r="J57" s="98">
+        <v>4.38</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="35">
+        <v>38</v>
+      </c>
+      <c r="M57" s="98">
+        <v>8</v>
+      </c>
+      <c r="N57" s="98">
+        <v>3.01</v>
+      </c>
+      <c r="O57" s="98">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="103">
+        <v>8</v>
+      </c>
+      <c r="B58" s="49">
+        <v>42</v>
+      </c>
+      <c r="C58" s="97">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D58" s="97">
+        <v>3.54</v>
+      </c>
+      <c r="E58" s="97">
+        <v>4.12</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="53">
+        <v>39</v>
+      </c>
+      <c r="H58" s="98">
+        <v>9.1</v>
+      </c>
+      <c r="I58" s="98">
+        <v>3.16</v>
+      </c>
+      <c r="J58" s="98">
+        <v>4.29</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="53">
+        <v>40</v>
+      </c>
+      <c r="M58" s="98">
+        <v>8.27</v>
+      </c>
+      <c r="N58" s="98">
+        <v>3.3</v>
+      </c>
+      <c r="O58" s="98">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="63">
+        <v>9</v>
+      </c>
+      <c r="B59" s="49">
+        <v>42</v>
+      </c>
+      <c r="C59" s="97">
+        <v>9.83</v>
+      </c>
+      <c r="D59" s="97">
+        <v>3.25</v>
+      </c>
+      <c r="E59" s="97">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="65">
+        <v>40</v>
+      </c>
+      <c r="H59" s="104">
+        <v>9.4</v>
+      </c>
+      <c r="I59" s="104">
+        <v>2.94</v>
+      </c>
+      <c r="J59" s="104">
+        <v>4.26</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="65">
+        <v>36</v>
+      </c>
+      <c r="M59" s="104">
+        <v>8.07</v>
+      </c>
+      <c r="N59" s="104">
+        <v>3.14</v>
+      </c>
+      <c r="O59" s="104">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="103">
+        <v>10</v>
+      </c>
+      <c r="B60" s="49">
+        <v>40</v>
+      </c>
+      <c r="C60" s="97">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D60" s="97">
+        <v>3.52</v>
+      </c>
+      <c r="E60" s="97">
+        <v>4.12</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="49">
+        <v>40</v>
+      </c>
+      <c r="H60" s="97">
+        <v>9.77</v>
+      </c>
+      <c r="I60" s="97">
+        <v>3.28</v>
+      </c>
+      <c r="J60" s="97">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="49">
+        <v>40</v>
+      </c>
+      <c r="M60" s="97">
+        <v>7.53</v>
+      </c>
+      <c r="N60" s="97">
+        <v>3.4</v>
+      </c>
+      <c r="O60" s="97">
+        <v>5.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2E5AD5-9603-4937-A6C5-8CB56B67A804}">
   <dimension ref="A1:X60"/>
   <sheetViews>
@@ -5889,7 +8686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE49A6CE-51F8-4C38-9877-632622635B42}">
   <dimension ref="A3:C6"/>
   <sheetViews>
@@ -5953,7 +8750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E39F2F4-922C-4DC7-AF1C-C568276BB17B}">
   <dimension ref="C3:G9"/>
   <sheetViews>
@@ -7351,8 +10148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE669788-659D-4EAF-B36B-1819B9AB1B21}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7963,6 +10760,946 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE13570-C3C9-4731-A0D6-C24F502A973B}">
+  <dimension ref="B1:P35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="154" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10" style="156" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="157"/>
+    </row>
+    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162">
+        <v>1979</v>
+      </c>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="162">
+        <v>1999</v>
+      </c>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="162">
+        <v>2019</v>
+      </c>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+    </row>
+    <row r="3" spans="2:16" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="165" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="169"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="165" t="s">
+        <v>318</v>
+      </c>
+      <c r="P3" s="168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="173"/>
+    </row>
+    <row r="5" spans="2:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="175" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="177">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F5" s="178">
+        <v>1E-3</v>
+      </c>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="180" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="183">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="P5" s="184">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="185"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="188">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="F6" s="189">
+        <v>2E-3</v>
+      </c>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="192"/>
+      <c r="N6" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="188">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="P6" s="249">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="185"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="187" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="188">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F7" s="189">
+        <v>1E-3</v>
+      </c>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="198"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="185"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="204"/>
+    </row>
+    <row r="9" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="185"/>
+      <c r="C9" s="205" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="206" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="207">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F9" s="208">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" s="209"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="206" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="207">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="K9" s="208">
+        <v>1E-3</v>
+      </c>
+      <c r="L9" s="209"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="211" t="s">
+        <v>325</v>
+      </c>
+      <c r="O9" s="211"/>
+      <c r="P9" s="212"/>
+    </row>
+    <row r="10" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="185"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="197" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="161">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F10" s="213">
+        <v>1E-3</v>
+      </c>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="196"/>
+      <c r="N10" s="253"/>
+      <c r="O10" s="253"/>
+      <c r="P10" s="254"/>
+    </row>
+    <row r="11" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="185"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="203"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="204"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="185"/>
+      <c r="C12" s="205" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="187" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="188">
+        <v>0.371</v>
+      </c>
+      <c r="F12" s="189">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G12" s="209"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="234" t="s">
+        <v>326</v>
+      </c>
+      <c r="J12" s="234"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="187" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="188">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="P12" s="249">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="185"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="258"/>
+      <c r="J13" s="258"/>
+      <c r="K13" s="258"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="200" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="201">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="P13" s="251">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="258"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="188">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="P14" s="249">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="215"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="222"/>
+      <c r="N15" s="217" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="219">
+        <v>0.39</v>
+      </c>
+      <c r="P15" s="252">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="171"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="173"/>
+    </row>
+    <row r="17" spans="2:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="175" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="176" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="177">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F17" s="178">
+        <v>1E-3</v>
+      </c>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="182" t="s">
+        <v>317</v>
+      </c>
+      <c r="J17" s="177">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="K17" s="178">
+        <v>1E-3</v>
+      </c>
+      <c r="L17" s="179"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="182" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="177">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="P17" s="248">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="185"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="188">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="F18" s="189">
+        <v>1E-3</v>
+      </c>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="187" t="s">
+        <v>323</v>
+      </c>
+      <c r="J18" s="188">
+        <v>0.307</v>
+      </c>
+      <c r="K18" s="189">
+        <v>0.109</v>
+      </c>
+      <c r="L18" s="190"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="206" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="207">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="P18" s="250">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="185"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="200" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="201">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="F19" s="202">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" s="190"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="190" t="s">
+        <v>324</v>
+      </c>
+      <c r="J19" s="201">
+        <v>0.307</v>
+      </c>
+      <c r="K19" s="202">
+        <v>0.112</v>
+      </c>
+      <c r="L19" s="190"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="206"/>
+      <c r="O19" s="208"/>
+      <c r="P19" s="226"/>
+    </row>
+    <row r="20" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="185"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="188">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F20" s="189">
+        <v>1E-3</v>
+      </c>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="225"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="196"/>
+      <c r="N20" s="197"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="198"/>
+    </row>
+    <row r="21" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="185"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="192"/>
+      <c r="N21" s="200"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="204"/>
+    </row>
+    <row r="22" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="185"/>
+      <c r="C22" s="205" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="188">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F22" s="189">
+        <v>2E-3</v>
+      </c>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="228" t="s">
+        <v>325</v>
+      </c>
+      <c r="J22" s="228"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="228" t="s">
+        <v>325</v>
+      </c>
+      <c r="O22" s="228"/>
+      <c r="P22" s="229"/>
+    </row>
+    <row r="23" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="185"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="230" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="201">
+        <v>0.436</v>
+      </c>
+      <c r="F23" s="202">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="191"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="192"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="231"/>
+    </row>
+    <row r="24" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="185"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="227" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="188">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F24" s="189">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G24" s="190"/>
+      <c r="H24" s="190"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="192"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="231"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="185"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="232" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="161">
+        <v>0.372</v>
+      </c>
+      <c r="F25" s="213">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="196"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="195"/>
+      <c r="P25" s="233"/>
+    </row>
+    <row r="26" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="185"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="203"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="192"/>
+      <c r="N26" s="200"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="204"/>
+    </row>
+    <row r="27" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="185"/>
+      <c r="C27" s="205" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="234" t="s">
+        <v>327</v>
+      </c>
+      <c r="E27" s="234"/>
+      <c r="F27" s="234"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="187" t="s">
+        <v>291</v>
+      </c>
+      <c r="J27" s="189">
+        <v>0.37</v>
+      </c>
+      <c r="K27" s="189">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L27" s="209"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="235" t="s">
+        <v>330</v>
+      </c>
+      <c r="O27" s="235"/>
+      <c r="P27" s="236"/>
+    </row>
+    <row r="28" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="215"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="237"/>
+      <c r="E28" s="237"/>
+      <c r="F28" s="237"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="238" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28" s="239">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="K28" s="247">
+        <v>0.06</v>
+      </c>
+      <c r="L28" s="220"/>
+      <c r="M28" s="222"/>
+      <c r="N28" s="240"/>
+      <c r="O28" s="240"/>
+      <c r="P28" s="241"/>
+    </row>
+    <row r="29" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="223"/>
+      <c r="O29" s="160"/>
+      <c r="P29" s="173"/>
+    </row>
+    <row r="30" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="175" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="242"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="175" t="s">
+        <v>329</v>
+      </c>
+      <c r="I30" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="177">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="K30" s="178">
+        <v>1E-3</v>
+      </c>
+      <c r="L30" s="179"/>
+      <c r="M30" s="243" t="s">
+        <v>320</v>
+      </c>
+      <c r="N30" s="242" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="178">
+        <v>0.42</v>
+      </c>
+      <c r="P30" s="248">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="185"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="191" t="s">
+        <v>331</v>
+      </c>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="245" t="s">
+        <v>332</v>
+      </c>
+      <c r="J31" s="201">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="K31" s="202">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L31" s="190"/>
+      <c r="M31" s="244"/>
+      <c r="N31" s="187" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="188">
+        <v>0.377</v>
+      </c>
+      <c r="P31" s="249">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="185"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="230" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="201">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="K32" s="202">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L32" s="190"/>
+      <c r="M32" s="192"/>
+      <c r="N32" s="200"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="204"/>
+    </row>
+    <row r="33" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="185"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="230" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="201">
+        <v>0.373</v>
+      </c>
+      <c r="K33" s="202">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L33" s="190"/>
+      <c r="M33" s="246" t="s">
+        <v>321</v>
+      </c>
+      <c r="N33" s="228" t="s">
+        <v>325</v>
+      </c>
+      <c r="O33" s="228"/>
+      <c r="P33" s="229"/>
+    </row>
+    <row r="34" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="185"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="200" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="201">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="K34" s="202">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L34" s="190"/>
+      <c r="M34" s="244"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="195"/>
+      <c r="P34" s="233"/>
+    </row>
+    <row r="35" spans="2:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="215"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="221"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="217" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="218">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K35" s="219">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="220"/>
+      <c r="M35" s="255"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="256"/>
+      <c r="P35" s="257"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="N22:P25"/>
+    <mergeCell ref="N27:P28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:P34"/>
+    <mergeCell ref="D31:F34"/>
+    <mergeCell ref="N9:P10"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="I5:K7"/>
+    <mergeCell ref="I22:K25"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="I12:K15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C22:C25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261D7286-BEB9-4C09-9CD9-2C7DA7A9DDE3}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -8432,7 +12169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC06408-95AD-42B0-8099-9871CB44C152}">
   <dimension ref="B2:M30"/>
   <sheetViews>
@@ -9100,7 +12837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62900B2F-E686-4A03-B0A0-3C0B89D106DB}">
   <dimension ref="B2:M30"/>
   <sheetViews>
@@ -9765,11 +13502,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D15F2D-4AE0-489C-A1F4-3662898A0655}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -9940,7 +13677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53FF8D7-529C-4C93-8B37-0AFD4286268E}">
   <dimension ref="B1:X23"/>
   <sheetViews>
@@ -10992,2453 +14729,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F62766-8C1A-4137-83E0-B0B1E504131D}">
-  <dimension ref="A1:X60"/>
-  <sheetViews>
-    <sheetView topLeftCell="G12" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="101"/>
-      <c r="R3" s="102" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="150">
-        <v>1979</v>
-      </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="G4" s="150">
-        <v>1999</v>
-      </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="L4" s="150">
-        <v>2019</v>
-      </c>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="S4" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="146"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="146" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-    </row>
-    <row r="5" spans="1:24" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="R5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" s="94"/>
-      <c r="V5" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="W5" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="63">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53">
-        <v>27</v>
-      </c>
-      <c r="C6" s="100">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D6" s="100">
-        <v>2.67</v>
-      </c>
-      <c r="E6" s="100">
-        <v>3.1</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="53">
-        <v>29</v>
-      </c>
-      <c r="H6" s="100">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I6" s="100">
-        <v>1.93</v>
-      </c>
-      <c r="J6" s="100">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="53">
-        <v>21</v>
-      </c>
-      <c r="M6" s="100">
-        <v>7.2</v>
-      </c>
-      <c r="N6" s="100">
-        <v>2.9</v>
-      </c>
-      <c r="O6" s="100">
-        <v>2.92</v>
-      </c>
-      <c r="R6" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="103">
-        <v>2</v>
-      </c>
-      <c r="B7" s="49">
-        <v>29</v>
-      </c>
-      <c r="C7" s="97">
-        <v>8.6</v>
-      </c>
-      <c r="D7" s="97">
-        <v>2.37</v>
-      </c>
-      <c r="E7" s="97">
-        <v>3.37</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="49">
-        <v>21</v>
-      </c>
-      <c r="H7" s="97">
-        <v>7.7</v>
-      </c>
-      <c r="I7" s="97">
-        <v>1.7</v>
-      </c>
-      <c r="J7" s="97">
-        <v>2.73</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="49">
-        <v>27</v>
-      </c>
-      <c r="M7" s="97">
-        <v>8.4</v>
-      </c>
-      <c r="N7" s="97">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="O7" s="97">
-        <v>3.21</v>
-      </c>
-      <c r="R7" s="96">
-        <v>1979</v>
-      </c>
-      <c r="S7" s="49">
-        <v>10</v>
-      </c>
-      <c r="T7" s="49">
-        <f>AVERAGE(B6:B15)</f>
-        <v>27.4</v>
-      </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="97">
-        <f>AVERAGE(C6:C15)</f>
-        <v>8.7099999999999991</v>
-      </c>
-      <c r="W7" s="97">
-        <f t="shared" ref="W7:X7" si="0">AVERAGE(D6:D15)</f>
-        <v>2.391</v>
-      </c>
-      <c r="X7" s="97">
-        <f t="shared" si="0"/>
-        <v>3.1530000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="63">
-        <v>3</v>
-      </c>
-      <c r="B8" s="53">
-        <v>24</v>
-      </c>
-      <c r="C8" s="98">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D8" s="98">
-        <v>1.69</v>
-      </c>
-      <c r="E8" s="98">
-        <v>2.73</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="53">
-        <v>29</v>
-      </c>
-      <c r="H8" s="98">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I8" s="98">
-        <v>2</v>
-      </c>
-      <c r="J8" s="98">
-        <v>3.33</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="53">
-        <v>26</v>
-      </c>
-      <c r="M8" s="98">
-        <v>7.8</v>
-      </c>
-      <c r="N8" s="98">
-        <v>2.35</v>
-      </c>
-      <c r="O8" s="98">
-        <v>3.33</v>
-      </c>
-      <c r="R8" s="37">
-        <v>1999</v>
-      </c>
-      <c r="S8" s="49">
-        <v>10</v>
-      </c>
-      <c r="T8" s="53">
-        <f>AVERAGE(G6:G15)</f>
-        <v>27.8</v>
-      </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="98">
-        <f>AVERAGE(H6:H15)</f>
-        <v>8.16</v>
-      </c>
-      <c r="W8" s="98">
-        <f t="shared" ref="W8:X8" si="1">AVERAGE(I6:I15)</f>
-        <v>1.8649999999999998</v>
-      </c>
-      <c r="X8" s="98">
-        <f t="shared" si="1"/>
-        <v>3.378000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="103">
-        <v>4</v>
-      </c>
-      <c r="B9" s="49">
-        <v>29</v>
-      </c>
-      <c r="C9" s="97">
-        <v>9.5</v>
-      </c>
-      <c r="D9" s="97">
-        <v>2.46</v>
-      </c>
-      <c r="E9" s="97">
-        <v>3.05</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="49">
-        <v>29</v>
-      </c>
-      <c r="H9" s="97">
-        <v>7.9</v>
-      </c>
-      <c r="I9" s="97">
-        <v>1.66</v>
-      </c>
-      <c r="J9" s="97">
-        <v>3.67</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="49">
-        <v>24</v>
-      </c>
-      <c r="M9" s="97">
-        <v>7.5</v>
-      </c>
-      <c r="N9" s="97">
-        <v>3.1</v>
-      </c>
-      <c r="O9" s="97">
-        <v>3.2</v>
-      </c>
-      <c r="R9" s="96">
-        <v>2019</v>
-      </c>
-      <c r="S9" s="49">
-        <v>10</v>
-      </c>
-      <c r="T9" s="49">
-        <f>AVERAGE(L6:L15)</f>
-        <v>25.3</v>
-      </c>
-      <c r="U9" s="53"/>
-      <c r="V9" s="97">
-        <f>AVERAGE(M6:M15)</f>
-        <v>7.7100000000000009</v>
-      </c>
-      <c r="W9" s="97">
-        <f>AVERAGE(N6:N15)</f>
-        <v>2.766</v>
-      </c>
-      <c r="X9" s="97">
-        <f>AVERAGE(O6:O15)</f>
-        <v>3.2809999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="63">
-        <v>5</v>
-      </c>
-      <c r="B10" s="53">
-        <v>26</v>
-      </c>
-      <c r="C10" s="100">
-        <v>8.9</v>
-      </c>
-      <c r="D10" s="100">
-        <v>2.81</v>
-      </c>
-      <c r="E10" s="100">
-        <v>2.92</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="53">
-        <v>29</v>
-      </c>
-      <c r="H10" s="100">
-        <v>8.1</v>
-      </c>
-      <c r="I10" s="100">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="J10" s="100">
-        <v>3.58</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53">
-        <v>27</v>
-      </c>
-      <c r="M10" s="100">
-        <v>7.9</v>
-      </c>
-      <c r="N10" s="100">
-        <v>3.25</v>
-      </c>
-      <c r="O10" s="100">
-        <v>3.42</v>
-      </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="103">
-        <v>6</v>
-      </c>
-      <c r="B11" s="49">
-        <v>26</v>
-      </c>
-      <c r="C11" s="97">
-        <v>7.2</v>
-      </c>
-      <c r="D11" s="97">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E11" s="97">
-        <v>3.61</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="49">
-        <v>27</v>
-      </c>
-      <c r="H11" s="97">
-        <v>8.4</v>
-      </c>
-      <c r="I11" s="97">
-        <v>2.46</v>
-      </c>
-      <c r="J11" s="97">
-        <v>3.21</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="49">
-        <v>29</v>
-      </c>
-      <c r="M11" s="97">
-        <v>8.4</v>
-      </c>
-      <c r="N11" s="97">
-        <v>3.03</v>
-      </c>
-      <c r="O11" s="97">
-        <v>3.45</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="63">
-        <v>7</v>
-      </c>
-      <c r="B12" s="49">
-        <v>27</v>
-      </c>
-      <c r="C12" s="97">
-        <v>8.5</v>
-      </c>
-      <c r="D12" s="97">
-        <v>3.1</v>
-      </c>
-      <c r="E12" s="97">
-        <v>3.18</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="35">
-        <v>29</v>
-      </c>
-      <c r="H12" s="98">
-        <v>7.9</v>
-      </c>
-      <c r="I12" s="98">
-        <v>1.2</v>
-      </c>
-      <c r="J12" s="98">
-        <v>3.67</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="35">
-        <v>23</v>
-      </c>
-      <c r="M12" s="98">
-        <v>7.8</v>
-      </c>
-      <c r="N12" s="98">
-        <v>2.25</v>
-      </c>
-      <c r="O12" s="98">
-        <v>2.95</v>
-      </c>
-      <c r="R12" s="96">
-        <v>1979</v>
-      </c>
-      <c r="S12" s="49">
-        <v>10</v>
-      </c>
-      <c r="T12" s="49">
-        <f>AVERAGE(B21:B30)</f>
-        <v>35.1</v>
-      </c>
-      <c r="U12" s="53"/>
-      <c r="V12" s="97">
-        <f>AVERAGE(C21:C30)</f>
-        <v>10.9</v>
-      </c>
-      <c r="W12" s="97">
-        <f t="shared" ref="W12:X12" si="2">AVERAGE(D21:D30)</f>
-        <v>3.9340000000000002</v>
-      </c>
-      <c r="X12" s="97">
-        <f t="shared" si="2"/>
-        <v>3.2299999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="103">
-        <v>8</v>
-      </c>
-      <c r="B13" s="49">
-        <v>26</v>
-      </c>
-      <c r="C13" s="97">
-        <v>8.4</v>
-      </c>
-      <c r="D13" s="97">
-        <v>2.72</v>
-      </c>
-      <c r="E13" s="97">
-        <v>3.1</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="53">
-        <v>30</v>
-      </c>
-      <c r="H13" s="98">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I13" s="98">
-        <v>2.31</v>
-      </c>
-      <c r="J13" s="98">
-        <v>3.61</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="53">
-        <v>27</v>
-      </c>
-      <c r="M13" s="98">
-        <v>7.7</v>
-      </c>
-      <c r="N13" s="98">
-        <v>3.13</v>
-      </c>
-      <c r="O13" s="98">
-        <v>3.51</v>
-      </c>
-      <c r="R13" s="37">
-        <v>1999</v>
-      </c>
-      <c r="S13" s="49">
-        <v>10</v>
-      </c>
-      <c r="T13" s="53">
-        <f>AVERAGE(G21:G30)</f>
-        <v>30.4</v>
-      </c>
-      <c r="U13" s="53"/>
-      <c r="V13" s="98">
-        <f>AVERAGE(H21:H30)</f>
-        <v>9.6399999999999988</v>
-      </c>
-      <c r="W13" s="98">
-        <f t="shared" ref="W13:X13" si="3">AVERAGE(I21:I30)</f>
-        <v>3.6129999999999995</v>
-      </c>
-      <c r="X13" s="98">
-        <f t="shared" si="3"/>
-        <v>3.214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="63">
-        <v>9</v>
-      </c>
-      <c r="B14" s="49">
-        <v>33</v>
-      </c>
-      <c r="C14" s="97">
-        <v>9.6</v>
-      </c>
-      <c r="D14" s="97">
-        <v>2.72</v>
-      </c>
-      <c r="E14" s="97">
-        <v>3.44</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="65">
-        <v>29</v>
-      </c>
-      <c r="H14" s="104">
-        <v>8.6</v>
-      </c>
-      <c r="I14" s="104">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J14" s="104">
-        <v>3.37</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="65">
-        <v>25</v>
-      </c>
-      <c r="M14" s="104">
-        <v>6.9</v>
-      </c>
-      <c r="N14" s="104">
-        <v>2.69</v>
-      </c>
-      <c r="O14" s="104">
-        <v>3.62</v>
-      </c>
-      <c r="R14" s="96">
-        <v>2019</v>
-      </c>
-      <c r="S14" s="49">
-        <v>10</v>
-      </c>
-      <c r="T14" s="49">
-        <f>AVERAGE(L21:L30)</f>
-        <v>21.7</v>
-      </c>
-      <c r="U14" s="53"/>
-      <c r="V14" s="97">
-        <f>AVERAGE(M21:M30)</f>
-        <v>5.71</v>
-      </c>
-      <c r="W14" s="97">
-        <f t="shared" ref="W14:X14" si="4">AVERAGE(N21:N30)</f>
-        <v>2.6919999999999993</v>
-      </c>
-      <c r="X14" s="97">
-        <f t="shared" si="4"/>
-        <v>3.8259999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="103">
-        <v>10</v>
-      </c>
-      <c r="B15" s="49">
-        <v>27</v>
-      </c>
-      <c r="C15" s="97">
-        <v>8.9</v>
-      </c>
-      <c r="D15" s="97">
-        <v>2.23</v>
-      </c>
-      <c r="E15" s="97">
-        <v>3.03</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="49">
-        <v>26</v>
-      </c>
-      <c r="H15" s="97">
-        <v>7.2</v>
-      </c>
-      <c r="I15" s="97">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="J15" s="97">
-        <v>3.61</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="49">
-        <v>24</v>
-      </c>
-      <c r="M15" s="97">
-        <v>7.5</v>
-      </c>
-      <c r="N15" s="97">
-        <v>2.95</v>
-      </c>
-      <c r="O15" s="97">
-        <v>3.2</v>
-      </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="95"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="R16" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="R17" s="96">
-        <v>1979</v>
-      </c>
-      <c r="S17" s="49">
-        <v>10</v>
-      </c>
-      <c r="T17" s="49">
-        <f>AVERAGE(B36:B45)</f>
-        <v>27.3</v>
-      </c>
-      <c r="U17" s="53"/>
-      <c r="V17" s="97">
-        <f>AVERAGE(C36:C45)</f>
-        <v>11.040000000000001</v>
-      </c>
-      <c r="W17" s="97">
-        <f t="shared" ref="W17:X17" si="5">AVERAGE(D36:D45)</f>
-        <v>3.597</v>
-      </c>
-      <c r="X17" s="97">
-        <f t="shared" si="5"/>
-        <v>2.4810000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="R18" s="37">
-        <v>1999</v>
-      </c>
-      <c r="S18" s="49">
-        <v>10</v>
-      </c>
-      <c r="T18" s="53">
-        <f>AVERAGE(G36:G45)</f>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="U18" s="53"/>
-      <c r="V18" s="98">
-        <f>AVERAGE(H36:H45)</f>
-        <v>11.32</v>
-      </c>
-      <c r="W18" s="98">
-        <f t="shared" ref="W18:X18" si="6">AVERAGE(I36:I45)</f>
-        <v>3.181</v>
-      </c>
-      <c r="X18" s="98">
-        <f t="shared" si="6"/>
-        <v>2.8579999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="150">
-        <v>1979</v>
-      </c>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="G19" s="150">
-        <v>1999</v>
-      </c>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="L19" s="150">
-        <v>2019</v>
-      </c>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="R19" s="96">
-        <v>2019</v>
-      </c>
-      <c r="S19" s="49">
-        <v>10</v>
-      </c>
-      <c r="T19" s="49">
-        <f>AVERAGE(L36:L45)</f>
-        <v>25.7</v>
-      </c>
-      <c r="U19" s="53"/>
-      <c r="V19" s="97">
-        <f>AVERAGE(M36:M45)</f>
-        <v>10.43</v>
-      </c>
-      <c r="W19" s="97">
-        <f t="shared" ref="W19:X19" si="7">AVERAGE(N36:N45)</f>
-        <v>1.8580000000000001</v>
-      </c>
-      <c r="X19" s="97">
-        <f t="shared" si="7"/>
-        <v>2.464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="63">
-        <v>1</v>
-      </c>
-      <c r="B21" s="53">
-        <v>37</v>
-      </c>
-      <c r="C21" s="100">
-        <v>11.5</v>
-      </c>
-      <c r="D21" s="100">
-        <v>3.78</v>
-      </c>
-      <c r="E21" s="100">
-        <v>3.22</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="53">
-        <v>31</v>
-      </c>
-      <c r="H21" s="100">
-        <v>10.3</v>
-      </c>
-      <c r="I21" s="100">
-        <v>4.95</v>
-      </c>
-      <c r="J21" s="100">
-        <v>3.01</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="53">
-        <v>17</v>
-      </c>
-      <c r="M21" s="100">
-        <v>4.7</v>
-      </c>
-      <c r="N21" s="100">
-        <v>2</v>
-      </c>
-      <c r="O21" s="100">
-        <v>3.62</v>
-      </c>
-      <c r="R21" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="103">
-        <v>2</v>
-      </c>
-      <c r="B22" s="49">
-        <v>33</v>
-      </c>
-      <c r="C22" s="97">
-        <v>10.1</v>
-      </c>
-      <c r="D22" s="97">
-        <v>4.07</v>
-      </c>
-      <c r="E22" s="97">
-        <v>3.27</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="49">
-        <v>32</v>
-      </c>
-      <c r="H22" s="97">
-        <v>9.1</v>
-      </c>
-      <c r="I22" s="97">
-        <v>3.67</v>
-      </c>
-      <c r="J22" s="97">
-        <v>3.52</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="49">
-        <v>20</v>
-      </c>
-      <c r="M22" s="97">
-        <v>5.5</v>
-      </c>
-      <c r="N22" s="97">
-        <v>2.17</v>
-      </c>
-      <c r="O22" s="97">
-        <v>3.64</v>
-      </c>
-      <c r="R22" s="96">
-        <v>1979</v>
-      </c>
-      <c r="S22" s="49">
-        <v>30</v>
-      </c>
-      <c r="T22" s="49">
-        <f>AVERAGE(B51:B60)</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="U22" s="37"/>
-      <c r="V22" s="97">
-        <f>AVERAGE(C51:C60)</f>
-        <v>10.216000000000001</v>
-      </c>
-      <c r="W22" s="97">
-        <f t="shared" ref="W22:X22" si="8">AVERAGE(D51:D60)</f>
-        <v>3.5289999999999999</v>
-      </c>
-      <c r="X22" s="97">
-        <f t="shared" si="8"/>
-        <v>3.9989999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="63">
-        <v>3</v>
-      </c>
-      <c r="B23" s="53">
-        <v>39</v>
-      </c>
-      <c r="C23" s="98">
-        <v>12.8</v>
-      </c>
-      <c r="D23" s="98">
-        <v>4.49</v>
-      </c>
-      <c r="E23" s="98">
-        <v>3.05</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="53">
-        <v>31</v>
-      </c>
-      <c r="H23" s="98">
-        <v>8</v>
-      </c>
-      <c r="I23" s="98">
-        <v>2.94</v>
-      </c>
-      <c r="J23" s="98">
-        <v>3.88</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="53">
-        <v>22</v>
-      </c>
-      <c r="M23" s="98">
-        <v>5.4</v>
-      </c>
-      <c r="N23" s="98">
-        <v>2.59</v>
-      </c>
-      <c r="O23" s="98">
-        <v>4.07</v>
-      </c>
-      <c r="R23" s="37">
-        <v>1999</v>
-      </c>
-      <c r="S23" s="49">
-        <v>30</v>
-      </c>
-      <c r="T23" s="53">
-        <f>AVERAGE(G51:G60)</f>
-        <v>40.1</v>
-      </c>
-      <c r="U23" s="37"/>
-      <c r="V23" s="100">
-        <f>AVERAGE(H51:H60)</f>
-        <v>9.706999999999999</v>
-      </c>
-      <c r="W23" s="100">
-        <f t="shared" ref="W23:X23" si="9">AVERAGE(I51:I60)</f>
-        <v>3.2749999999999999</v>
-      </c>
-      <c r="X23" s="100">
-        <f t="shared" si="9"/>
-        <v>4.1420000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="103">
-        <v>4</v>
-      </c>
-      <c r="B24" s="49">
-        <v>31</v>
-      </c>
-      <c r="C24" s="97">
-        <v>10.1</v>
-      </c>
-      <c r="D24" s="97">
-        <v>4.2</v>
-      </c>
-      <c r="E24" s="97">
-        <v>3.07</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="49">
-        <v>30</v>
-      </c>
-      <c r="H24" s="97">
-        <v>10.7</v>
-      </c>
-      <c r="I24" s="97">
-        <v>4.45</v>
-      </c>
-      <c r="J24" s="97">
-        <v>2.8</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="49">
-        <v>21</v>
-      </c>
-      <c r="M24" s="97">
-        <v>5.2</v>
-      </c>
-      <c r="N24" s="97">
-        <v>2.78</v>
-      </c>
-      <c r="O24" s="97">
-        <v>4.04</v>
-      </c>
-      <c r="R24" s="96">
-        <v>2019</v>
-      </c>
-      <c r="S24" s="49">
-        <v>30</v>
-      </c>
-      <c r="T24" s="49">
-        <f>AVERAGE(L51:L60)</f>
-        <v>37.299999999999997</v>
-      </c>
-      <c r="U24" s="37"/>
-      <c r="V24" s="97">
-        <f>AVERAGE(M51:M60)</f>
-        <v>7.9449999999999985</v>
-      </c>
-      <c r="W24" s="97">
-        <f t="shared" ref="W24:X24" si="10">AVERAGE(N51:N60)</f>
-        <v>3.1510000000000002</v>
-      </c>
-      <c r="X24" s="97">
-        <f t="shared" si="10"/>
-        <v>4.697000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="63">
-        <v>5</v>
-      </c>
-      <c r="B25" s="53">
-        <v>37</v>
-      </c>
-      <c r="C25" s="100">
-        <v>11.7</v>
-      </c>
-      <c r="D25" s="100">
-        <v>2.5</v>
-      </c>
-      <c r="E25" s="100">
-        <v>3.16</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="53">
-        <v>31</v>
-      </c>
-      <c r="H25" s="100">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I25" s="100">
-        <v>3.88</v>
-      </c>
-      <c r="J25" s="100">
-        <v>3.78</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="53">
-        <v>23</v>
-      </c>
-      <c r="M25" s="100">
-        <v>7</v>
-      </c>
-      <c r="N25" s="100">
-        <v>2.83</v>
-      </c>
-      <c r="O25" s="100">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="103">
-        <v>6</v>
-      </c>
-      <c r="B26" s="49">
-        <v>32</v>
-      </c>
-      <c r="C26" s="97">
-        <v>11.2</v>
-      </c>
-      <c r="D26" s="97">
-        <v>3.91</v>
-      </c>
-      <c r="E26" s="97">
-        <v>2.86</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="49">
-        <v>32</v>
-      </c>
-      <c r="H26" s="97">
-        <v>12.9</v>
-      </c>
-      <c r="I26" s="97">
-        <v>2.82</v>
-      </c>
-      <c r="J26" s="97">
-        <v>2.48</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="49">
-        <v>19</v>
-      </c>
-      <c r="M26" s="97">
-        <v>5.3</v>
-      </c>
-      <c r="N26" s="97">
-        <v>2.71</v>
-      </c>
-      <c r="O26" s="97">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="63">
-        <v>7</v>
-      </c>
-      <c r="B27" s="49">
-        <v>35</v>
-      </c>
-      <c r="C27" s="97">
-        <v>11</v>
-      </c>
-      <c r="D27" s="97">
-        <v>3.94</v>
-      </c>
-      <c r="E27" s="97">
-        <v>3.18</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="35">
-        <v>30</v>
-      </c>
-      <c r="H27" s="98">
-        <v>9.1</v>
-      </c>
-      <c r="I27" s="98">
-        <v>3.21</v>
-      </c>
-      <c r="J27" s="98">
-        <v>3.3</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="35">
-        <v>23</v>
-      </c>
-      <c r="M27" s="98">
-        <v>5.9</v>
-      </c>
-      <c r="N27" s="98">
-        <v>2.88</v>
-      </c>
-      <c r="O27" s="98">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="103">
-        <v>8</v>
-      </c>
-      <c r="B28" s="49">
-        <v>35</v>
-      </c>
-      <c r="C28" s="97">
-        <v>10.5</v>
-      </c>
-      <c r="D28" s="97">
-        <v>4.12</v>
-      </c>
-      <c r="E28" s="97">
-        <v>3.33</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="53">
-        <v>27</v>
-      </c>
-      <c r="H28" s="98">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I28" s="98">
-        <v>3.06</v>
-      </c>
-      <c r="J28" s="98">
-        <v>3.25</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="53">
-        <v>25</v>
-      </c>
-      <c r="M28" s="98">
-        <v>6.5</v>
-      </c>
-      <c r="N28" s="98">
-        <v>3.31</v>
-      </c>
-      <c r="O28" s="98">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="63">
-        <v>9</v>
-      </c>
-      <c r="B29" s="49">
-        <v>37</v>
-      </c>
-      <c r="C29" s="97">
-        <v>10.1</v>
-      </c>
-      <c r="D29" s="97">
-        <v>3.93</v>
-      </c>
-      <c r="E29" s="97">
-        <v>3.66</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="65">
-        <v>28</v>
-      </c>
-      <c r="H29" s="104">
-        <v>8.6</v>
-      </c>
-      <c r="I29" s="104">
-        <v>3.24</v>
-      </c>
-      <c r="J29" s="104">
-        <v>3.26</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="65">
-        <v>24</v>
-      </c>
-      <c r="M29" s="104">
-        <v>6.7</v>
-      </c>
-      <c r="N29" s="104">
-        <v>3.23</v>
-      </c>
-      <c r="O29" s="104">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="103">
-        <v>10</v>
-      </c>
-      <c r="B30" s="49">
-        <v>35</v>
-      </c>
-      <c r="C30" s="97">
-        <v>10</v>
-      </c>
-      <c r="D30" s="97">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E30" s="97">
-        <v>3.5</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="49">
-        <v>32</v>
-      </c>
-      <c r="H30" s="97">
-        <v>11.2</v>
-      </c>
-      <c r="I30" s="97">
-        <v>3.91</v>
-      </c>
-      <c r="J30" s="97">
-        <v>2.86</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="49">
-        <v>23</v>
-      </c>
-      <c r="M30" s="97">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N30" s="97">
-        <v>2.42</v>
-      </c>
-      <c r="O30" s="97">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="150">
-        <v>1979</v>
-      </c>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="G34" s="150">
-        <v>1999</v>
-      </c>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="L34" s="150">
-        <v>2019</v>
-      </c>
-      <c r="M34" s="150"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="150"/>
-    </row>
-    <row r="35" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J35" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="L35" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="N35" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="O35" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="63">
-        <v>1</v>
-      </c>
-      <c r="B36" s="53">
-        <v>27</v>
-      </c>
-      <c r="C36" s="100">
-        <v>10.8</v>
-      </c>
-      <c r="D36" s="100">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="E36" s="100">
-        <v>2.5</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="53">
-        <v>31</v>
-      </c>
-      <c r="H36" s="100">
-        <v>11</v>
-      </c>
-      <c r="I36" s="100">
-        <v>3.68</v>
-      </c>
-      <c r="J36" s="100">
-        <v>2.82</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="53">
-        <v>24</v>
-      </c>
-      <c r="M36" s="100">
-        <v>11</v>
-      </c>
-      <c r="N36" s="100">
-        <v>1.7</v>
-      </c>
-      <c r="O36" s="100">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="103">
-        <v>2</v>
-      </c>
-      <c r="B37" s="49">
-        <v>29</v>
-      </c>
-      <c r="C37" s="97">
-        <v>11.7</v>
-      </c>
-      <c r="D37" s="97">
-        <v>3.4</v>
-      </c>
-      <c r="E37" s="97">
-        <v>2.48</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="49">
-        <v>31</v>
-      </c>
-      <c r="H37" s="97">
-        <v>11</v>
-      </c>
-      <c r="I37" s="97">
-        <v>2.83</v>
-      </c>
-      <c r="J37" s="97">
-        <v>2.82</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="49">
-        <v>23</v>
-      </c>
-      <c r="M37" s="97">
-        <v>10.6</v>
-      </c>
-      <c r="N37" s="97">
-        <v>1.07</v>
-      </c>
-      <c r="O37" s="97">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="63">
-        <v>3</v>
-      </c>
-      <c r="B38" s="53">
-        <v>29</v>
-      </c>
-      <c r="C38" s="98">
-        <v>11.1</v>
-      </c>
-      <c r="D38" s="98">
-        <v>4.51</v>
-      </c>
-      <c r="E38" s="98">
-        <v>2.61</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="53">
-        <v>32</v>
-      </c>
-      <c r="H38" s="98">
-        <v>11.7</v>
-      </c>
-      <c r="I38" s="98">
-        <v>3.43</v>
-      </c>
-      <c r="J38" s="98">
-        <v>2.74</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="53">
-        <v>22</v>
-      </c>
-      <c r="M38" s="98">
-        <v>9.4</v>
-      </c>
-      <c r="N38" s="98">
-        <v>2.12</v>
-      </c>
-      <c r="O38" s="98">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="103">
-        <v>4</v>
-      </c>
-      <c r="B39" s="49">
-        <v>27</v>
-      </c>
-      <c r="C39" s="97">
-        <v>12.6</v>
-      </c>
-      <c r="D39" s="97">
-        <v>2.91</v>
-      </c>
-      <c r="E39" s="97">
-        <v>2.14</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="49">
-        <v>32</v>
-      </c>
-      <c r="H39" s="97">
-        <v>11.5</v>
-      </c>
-      <c r="I39" s="97">
-        <v>3.34</v>
-      </c>
-      <c r="J39" s="97">
-        <v>2.78</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="49">
-        <v>27</v>
-      </c>
-      <c r="M39" s="97">
-        <v>10.7</v>
-      </c>
-      <c r="N39" s="97">
-        <v>0.82</v>
-      </c>
-      <c r="O39" s="97">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="63">
-        <v>5</v>
-      </c>
-      <c r="B40" s="53">
-        <v>27</v>
-      </c>
-      <c r="C40" s="100">
-        <v>11.4</v>
-      </c>
-      <c r="D40" s="100">
-        <v>4.22</v>
-      </c>
-      <c r="E40" s="100">
-        <v>2.37</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="53">
-        <v>32</v>
-      </c>
-      <c r="H40" s="100">
-        <v>11.8</v>
-      </c>
-      <c r="I40" s="100">
-        <v>3.43</v>
-      </c>
-      <c r="J40" s="100">
-        <v>2.71</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="53">
-        <v>24</v>
-      </c>
-      <c r="M40" s="100">
-        <v>10.6</v>
-      </c>
-      <c r="N40" s="100">
-        <v>1.78</v>
-      </c>
-      <c r="O40" s="100">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="103">
-        <v>6</v>
-      </c>
-      <c r="B41" s="49">
-        <v>34</v>
-      </c>
-      <c r="C41" s="97">
-        <v>10.9</v>
-      </c>
-      <c r="D41" s="97">
-        <v>2.64</v>
-      </c>
-      <c r="E41" s="97">
-        <v>3.12</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="49">
-        <v>33</v>
-      </c>
-      <c r="H41" s="97">
-        <v>11.8</v>
-      </c>
-      <c r="I41" s="97">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="J41" s="97">
-        <v>2.8</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="49">
-        <v>27</v>
-      </c>
-      <c r="M41" s="97">
-        <v>10.3</v>
-      </c>
-      <c r="N41" s="97">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="O41" s="97">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="63">
-        <v>7</v>
-      </c>
-      <c r="B42" s="49">
-        <v>25</v>
-      </c>
-      <c r="C42" s="97">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D42" s="97">
-        <v>3.99</v>
-      </c>
-      <c r="E42" s="97">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="35">
-        <v>33</v>
-      </c>
-      <c r="H42" s="98">
-        <v>11.8</v>
-      </c>
-      <c r="I42" s="98">
-        <v>3.33</v>
-      </c>
-      <c r="J42" s="98">
-        <v>2.8</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="35">
-        <v>27</v>
-      </c>
-      <c r="M42" s="98">
-        <v>10.3</v>
-      </c>
-      <c r="N42" s="98">
-        <v>2.21</v>
-      </c>
-      <c r="O42" s="98">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="103">
-        <v>8</v>
-      </c>
-      <c r="B43" s="49">
-        <v>25</v>
-      </c>
-      <c r="C43" s="97">
-        <v>11.7</v>
-      </c>
-      <c r="D43" s="97">
-        <v>3.13</v>
-      </c>
-      <c r="E43" s="97">
-        <v>2.14</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="53">
-        <v>31</v>
-      </c>
-      <c r="H43" s="98">
-        <v>10.7</v>
-      </c>
-      <c r="I43" s="98">
-        <v>3.62</v>
-      </c>
-      <c r="J43" s="98">
-        <v>2.9</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="53">
-        <v>28</v>
-      </c>
-      <c r="M43" s="98">
-        <v>10.6</v>
-      </c>
-      <c r="N43" s="98">
-        <v>2.12</v>
-      </c>
-      <c r="O43" s="98">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="63">
-        <v>9</v>
-      </c>
-      <c r="B44" s="49">
-        <v>26</v>
-      </c>
-      <c r="C44" s="97">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D44" s="97">
-        <v>3.33</v>
-      </c>
-      <c r="E44" s="97">
-        <v>2.65</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="65">
-        <v>34</v>
-      </c>
-      <c r="H44" s="104">
-        <v>11</v>
-      </c>
-      <c r="I44" s="104">
-        <v>2.98</v>
-      </c>
-      <c r="J44" s="104">
-        <v>3.09</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="65">
-        <v>26</v>
-      </c>
-      <c r="M44" s="104">
-        <v>10.6</v>
-      </c>
-      <c r="N44" s="104">
-        <v>1.84</v>
-      </c>
-      <c r="O44" s="104">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="103">
-        <v>10</v>
-      </c>
-      <c r="B45" s="49">
-        <v>24</v>
-      </c>
-      <c r="C45" s="97">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D45" s="97">
-        <v>3.82</v>
-      </c>
-      <c r="E45" s="97">
-        <v>2.35</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="49">
-        <v>34</v>
-      </c>
-      <c r="H45" s="97">
-        <v>10.9</v>
-      </c>
-      <c r="I45" s="97">
-        <v>2.64</v>
-      </c>
-      <c r="J45" s="97">
-        <v>3.12</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="49">
-        <v>29</v>
-      </c>
-      <c r="M45" s="97">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N45" s="97">
-        <v>2.66</v>
-      </c>
-      <c r="O45" s="97">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="49" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="150">
-        <v>1979</v>
-      </c>
-      <c r="C49" s="150"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="150"/>
-      <c r="G49" s="150">
-        <v>1999</v>
-      </c>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="150"/>
-      <c r="L49" s="150">
-        <v>2019</v>
-      </c>
-      <c r="M49" s="150"/>
-      <c r="N49" s="150"/>
-      <c r="O49" s="150"/>
-    </row>
-    <row r="50" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J50" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="L50" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="M50" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="N50" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="O50" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="63">
-        <v>1</v>
-      </c>
-      <c r="B51" s="53">
-        <v>40</v>
-      </c>
-      <c r="C51" s="53">
-        <v>10.33</v>
-      </c>
-      <c r="D51" s="53">
-        <v>3.62</v>
-      </c>
-      <c r="E51" s="53">
-        <v>3.87</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="53">
-        <v>39</v>
-      </c>
-      <c r="H51" s="53">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="I51" s="53">
-        <v>3.72</v>
-      </c>
-      <c r="J51" s="53">
-        <v>3.89</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="53">
-        <v>35</v>
-      </c>
-      <c r="M51" s="100">
-        <v>7.63</v>
-      </c>
-      <c r="N51" s="100">
-        <v>3.42</v>
-      </c>
-      <c r="O51" s="100">
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="103">
-        <v>2</v>
-      </c>
-      <c r="B52" s="49">
-        <v>42</v>
-      </c>
-      <c r="C52" s="97">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="D52" s="97">
-        <v>3.48</v>
-      </c>
-      <c r="E52" s="97">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="49">
-        <v>38</v>
-      </c>
-      <c r="H52" s="97">
-        <v>9.27</v>
-      </c>
-      <c r="I52" s="97">
-        <v>3.07</v>
-      </c>
-      <c r="J52" s="97">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="49">
-        <v>36</v>
-      </c>
-      <c r="M52" s="97">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="N52" s="97">
-        <v>2.76</v>
-      </c>
-      <c r="O52" s="97">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="63">
-        <v>3</v>
-      </c>
-      <c r="B53" s="53">
-        <v>43</v>
-      </c>
-      <c r="C53" s="98">
-        <v>10.9</v>
-      </c>
-      <c r="D53" s="98">
-        <v>4.03</v>
-      </c>
-      <c r="E53" s="98">
-        <v>3.94</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="53">
-        <v>41</v>
-      </c>
-      <c r="H53" s="98">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="I53" s="98">
-        <v>3.2</v>
-      </c>
-      <c r="J53" s="98">
-        <v>4.33</v>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="53">
-        <v>37</v>
-      </c>
-      <c r="M53" s="98">
-        <v>7.53</v>
-      </c>
-      <c r="N53" s="98">
-        <v>2.83</v>
-      </c>
-      <c r="O53" s="98">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="103">
-        <v>4</v>
-      </c>
-      <c r="B54" s="49">
-        <v>40</v>
-      </c>
-      <c r="C54" s="97">
-        <v>10.73</v>
-      </c>
-      <c r="D54" s="97">
-        <v>3.44</v>
-      </c>
-      <c r="E54" s="97">
-        <v>3.73</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="49">
-        <v>42</v>
-      </c>
-      <c r="H54" s="97">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="I54" s="97">
-        <v>3.6</v>
-      </c>
-      <c r="J54" s="97">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="49">
-        <v>36</v>
-      </c>
-      <c r="M54" s="97">
-        <v>7.8</v>
-      </c>
-      <c r="N54" s="97">
-        <v>3.29</v>
-      </c>
-      <c r="O54" s="97">
-        <v>4.6100000000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="63">
-        <v>5</v>
-      </c>
-      <c r="B55" s="53">
-        <v>38</v>
-      </c>
-      <c r="C55" s="100">
-        <v>10.67</v>
-      </c>
-      <c r="D55" s="100">
-        <v>3.4</v>
-      </c>
-      <c r="E55" s="100">
-        <v>3.56</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="53">
-        <v>39</v>
-      </c>
-      <c r="H55" s="100">
-        <v>9.3699999999999992</v>
-      </c>
-      <c r="I55" s="100">
-        <v>3.59</v>
-      </c>
-      <c r="J55" s="100">
-        <v>4.16</v>
-      </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="53">
-        <v>37</v>
-      </c>
-      <c r="M55" s="100">
-        <v>8.5</v>
-      </c>
-      <c r="N55" s="100">
-        <v>3.03</v>
-      </c>
-      <c r="O55" s="100">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="103">
-        <v>6</v>
-      </c>
-      <c r="B56" s="49">
-        <v>40</v>
-      </c>
-      <c r="C56" s="97">
-        <v>9.77</v>
-      </c>
-      <c r="D56" s="97">
-        <v>3.28</v>
-      </c>
-      <c r="E56" s="97">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="49">
-        <v>41</v>
-      </c>
-      <c r="H56" s="97">
-        <v>11.03</v>
-      </c>
-      <c r="I56" s="97">
-        <v>3.05</v>
-      </c>
-      <c r="J56" s="97">
-        <v>3.72</v>
-      </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="49">
-        <v>38</v>
-      </c>
-      <c r="M56" s="97">
-        <v>8</v>
-      </c>
-      <c r="N56" s="97">
-        <v>3.33</v>
-      </c>
-      <c r="O56" s="97">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="63">
-        <v>7</v>
-      </c>
-      <c r="B57" s="49">
-        <v>41</v>
-      </c>
-      <c r="C57" s="97">
-        <v>9.9</v>
-      </c>
-      <c r="D57" s="97">
-        <v>3.73</v>
-      </c>
-      <c r="E57" s="97">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="35">
-        <v>42</v>
-      </c>
-      <c r="H57" s="98">
-        <v>9.6</v>
-      </c>
-      <c r="I57" s="98">
-        <v>3.14</v>
-      </c>
-      <c r="J57" s="98">
-        <v>4.38</v>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="35">
-        <v>38</v>
-      </c>
-      <c r="M57" s="98">
-        <v>8</v>
-      </c>
-      <c r="N57" s="98">
-        <v>3.01</v>
-      </c>
-      <c r="O57" s="98">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="103">
-        <v>8</v>
-      </c>
-      <c r="B58" s="49">
-        <v>42</v>
-      </c>
-      <c r="C58" s="97">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D58" s="97">
-        <v>3.54</v>
-      </c>
-      <c r="E58" s="97">
-        <v>4.12</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="53">
-        <v>39</v>
-      </c>
-      <c r="H58" s="98">
-        <v>9.1</v>
-      </c>
-      <c r="I58" s="98">
-        <v>3.16</v>
-      </c>
-      <c r="J58" s="98">
-        <v>4.29</v>
-      </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="53">
-        <v>40</v>
-      </c>
-      <c r="M58" s="98">
-        <v>8.27</v>
-      </c>
-      <c r="N58" s="98">
-        <v>3.3</v>
-      </c>
-      <c r="O58" s="98">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="63">
-        <v>9</v>
-      </c>
-      <c r="B59" s="49">
-        <v>42</v>
-      </c>
-      <c r="C59" s="97">
-        <v>9.83</v>
-      </c>
-      <c r="D59" s="97">
-        <v>3.25</v>
-      </c>
-      <c r="E59" s="97">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="65">
-        <v>40</v>
-      </c>
-      <c r="H59" s="104">
-        <v>9.4</v>
-      </c>
-      <c r="I59" s="104">
-        <v>2.94</v>
-      </c>
-      <c r="J59" s="104">
-        <v>4.26</v>
-      </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="65">
-        <v>36</v>
-      </c>
-      <c r="M59" s="104">
-        <v>8.07</v>
-      </c>
-      <c r="N59" s="104">
-        <v>3.14</v>
-      </c>
-      <c r="O59" s="104">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="103">
-        <v>10</v>
-      </c>
-      <c r="B60" s="49">
-        <v>40</v>
-      </c>
-      <c r="C60" s="97">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D60" s="97">
-        <v>3.52</v>
-      </c>
-      <c r="E60" s="97">
-        <v>4.12</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="49">
-        <v>40</v>
-      </c>
-      <c r="H60" s="97">
-        <v>9.77</v>
-      </c>
-      <c r="I60" s="97">
-        <v>3.28</v>
-      </c>
-      <c r="J60" s="97">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="49">
-        <v>40</v>
-      </c>
-      <c r="M60" s="97">
-        <v>7.53</v>
-      </c>
-      <c r="N60" s="97">
-        <v>3.4</v>
-      </c>
-      <c r="O60" s="97">
-        <v>5.31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483727557648AA40B029C215891F95C5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d36f379eec1cf084072dcf956aecbcf8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8c008993-a31f-4b40-b1f3-88dd9c6e1924" xmlns:ns4="360018dd-41eb-4458-b1d4-4b46a95a2b02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd1f472f1ef3281fe4dbeb8213942d38" ns3:_="" ns4:_="">
     <xsd:import namespace="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
@@ -13667,36 +14973,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788966EF-76C7-4555-8184-5346880E3019}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870C599-734A-4F80-B43A-AAD654208358}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13719,9 +14999,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D870C599-734A-4F80-B43A-AAD654208358}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{788966EF-76C7-4555-8184-5346880E3019}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>